--- a/Code/Results/Cases/Case_3_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.98565145523249</v>
+        <v>20.98565145523255</v>
       </c>
       <c r="C2">
-        <v>13.4891834258772</v>
+        <v>13.48918342587725</v>
       </c>
       <c r="D2">
-        <v>4.030344245951658</v>
+        <v>4.030344245951603</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.05970452445119</v>
+        <v>29.05970452445116</v>
       </c>
       <c r="G2">
-        <v>21.18129209125841</v>
+        <v>21.18129209125837</v>
       </c>
       <c r="H2">
-        <v>17.67385347044625</v>
+        <v>17.67385347044619</v>
       </c>
       <c r="I2">
-        <v>11.24918022220594</v>
+        <v>11.24918022220596</v>
       </c>
       <c r="J2">
-        <v>18.18070997758181</v>
+        <v>18.18070997758183</v>
       </c>
       <c r="K2">
-        <v>17.84321774473349</v>
+        <v>17.8432177447335</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.54160295876472</v>
+        <v>19.54160295876483</v>
       </c>
       <c r="C3">
-        <v>12.58517910875651</v>
+        <v>12.58517910875649</v>
       </c>
       <c r="D3">
-        <v>3.894721794118455</v>
+        <v>3.894721794118506</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.74555387694695</v>
+        <v>27.74555387694686</v>
       </c>
       <c r="G3">
-        <v>20.43775573957972</v>
+        <v>20.43775573957961</v>
       </c>
       <c r="H3">
-        <v>17.35803219298094</v>
+        <v>17.35803219298082</v>
       </c>
       <c r="I3">
         <v>10.56513696723566</v>
       </c>
       <c r="J3">
-        <v>16.97359848392479</v>
+        <v>16.97359848392487</v>
       </c>
       <c r="K3">
-        <v>16.56289030857234</v>
+        <v>16.56289030857237</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.60703237828384</v>
+        <v>18.60703237828373</v>
       </c>
       <c r="C4">
-        <v>12.00142002877386</v>
+        <v>12.00142002877388</v>
       </c>
       <c r="D4">
-        <v>3.808895244075075</v>
+        <v>3.808895244075118</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.94689188719921</v>
+        <v>26.94689188719927</v>
       </c>
       <c r="G4">
-        <v>19.99728865065024</v>
+        <v>19.99728865065033</v>
       </c>
       <c r="H4">
-        <v>17.1861021732116</v>
+        <v>17.18610217321169</v>
       </c>
       <c r="I4">
-        <v>10.16754559939356</v>
+        <v>10.16754559939355</v>
       </c>
       <c r="J4">
-        <v>16.19360341865341</v>
+        <v>16.19360341865332</v>
       </c>
       <c r="K4">
-        <v>15.73827364077134</v>
+        <v>15.73827364077133</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.21399137599559</v>
+        <v>18.21399137599551</v>
       </c>
       <c r="C5">
-        <v>11.75623833403356</v>
+        <v>11.7562383340337</v>
       </c>
       <c r="D5">
-        <v>3.773300898330341</v>
+        <v>3.773300898330095</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.62380917992481</v>
+        <v>26.62380917992501</v>
       </c>
       <c r="G5">
-        <v>19.82190169113576</v>
+        <v>19.82190169113586</v>
       </c>
       <c r="H5">
-        <v>17.12135483947205</v>
+        <v>17.12135483947219</v>
       </c>
       <c r="I5">
-        <v>10.0041890526505</v>
+        <v>10.00418905265051</v>
       </c>
       <c r="J5">
-        <v>15.8658924186516</v>
+        <v>15.86589241865159</v>
       </c>
       <c r="K5">
-        <v>15.3923745005987</v>
+        <v>15.39237450059868</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.14798649714317</v>
+        <v>18.14798649714313</v>
       </c>
       <c r="C6">
-        <v>11.71508338979485</v>
+        <v>11.71508338979493</v>
       </c>
       <c r="D6">
-        <v>3.767353819707581</v>
+        <v>3.76735381970757</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.57031518773832</v>
+        <v>26.57031518773837</v>
       </c>
       <c r="G6">
-        <v>19.79302886476159</v>
+        <v>19.79302886476162</v>
       </c>
       <c r="H6">
-        <v>17.11091816745865</v>
+        <v>17.11091816745866</v>
       </c>
       <c r="I6">
-        <v>9.976987594262935</v>
+        <v>9.976987594262924</v>
       </c>
       <c r="J6">
-        <v>15.81087846439386</v>
+        <v>15.8108784643938</v>
       </c>
       <c r="K6">
-        <v>15.33433749994034</v>
+        <v>15.33433749994035</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.60178125832508</v>
+        <v>18.60178125832506</v>
       </c>
       <c r="C7">
-        <v>11.99814305730212</v>
+        <v>11.99814305730214</v>
       </c>
       <c r="D7">
-        <v>3.8084176809792</v>
+        <v>3.808417680979251</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.94252460518906</v>
+        <v>26.942524605189</v>
       </c>
       <c r="G7">
-        <v>19.9949066014152</v>
+        <v>19.99490660141517</v>
       </c>
       <c r="H7">
-        <v>17.18520773612786</v>
+        <v>17.18520773612784</v>
       </c>
       <c r="I7">
-        <v>10.1653477282107</v>
+        <v>10.16534772821071</v>
       </c>
       <c r="J7">
         <v>16.18922381710433</v>
       </c>
       <c r="K7">
-        <v>15.73364888481672</v>
+        <v>15.73364888481674</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.49759825226911</v>
+        <v>20.49759825226914</v>
       </c>
       <c r="C8">
-        <v>13.18338771332867</v>
+        <v>13.18338771332858</v>
       </c>
       <c r="D8">
-        <v>3.984124189014312</v>
+        <v>3.984124189014367</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.60504486543257</v>
+        <v>28.60504486543244</v>
       </c>
       <c r="G8">
-        <v>20.92162392658396</v>
+        <v>20.92162392658388</v>
       </c>
       <c r="H8">
-        <v>17.56027085641103</v>
+        <v>17.56027085641091</v>
       </c>
       <c r="I8">
-        <v>10.98448413834576</v>
+        <v>10.98448413834578</v>
       </c>
       <c r="J8">
         <v>17.77249460291019</v>
       </c>
       <c r="K8">
-        <v>17.40963599980393</v>
+        <v>17.40963599980392</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>23.84216415916892</v>
       </c>
       <c r="C9">
-        <v>15.28410483796838</v>
+        <v>15.28410483796857</v>
       </c>
       <c r="D9">
-        <v>4.307619822332962</v>
+        <v>4.307619822332868</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.92025850726962</v>
+        <v>31.92025850726953</v>
       </c>
       <c r="G9">
-        <v>22.86416773008219</v>
+        <v>22.86416773008211</v>
       </c>
       <c r="H9">
-        <v>18.47919357824553</v>
+        <v>18.47919357824545</v>
       </c>
       <c r="I9">
         <v>12.915635230066</v>
@@ -705,7 +705,7 @@
         <v>20.57424868335127</v>
       </c>
       <c r="K9">
-        <v>20.39973664779468</v>
+        <v>20.3997366477947</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.08263738679278</v>
+        <v>26.08263738679285</v>
       </c>
       <c r="C10">
-        <v>16.69785798071701</v>
+        <v>16.69785798071713</v>
       </c>
       <c r="D10">
-        <v>4.531668906375357</v>
+        <v>4.53166890637528</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.38130141164365</v>
+        <v>34.38130141164376</v>
       </c>
       <c r="G10">
-        <v>24.36668933269338</v>
+        <v>24.36668933269346</v>
       </c>
       <c r="H10">
-        <v>19.27805180692661</v>
+        <v>19.27805180692667</v>
       </c>
       <c r="I10">
-        <v>14.24859178466872</v>
+        <v>14.24859178466873</v>
       </c>
       <c r="J10">
-        <v>22.45603519482582</v>
+        <v>22.45603519482592</v>
       </c>
       <c r="K10">
-        <v>22.42937834084393</v>
+        <v>22.42937834084396</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.05743810488757</v>
+        <v>27.05743810488765</v>
       </c>
       <c r="C11">
-        <v>17.31457576944343</v>
+        <v>17.31457576944355</v>
       </c>
       <c r="D11">
-        <v>4.630552321883565</v>
+        <v>4.630552321883692</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.50643562708296</v>
+        <v>35.50643562708299</v>
       </c>
       <c r="G11">
-        <v>25.06713668366276</v>
+        <v>25.06713668366277</v>
       </c>
       <c r="H11">
-        <v>19.67091217552437</v>
+        <v>19.67091217552436</v>
       </c>
       <c r="I11">
-        <v>14.83630268935911</v>
+        <v>14.83630268935906</v>
       </c>
       <c r="J11">
-        <v>23.27584545999564</v>
+        <v>23.27584545999571</v>
       </c>
       <c r="K11">
-        <v>23.31981094618397</v>
+        <v>23.31981094618396</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.42042648326033</v>
+        <v>27.42042648326036</v>
       </c>
       <c r="C12">
-        <v>17.54447631060064</v>
+        <v>17.54447631060052</v>
       </c>
       <c r="D12">
-        <v>4.667558149620774</v>
+        <v>4.667558149620782</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.93342724066147</v>
+        <v>35.93342724066149</v>
       </c>
       <c r="G12">
-        <v>25.33492512419093</v>
+        <v>25.33492512419095</v>
       </c>
       <c r="H12">
-        <v>19.82413934363147</v>
+        <v>19.82413934363148</v>
       </c>
       <c r="I12">
-        <v>15.05641789132846</v>
+        <v>15.05641789132845</v>
       </c>
       <c r="J12">
-        <v>23.58127604441997</v>
+        <v>23.58127604441998</v>
       </c>
       <c r="K12">
-        <v>23.65258907019161</v>
+        <v>23.65258907019158</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.34251980036329</v>
+        <v>27.34251980036331</v>
       </c>
       <c r="C13">
         <v>17.49512211489285</v>
       </c>
       <c r="D13">
-        <v>4.659607809217063</v>
+        <v>4.659607809217083</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.84142259837539</v>
+        <v>35.8414225983754</v>
       </c>
       <c r="G13">
-        <v>25.27713654851704</v>
+        <v>25.27713654851706</v>
       </c>
       <c r="H13">
-        <v>19.79093699265336</v>
+        <v>19.79093699265339</v>
       </c>
       <c r="I13">
-        <v>15.00911635140083</v>
+        <v>15.00911635140085</v>
       </c>
       <c r="J13">
         <v>23.51571572410325</v>
       </c>
       <c r="K13">
-        <v>23.58111000905291</v>
+        <v>23.58111000905293</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.08742313230786</v>
+        <v>27.08742313230776</v>
       </c>
       <c r="C14">
-        <v>17.33356173087226</v>
+        <v>17.33356173087211</v>
       </c>
       <c r="D14">
-        <v>4.633605614421572</v>
+        <v>4.633605614421586</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.54154480764423</v>
+        <v>35.54154480764412</v>
       </c>
       <c r="G14">
-        <v>25.08911596942984</v>
+        <v>25.08911596942978</v>
       </c>
       <c r="H14">
-        <v>19.68342753229507</v>
+        <v>19.68342753229505</v>
       </c>
       <c r="I14">
-        <v>14.85445905161055</v>
+        <v>14.85445905161056</v>
       </c>
       <c r="J14">
-        <v>23.30107269729811</v>
+        <v>23.30107269729799</v>
       </c>
       <c r="K14">
-        <v>23.34727522602764</v>
+        <v>23.34727522602765</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,10 +909,10 @@
         <v>26.93037594647878</v>
       </c>
       <c r="C15">
-        <v>17.23413275922529</v>
+        <v>17.23413275922517</v>
       </c>
       <c r="D15">
-        <v>4.617621324784197</v>
+        <v>4.617621324784273</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -921,19 +921,19 @@
         <v>35.35798728121969</v>
       </c>
       <c r="G15">
-        <v>24.97428353031657</v>
+        <v>24.97428353031658</v>
       </c>
       <c r="H15">
         <v>19.6181626479518</v>
       </c>
       <c r="I15">
-        <v>14.75941725821907</v>
+        <v>14.75941725821908</v>
       </c>
       <c r="J15">
-        <v>23.16895090804697</v>
+        <v>23.16895090804693</v>
       </c>
       <c r="K15">
-        <v>23.2034804696398</v>
+        <v>23.20348046963976</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.01805812760661</v>
+        <v>26.01805812760655</v>
       </c>
       <c r="C16">
-        <v>16.65703590925038</v>
+        <v>16.65703590925034</v>
       </c>
       <c r="D16">
-        <v>4.525145222983826</v>
+        <v>4.525145222983676</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.30789196559368</v>
+        <v>34.30789196559363</v>
       </c>
       <c r="G16">
-        <v>24.32126222268767</v>
+        <v>24.32126222268763</v>
       </c>
       <c r="H16">
-        <v>19.25298885118252</v>
+        <v>19.25298885118251</v>
       </c>
       <c r="I16">
-        <v>14.20982829797596</v>
+        <v>14.20982829797597</v>
       </c>
       <c r="J16">
-        <v>22.40174589604277</v>
+        <v>22.40174589604273</v>
       </c>
       <c r="K16">
-        <v>22.37055138957705</v>
+        <v>22.37055138957699</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.44716967916872</v>
+        <v>25.44716967916875</v>
       </c>
       <c r="C17">
-        <v>16.2963503862819</v>
+        <v>16.29635038628185</v>
       </c>
       <c r="D17">
-        <v>4.467633157155745</v>
+        <v>4.467633157155832</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>19.03666406607548</v>
       </c>
       <c r="I17">
-        <v>13.86805950259796</v>
+        <v>13.86805950259797</v>
       </c>
       <c r="J17">
-        <v>21.92194420801129</v>
+        <v>21.92194420801127</v>
       </c>
       <c r="K17">
-        <v>21.85137313733047</v>
+        <v>21.85137313733046</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.11461486899363</v>
+        <v>25.11461486899356</v>
       </c>
       <c r="C18">
-        <v>16.08639751992939</v>
+        <v>16.08639751992947</v>
       </c>
       <c r="D18">
-        <v>4.434267711836491</v>
+        <v>4.434267711836478</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.29602224564895</v>
+        <v>33.29602224564899</v>
       </c>
       <c r="G18">
-        <v>23.69874753772488</v>
+        <v>23.69874753772492</v>
       </c>
       <c r="H18">
-        <v>18.91499802098617</v>
+        <v>18.9149980209862</v>
       </c>
       <c r="I18">
-        <v>13.6697106784024</v>
+        <v>13.66971067840242</v>
       </c>
       <c r="J18">
-        <v>21.64255238445615</v>
+        <v>21.64255238445613</v>
       </c>
       <c r="K18">
-        <v>21.54964148581261</v>
+        <v>21.54964148581264</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.00129021080739</v>
+        <v>25.0012902108072</v>
       </c>
       <c r="C19">
-        <v>16.01487781832097</v>
+        <v>16.01487781832114</v>
       </c>
       <c r="D19">
-        <v>4.422921758140732</v>
+        <v>4.422921758140697</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.17111773144947</v>
+        <v>33.17111773144956</v>
       </c>
       <c r="G19">
-        <v>23.62239456192477</v>
+        <v>23.62239456192486</v>
       </c>
       <c r="H19">
-        <v>18.87427122029568</v>
+        <v>18.87427122029584</v>
       </c>
       <c r="I19">
-        <v>13.60224177656989</v>
+        <v>13.6022417765699</v>
       </c>
       <c r="J19">
-        <v>21.54736171544024</v>
+        <v>21.54736171544016</v>
       </c>
       <c r="K19">
-        <v>21.44693645842025</v>
+        <v>21.44693645842026</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.50837424074536</v>
+        <v>25.50837424074541</v>
       </c>
       <c r="C20">
         <v>16.33500321486785</v>
       </c>
       <c r="D20">
-        <v>4.473785047348282</v>
+        <v>4.473785047348327</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.73354431119452</v>
+        <v>33.73354431119454</v>
       </c>
       <c r="G20">
-        <v>23.96706481567874</v>
+        <v>23.96706481567875</v>
       </c>
       <c r="H20">
-        <v>19.05940518460725</v>
+        <v>19.05940518460724</v>
       </c>
       <c r="I20">
         <v>13.90462313855423</v>
       </c>
       <c r="J20">
-        <v>21.97337280231985</v>
+        <v>21.97337280231989</v>
       </c>
       <c r="K20">
-        <v>21.90696067003191</v>
+        <v>21.90696067003194</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.16251603095012</v>
+        <v>27.16251603095005</v>
       </c>
       <c r="C21">
-        <v>17.38111326776912</v>
+        <v>17.38111326776919</v>
       </c>
       <c r="D21">
-        <v>4.641255007112053</v>
+        <v>4.641255007112004</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.62959949700175</v>
+        <v>35.62959949700172</v>
       </c>
       <c r="G21">
-        <v>25.14427195174322</v>
+        <v>25.14427195174321</v>
       </c>
       <c r="H21">
-        <v>19.71488274546692</v>
+        <v>19.71488274546691</v>
       </c>
       <c r="I21">
-        <v>14.89994971602877</v>
+        <v>14.89994971602876</v>
       </c>
       <c r="J21">
-        <v>23.36425295389929</v>
+        <v>23.36425295389925</v>
       </c>
       <c r="K21">
-        <v>23.41607512957849</v>
+        <v>23.41607512957846</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.20789018878916</v>
+        <v>28.20789018878921</v>
       </c>
       <c r="C22">
-        <v>18.04369598484142</v>
+        <v>18.04369598484141</v>
       </c>
       <c r="D22">
-        <v>4.748148276090807</v>
+        <v>4.748148276090713</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.87432317463344</v>
+        <v>36.87432317463349</v>
       </c>
       <c r="G22">
-        <v>25.92857135767094</v>
+        <v>25.92857135767096</v>
       </c>
       <c r="H22">
         <v>20.16939025083154</v>
       </c>
       <c r="I22">
-        <v>15.5363786382962</v>
+        <v>15.53637863829618</v>
       </c>
       <c r="J22">
         <v>24.24415806386468</v>
       </c>
       <c r="K22">
-        <v>24.3768430935324</v>
+        <v>24.37684309353235</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.65313591553088</v>
+        <v>27.65313591553105</v>
       </c>
       <c r="C23">
-        <v>17.69193654477434</v>
+        <v>17.6919365447744</v>
       </c>
       <c r="D23">
-        <v>4.691331105925337</v>
+        <v>4.691331105925261</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.20941488027209</v>
+        <v>36.20941488027222</v>
       </c>
       <c r="G23">
-        <v>25.50855784995435</v>
+        <v>25.50855784995439</v>
       </c>
       <c r="H23">
-        <v>19.92434134022742</v>
+        <v>19.92434134022738</v>
       </c>
       <c r="I23">
-        <v>15.19790314201987</v>
+        <v>15.19790314201998</v>
       </c>
       <c r="J23">
-        <v>23.77712924866433</v>
+        <v>23.77712924866446</v>
       </c>
       <c r="K23">
-        <v>23.86628395079579</v>
+        <v>23.86628395079587</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.48071720490347</v>
+        <v>25.48071720490344</v>
       </c>
       <c r="C24">
-        <v>16.31753635002166</v>
+        <v>16.31753635002148</v>
       </c>
       <c r="D24">
-        <v>4.471004715083918</v>
+        <v>4.471004715083978</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.70263582218661</v>
+        <v>33.70263582218667</v>
       </c>
       <c r="G24">
-        <v>23.9480663030483</v>
+        <v>23.94806630304839</v>
       </c>
       <c r="H24">
-        <v>19.04911552552661</v>
+        <v>19.04911552552669</v>
       </c>
       <c r="I24">
         <v>13.88809853462476</v>
       </c>
       <c r="J24">
-        <v>21.95013299875578</v>
+        <v>21.9501329987557</v>
       </c>
       <c r="K24">
-        <v>21.88183969025502</v>
+        <v>21.88183969025497</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.9762652319696</v>
+        <v>22.97626523196954</v>
       </c>
       <c r="C25">
-        <v>14.73910089860138</v>
+        <v>14.7391008986013</v>
       </c>
       <c r="D25">
-        <v>4.222456254756356</v>
+        <v>4.222456254756385</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.01865908083011</v>
+        <v>31.0186590808301</v>
       </c>
       <c r="G25">
-        <v>22.32546648015925</v>
+        <v>22.32546648015927</v>
       </c>
       <c r="H25">
-        <v>18.20972143093483</v>
+        <v>18.20972143093488</v>
       </c>
       <c r="I25">
         <v>12.4067443594647</v>
       </c>
       <c r="J25">
-        <v>19.84796956451156</v>
+        <v>19.84796956451148</v>
       </c>
       <c r="K25">
-        <v>19.62125350536769</v>
+        <v>19.62125350536764</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.98565145523255</v>
+        <v>20.98565145523249</v>
       </c>
       <c r="C2">
-        <v>13.48918342587725</v>
+        <v>13.4891834258772</v>
       </c>
       <c r="D2">
-        <v>4.030344245951603</v>
+        <v>4.030344245951658</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.05970452445116</v>
+        <v>29.05970452445119</v>
       </c>
       <c r="G2">
-        <v>21.18129209125837</v>
+        <v>21.18129209125841</v>
       </c>
       <c r="H2">
-        <v>17.67385347044619</v>
+        <v>17.67385347044625</v>
       </c>
       <c r="I2">
-        <v>11.24918022220596</v>
+        <v>11.24918022220594</v>
       </c>
       <c r="J2">
-        <v>18.18070997758183</v>
+        <v>18.18070997758181</v>
       </c>
       <c r="K2">
-        <v>17.8432177447335</v>
+        <v>17.84321774473349</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.54160295876483</v>
+        <v>19.54160295876472</v>
       </c>
       <c r="C3">
-        <v>12.58517910875649</v>
+        <v>12.58517910875651</v>
       </c>
       <c r="D3">
-        <v>3.894721794118506</v>
+        <v>3.894721794118455</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.74555387694686</v>
+        <v>27.74555387694695</v>
       </c>
       <c r="G3">
-        <v>20.43775573957961</v>
+        <v>20.43775573957972</v>
       </c>
       <c r="H3">
-        <v>17.35803219298082</v>
+        <v>17.35803219298094</v>
       </c>
       <c r="I3">
         <v>10.56513696723566</v>
       </c>
       <c r="J3">
-        <v>16.97359848392487</v>
+        <v>16.97359848392479</v>
       </c>
       <c r="K3">
-        <v>16.56289030857237</v>
+        <v>16.56289030857234</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.60703237828373</v>
+        <v>18.60703237828384</v>
       </c>
       <c r="C4">
-        <v>12.00142002877388</v>
+        <v>12.00142002877386</v>
       </c>
       <c r="D4">
-        <v>3.808895244075118</v>
+        <v>3.808895244075075</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.94689188719927</v>
+        <v>26.94689188719921</v>
       </c>
       <c r="G4">
-        <v>19.99728865065033</v>
+        <v>19.99728865065024</v>
       </c>
       <c r="H4">
-        <v>17.18610217321169</v>
+        <v>17.1861021732116</v>
       </c>
       <c r="I4">
-        <v>10.16754559939355</v>
+        <v>10.16754559939356</v>
       </c>
       <c r="J4">
-        <v>16.19360341865332</v>
+        <v>16.19360341865341</v>
       </c>
       <c r="K4">
-        <v>15.73827364077133</v>
+        <v>15.73827364077134</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.21399137599551</v>
+        <v>18.21399137599559</v>
       </c>
       <c r="C5">
-        <v>11.7562383340337</v>
+        <v>11.75623833403356</v>
       </c>
       <c r="D5">
-        <v>3.773300898330095</v>
+        <v>3.773300898330341</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.62380917992501</v>
+        <v>26.62380917992481</v>
       </c>
       <c r="G5">
-        <v>19.82190169113586</v>
+        <v>19.82190169113576</v>
       </c>
       <c r="H5">
-        <v>17.12135483947219</v>
+        <v>17.12135483947205</v>
       </c>
       <c r="I5">
-        <v>10.00418905265051</v>
+        <v>10.0041890526505</v>
       </c>
       <c r="J5">
-        <v>15.86589241865159</v>
+        <v>15.8658924186516</v>
       </c>
       <c r="K5">
-        <v>15.39237450059868</v>
+        <v>15.3923745005987</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.14798649714313</v>
+        <v>18.14798649714317</v>
       </c>
       <c r="C6">
-        <v>11.71508338979493</v>
+        <v>11.71508338979485</v>
       </c>
       <c r="D6">
-        <v>3.76735381970757</v>
+        <v>3.767353819707581</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.57031518773837</v>
+        <v>26.57031518773832</v>
       </c>
       <c r="G6">
-        <v>19.79302886476162</v>
+        <v>19.79302886476159</v>
       </c>
       <c r="H6">
-        <v>17.11091816745866</v>
+        <v>17.11091816745865</v>
       </c>
       <c r="I6">
-        <v>9.976987594262924</v>
+        <v>9.976987594262935</v>
       </c>
       <c r="J6">
-        <v>15.8108784643938</v>
+        <v>15.81087846439386</v>
       </c>
       <c r="K6">
-        <v>15.33433749994035</v>
+        <v>15.33433749994034</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.60178125832506</v>
+        <v>18.60178125832508</v>
       </c>
       <c r="C7">
-        <v>11.99814305730214</v>
+        <v>11.99814305730212</v>
       </c>
       <c r="D7">
-        <v>3.808417680979251</v>
+        <v>3.8084176809792</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.942524605189</v>
+        <v>26.94252460518906</v>
       </c>
       <c r="G7">
-        <v>19.99490660141517</v>
+        <v>19.9949066014152</v>
       </c>
       <c r="H7">
-        <v>17.18520773612784</v>
+        <v>17.18520773612786</v>
       </c>
       <c r="I7">
-        <v>10.16534772821071</v>
+        <v>10.1653477282107</v>
       </c>
       <c r="J7">
         <v>16.18922381710433</v>
       </c>
       <c r="K7">
-        <v>15.73364888481674</v>
+        <v>15.73364888481672</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.49759825226914</v>
+        <v>20.49759825226911</v>
       </c>
       <c r="C8">
-        <v>13.18338771332858</v>
+        <v>13.18338771332867</v>
       </c>
       <c r="D8">
-        <v>3.984124189014367</v>
+        <v>3.984124189014312</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.60504486543244</v>
+        <v>28.60504486543257</v>
       </c>
       <c r="G8">
-        <v>20.92162392658388</v>
+        <v>20.92162392658396</v>
       </c>
       <c r="H8">
-        <v>17.56027085641091</v>
+        <v>17.56027085641103</v>
       </c>
       <c r="I8">
-        <v>10.98448413834578</v>
+        <v>10.98448413834576</v>
       </c>
       <c r="J8">
         <v>17.77249460291019</v>
       </c>
       <c r="K8">
-        <v>17.40963599980392</v>
+        <v>17.40963599980393</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>23.84216415916892</v>
       </c>
       <c r="C9">
-        <v>15.28410483796857</v>
+        <v>15.28410483796838</v>
       </c>
       <c r="D9">
-        <v>4.307619822332868</v>
+        <v>4.307619822332962</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.92025850726953</v>
+        <v>31.92025850726962</v>
       </c>
       <c r="G9">
-        <v>22.86416773008211</v>
+        <v>22.86416773008219</v>
       </c>
       <c r="H9">
-        <v>18.47919357824545</v>
+        <v>18.47919357824553</v>
       </c>
       <c r="I9">
         <v>12.915635230066</v>
@@ -705,7 +705,7 @@
         <v>20.57424868335127</v>
       </c>
       <c r="K9">
-        <v>20.3997366477947</v>
+        <v>20.39973664779468</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.08263738679285</v>
+        <v>26.08263738679278</v>
       </c>
       <c r="C10">
-        <v>16.69785798071713</v>
+        <v>16.69785798071701</v>
       </c>
       <c r="D10">
-        <v>4.53166890637528</v>
+        <v>4.531668906375357</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.38130141164376</v>
+        <v>34.38130141164365</v>
       </c>
       <c r="G10">
-        <v>24.36668933269346</v>
+        <v>24.36668933269338</v>
       </c>
       <c r="H10">
-        <v>19.27805180692667</v>
+        <v>19.27805180692661</v>
       </c>
       <c r="I10">
-        <v>14.24859178466873</v>
+        <v>14.24859178466872</v>
       </c>
       <c r="J10">
-        <v>22.45603519482592</v>
+        <v>22.45603519482582</v>
       </c>
       <c r="K10">
-        <v>22.42937834084396</v>
+        <v>22.42937834084393</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.05743810488765</v>
+        <v>27.05743810488757</v>
       </c>
       <c r="C11">
-        <v>17.31457576944355</v>
+        <v>17.31457576944343</v>
       </c>
       <c r="D11">
-        <v>4.630552321883692</v>
+        <v>4.630552321883565</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.50643562708299</v>
+        <v>35.50643562708296</v>
       </c>
       <c r="G11">
-        <v>25.06713668366277</v>
+        <v>25.06713668366276</v>
       </c>
       <c r="H11">
-        <v>19.67091217552436</v>
+        <v>19.67091217552437</v>
       </c>
       <c r="I11">
-        <v>14.83630268935906</v>
+        <v>14.83630268935911</v>
       </c>
       <c r="J11">
-        <v>23.27584545999571</v>
+        <v>23.27584545999564</v>
       </c>
       <c r="K11">
-        <v>23.31981094618396</v>
+        <v>23.31981094618397</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.42042648326036</v>
+        <v>27.42042648326033</v>
       </c>
       <c r="C12">
-        <v>17.54447631060052</v>
+        <v>17.54447631060064</v>
       </c>
       <c r="D12">
-        <v>4.667558149620782</v>
+        <v>4.667558149620774</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.93342724066149</v>
+        <v>35.93342724066147</v>
       </c>
       <c r="G12">
-        <v>25.33492512419095</v>
+        <v>25.33492512419093</v>
       </c>
       <c r="H12">
-        <v>19.82413934363148</v>
+        <v>19.82413934363147</v>
       </c>
       <c r="I12">
-        <v>15.05641789132845</v>
+        <v>15.05641789132846</v>
       </c>
       <c r="J12">
-        <v>23.58127604441998</v>
+        <v>23.58127604441997</v>
       </c>
       <c r="K12">
-        <v>23.65258907019158</v>
+        <v>23.65258907019161</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.34251980036331</v>
+        <v>27.34251980036329</v>
       </c>
       <c r="C13">
         <v>17.49512211489285</v>
       </c>
       <c r="D13">
-        <v>4.659607809217083</v>
+        <v>4.659607809217063</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.8414225983754</v>
+        <v>35.84142259837539</v>
       </c>
       <c r="G13">
-        <v>25.27713654851706</v>
+        <v>25.27713654851704</v>
       </c>
       <c r="H13">
-        <v>19.79093699265339</v>
+        <v>19.79093699265336</v>
       </c>
       <c r="I13">
-        <v>15.00911635140085</v>
+        <v>15.00911635140083</v>
       </c>
       <c r="J13">
         <v>23.51571572410325</v>
       </c>
       <c r="K13">
-        <v>23.58111000905293</v>
+        <v>23.58111000905291</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.08742313230776</v>
+        <v>27.08742313230786</v>
       </c>
       <c r="C14">
-        <v>17.33356173087211</v>
+        <v>17.33356173087226</v>
       </c>
       <c r="D14">
-        <v>4.633605614421586</v>
+        <v>4.633605614421572</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.54154480764412</v>
+        <v>35.54154480764423</v>
       </c>
       <c r="G14">
-        <v>25.08911596942978</v>
+        <v>25.08911596942984</v>
       </c>
       <c r="H14">
-        <v>19.68342753229505</v>
+        <v>19.68342753229507</v>
       </c>
       <c r="I14">
-        <v>14.85445905161056</v>
+        <v>14.85445905161055</v>
       </c>
       <c r="J14">
-        <v>23.30107269729799</v>
+        <v>23.30107269729811</v>
       </c>
       <c r="K14">
-        <v>23.34727522602765</v>
+        <v>23.34727522602764</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,10 +909,10 @@
         <v>26.93037594647878</v>
       </c>
       <c r="C15">
-        <v>17.23413275922517</v>
+        <v>17.23413275922529</v>
       </c>
       <c r="D15">
-        <v>4.617621324784273</v>
+        <v>4.617621324784197</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -921,19 +921,19 @@
         <v>35.35798728121969</v>
       </c>
       <c r="G15">
-        <v>24.97428353031658</v>
+        <v>24.97428353031657</v>
       </c>
       <c r="H15">
         <v>19.6181626479518</v>
       </c>
       <c r="I15">
-        <v>14.75941725821908</v>
+        <v>14.75941725821907</v>
       </c>
       <c r="J15">
-        <v>23.16895090804693</v>
+        <v>23.16895090804697</v>
       </c>
       <c r="K15">
-        <v>23.20348046963976</v>
+        <v>23.2034804696398</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.01805812760655</v>
+        <v>26.01805812760661</v>
       </c>
       <c r="C16">
-        <v>16.65703590925034</v>
+        <v>16.65703590925038</v>
       </c>
       <c r="D16">
-        <v>4.525145222983676</v>
+        <v>4.525145222983826</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.30789196559363</v>
+        <v>34.30789196559368</v>
       </c>
       <c r="G16">
-        <v>24.32126222268763</v>
+        <v>24.32126222268767</v>
       </c>
       <c r="H16">
-        <v>19.25298885118251</v>
+        <v>19.25298885118252</v>
       </c>
       <c r="I16">
-        <v>14.20982829797597</v>
+        <v>14.20982829797596</v>
       </c>
       <c r="J16">
-        <v>22.40174589604273</v>
+        <v>22.40174589604277</v>
       </c>
       <c r="K16">
-        <v>22.37055138957699</v>
+        <v>22.37055138957705</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.44716967916875</v>
+        <v>25.44716967916872</v>
       </c>
       <c r="C17">
-        <v>16.29635038628185</v>
+        <v>16.2963503862819</v>
       </c>
       <c r="D17">
-        <v>4.467633157155832</v>
+        <v>4.467633157155745</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>19.03666406607548</v>
       </c>
       <c r="I17">
-        <v>13.86805950259797</v>
+        <v>13.86805950259796</v>
       </c>
       <c r="J17">
-        <v>21.92194420801127</v>
+        <v>21.92194420801129</v>
       </c>
       <c r="K17">
-        <v>21.85137313733046</v>
+        <v>21.85137313733047</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.11461486899356</v>
+        <v>25.11461486899363</v>
       </c>
       <c r="C18">
-        <v>16.08639751992947</v>
+        <v>16.08639751992939</v>
       </c>
       <c r="D18">
-        <v>4.434267711836478</v>
+        <v>4.434267711836491</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.29602224564899</v>
+        <v>33.29602224564895</v>
       </c>
       <c r="G18">
-        <v>23.69874753772492</v>
+        <v>23.69874753772488</v>
       </c>
       <c r="H18">
-        <v>18.9149980209862</v>
+        <v>18.91499802098617</v>
       </c>
       <c r="I18">
-        <v>13.66971067840242</v>
+        <v>13.6697106784024</v>
       </c>
       <c r="J18">
-        <v>21.64255238445613</v>
+        <v>21.64255238445615</v>
       </c>
       <c r="K18">
-        <v>21.54964148581264</v>
+        <v>21.54964148581261</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.0012902108072</v>
+        <v>25.00129021080739</v>
       </c>
       <c r="C19">
-        <v>16.01487781832114</v>
+        <v>16.01487781832097</v>
       </c>
       <c r="D19">
-        <v>4.422921758140697</v>
+        <v>4.422921758140732</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.17111773144956</v>
+        <v>33.17111773144947</v>
       </c>
       <c r="G19">
-        <v>23.62239456192486</v>
+        <v>23.62239456192477</v>
       </c>
       <c r="H19">
-        <v>18.87427122029584</v>
+        <v>18.87427122029568</v>
       </c>
       <c r="I19">
-        <v>13.6022417765699</v>
+        <v>13.60224177656989</v>
       </c>
       <c r="J19">
-        <v>21.54736171544016</v>
+        <v>21.54736171544024</v>
       </c>
       <c r="K19">
-        <v>21.44693645842026</v>
+        <v>21.44693645842025</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.50837424074541</v>
+        <v>25.50837424074536</v>
       </c>
       <c r="C20">
         <v>16.33500321486785</v>
       </c>
       <c r="D20">
-        <v>4.473785047348327</v>
+        <v>4.473785047348282</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.73354431119454</v>
+        <v>33.73354431119452</v>
       </c>
       <c r="G20">
-        <v>23.96706481567875</v>
+        <v>23.96706481567874</v>
       </c>
       <c r="H20">
-        <v>19.05940518460724</v>
+        <v>19.05940518460725</v>
       </c>
       <c r="I20">
         <v>13.90462313855423</v>
       </c>
       <c r="J20">
-        <v>21.97337280231989</v>
+        <v>21.97337280231985</v>
       </c>
       <c r="K20">
-        <v>21.90696067003194</v>
+        <v>21.90696067003191</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.16251603095005</v>
+        <v>27.16251603095012</v>
       </c>
       <c r="C21">
-        <v>17.38111326776919</v>
+        <v>17.38111326776912</v>
       </c>
       <c r="D21">
-        <v>4.641255007112004</v>
+        <v>4.641255007112053</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.62959949700172</v>
+        <v>35.62959949700175</v>
       </c>
       <c r="G21">
-        <v>25.14427195174321</v>
+        <v>25.14427195174322</v>
       </c>
       <c r="H21">
-        <v>19.71488274546691</v>
+        <v>19.71488274546692</v>
       </c>
       <c r="I21">
-        <v>14.89994971602876</v>
+        <v>14.89994971602877</v>
       </c>
       <c r="J21">
-        <v>23.36425295389925</v>
+        <v>23.36425295389929</v>
       </c>
       <c r="K21">
-        <v>23.41607512957846</v>
+        <v>23.41607512957849</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.20789018878921</v>
+        <v>28.20789018878916</v>
       </c>
       <c r="C22">
-        <v>18.04369598484141</v>
+        <v>18.04369598484142</v>
       </c>
       <c r="D22">
-        <v>4.748148276090713</v>
+        <v>4.748148276090807</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.87432317463349</v>
+        <v>36.87432317463344</v>
       </c>
       <c r="G22">
-        <v>25.92857135767096</v>
+        <v>25.92857135767094</v>
       </c>
       <c r="H22">
         <v>20.16939025083154</v>
       </c>
       <c r="I22">
-        <v>15.53637863829618</v>
+        <v>15.5363786382962</v>
       </c>
       <c r="J22">
         <v>24.24415806386468</v>
       </c>
       <c r="K22">
-        <v>24.37684309353235</v>
+        <v>24.3768430935324</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.65313591553105</v>
+        <v>27.65313591553088</v>
       </c>
       <c r="C23">
-        <v>17.6919365447744</v>
+        <v>17.69193654477434</v>
       </c>
       <c r="D23">
-        <v>4.691331105925261</v>
+        <v>4.691331105925337</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.20941488027222</v>
+        <v>36.20941488027209</v>
       </c>
       <c r="G23">
-        <v>25.50855784995439</v>
+        <v>25.50855784995435</v>
       </c>
       <c r="H23">
-        <v>19.92434134022738</v>
+        <v>19.92434134022742</v>
       </c>
       <c r="I23">
-        <v>15.19790314201998</v>
+        <v>15.19790314201987</v>
       </c>
       <c r="J23">
-        <v>23.77712924866446</v>
+        <v>23.77712924866433</v>
       </c>
       <c r="K23">
-        <v>23.86628395079587</v>
+        <v>23.86628395079579</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.48071720490344</v>
+        <v>25.48071720490347</v>
       </c>
       <c r="C24">
-        <v>16.31753635002148</v>
+        <v>16.31753635002166</v>
       </c>
       <c r="D24">
-        <v>4.471004715083978</v>
+        <v>4.471004715083918</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.70263582218667</v>
+        <v>33.70263582218661</v>
       </c>
       <c r="G24">
-        <v>23.94806630304839</v>
+        <v>23.9480663030483</v>
       </c>
       <c r="H24">
-        <v>19.04911552552669</v>
+        <v>19.04911552552661</v>
       </c>
       <c r="I24">
         <v>13.88809853462476</v>
       </c>
       <c r="J24">
-        <v>21.9501329987557</v>
+        <v>21.95013299875578</v>
       </c>
       <c r="K24">
-        <v>21.88183969025497</v>
+        <v>21.88183969025502</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.97626523196954</v>
+        <v>22.9762652319696</v>
       </c>
       <c r="C25">
-        <v>14.7391008986013</v>
+        <v>14.73910089860138</v>
       </c>
       <c r="D25">
-        <v>4.222456254756385</v>
+        <v>4.222456254756356</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.0186590808301</v>
+        <v>31.01865908083011</v>
       </c>
       <c r="G25">
-        <v>22.32546648015927</v>
+        <v>22.32546648015925</v>
       </c>
       <c r="H25">
-        <v>18.20972143093488</v>
+        <v>18.20972143093483</v>
       </c>
       <c r="I25">
         <v>12.4067443594647</v>
       </c>
       <c r="J25">
-        <v>19.84796956451148</v>
+        <v>19.84796956451156</v>
       </c>
       <c r="K25">
-        <v>19.62125350536764</v>
+        <v>19.62125350536769</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.98565145523249</v>
+        <v>20.98559525848212</v>
       </c>
       <c r="C2">
-        <v>13.4891834258772</v>
+        <v>13.48590402584511</v>
       </c>
       <c r="D2">
-        <v>4.030344245951658</v>
+        <v>4.033162817354158</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.05970452445119</v>
+        <v>29.04138427505538</v>
       </c>
       <c r="G2">
-        <v>21.18129209125841</v>
+        <v>19.80859396759332</v>
       </c>
       <c r="H2">
-        <v>17.67385347044625</v>
+        <v>21.21519472970231</v>
       </c>
       <c r="I2">
-        <v>11.24918022220594</v>
+        <v>17.66150082893114</v>
       </c>
       <c r="J2">
-        <v>18.18070997758181</v>
+        <v>11.24869965591956</v>
       </c>
       <c r="K2">
-        <v>17.84321774473349</v>
+        <v>18.17958536602156</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>17.84354943054603</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.54160295876472</v>
+        <v>19.54167675128066</v>
       </c>
       <c r="C3">
-        <v>12.58517910875651</v>
+        <v>12.58227061744898</v>
       </c>
       <c r="D3">
-        <v>3.894721794118455</v>
+        <v>3.897142855613421</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.74555387694695</v>
+        <v>27.72839409394157</v>
       </c>
       <c r="G3">
-        <v>20.43775573957972</v>
+        <v>18.80623659736428</v>
       </c>
       <c r="H3">
-        <v>17.35803219298094</v>
+        <v>20.47062286903556</v>
       </c>
       <c r="I3">
-        <v>10.56513696723566</v>
+        <v>17.3466261015578</v>
       </c>
       <c r="J3">
-        <v>16.97359848392479</v>
+        <v>10.564639620577</v>
       </c>
       <c r="K3">
-        <v>16.56289030857234</v>
+        <v>16.97269301632783</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>16.56325793508441</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.60703237828384</v>
+        <v>18.60718335754067</v>
       </c>
       <c r="C4">
-        <v>12.00142002877386</v>
+        <v>11.99874871749683</v>
       </c>
       <c r="D4">
-        <v>3.808895244075075</v>
+        <v>3.81105765561359</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.94689188719921</v>
+        <v>26.93046834617736</v>
       </c>
       <c r="G4">
-        <v>19.99728865065024</v>
+        <v>18.19412100928734</v>
       </c>
       <c r="H4">
-        <v>17.1861021732116</v>
+        <v>20.02957227016399</v>
       </c>
       <c r="I4">
-        <v>10.16754559939356</v>
+        <v>17.17528749539906</v>
       </c>
       <c r="J4">
-        <v>16.19360341865341</v>
+        <v>10.16708496057904</v>
       </c>
       <c r="K4">
-        <v>15.73827364077134</v>
+        <v>16.19283558396999</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>15.73865871576162</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.21399137599559</v>
+        <v>18.2141733123837</v>
       </c>
       <c r="C5">
-        <v>11.75623833403356</v>
+        <v>11.75366629647581</v>
       </c>
       <c r="D5">
-        <v>3.773300898330341</v>
+        <v>3.775354304108195</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.62380917992481</v>
+        <v>26.60769155713638</v>
       </c>
       <c r="G5">
-        <v>19.82190169113576</v>
+        <v>17.9457634638846</v>
       </c>
       <c r="H5">
-        <v>17.12135483947205</v>
+        <v>19.8539607941863</v>
       </c>
       <c r="I5">
-        <v>10.0041890526505</v>
+        <v>17.11078327252344</v>
       </c>
       <c r="J5">
-        <v>15.8658924186516</v>
+        <v>10.00374351571493</v>
       </c>
       <c r="K5">
-        <v>15.3923745005987</v>
+        <v>15.86518166019206</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>15.39276563991011</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.14798649714317</v>
+        <v>18.14817354858246</v>
       </c>
       <c r="C6">
-        <v>11.71508338979485</v>
+        <v>11.71252800233618</v>
       </c>
       <c r="D6">
-        <v>3.767353819707581</v>
+        <v>3.769388909685324</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.57031518773832</v>
+        <v>26.55424871409715</v>
       </c>
       <c r="G6">
-        <v>19.79302886476159</v>
+        <v>17.90459752721228</v>
       </c>
       <c r="H6">
-        <v>17.11091816745865</v>
+        <v>19.82505149057742</v>
       </c>
       <c r="I6">
-        <v>9.976987594262935</v>
+        <v>17.1003870821722</v>
       </c>
       <c r="J6">
-        <v>15.81087846439386</v>
+        <v>9.976544575955694</v>
       </c>
       <c r="K6">
-        <v>15.33433749994034</v>
+        <v>15.81017724961566</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>15.33472958616173</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.60178125832508</v>
+        <v>18.60193265688182</v>
       </c>
       <c r="C7">
-        <v>11.99814305730212</v>
+        <v>11.99547307391772</v>
       </c>
       <c r="D7">
-        <v>3.8084176809792</v>
+        <v>3.810578636923761</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.94252460518906</v>
+        <v>26.9261051662013</v>
       </c>
       <c r="G7">
-        <v>19.9949066014152</v>
+        <v>18.19076682000482</v>
       </c>
       <c r="H7">
-        <v>17.18520773612786</v>
+        <v>20.0271871391886</v>
       </c>
       <c r="I7">
-        <v>10.1653477282107</v>
+        <v>17.17439632909588</v>
       </c>
       <c r="J7">
-        <v>16.18922381710433</v>
+        <v>10.16488729237942</v>
       </c>
       <c r="K7">
-        <v>15.73364888481672</v>
+        <v>16.18845674787381</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>15.73403404568564</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.49759825226911</v>
+        <v>20.49758752191651</v>
       </c>
       <c r="C8">
-        <v>13.18338771332867</v>
+        <v>13.18023438870542</v>
       </c>
       <c r="D8">
-        <v>3.984124189014312</v>
+        <v>3.986808755782153</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.60504486543257</v>
+        <v>28.58711981929208</v>
       </c>
       <c r="G8">
-        <v>20.92162392658396</v>
+        <v>19.46241976524835</v>
       </c>
       <c r="H8">
-        <v>17.56027085641103</v>
+        <v>20.95515875624494</v>
       </c>
       <c r="I8">
-        <v>10.98448413834576</v>
+        <v>17.54824218789549</v>
       </c>
       <c r="J8">
-        <v>17.77249460291019</v>
+        <v>10.98394787201477</v>
       </c>
       <c r="K8">
-        <v>17.40963599980393</v>
+        <v>17.77144504190996</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>17.40998111080288</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.84216415916892</v>
+        <v>23.84180677433998</v>
       </c>
       <c r="C9">
-        <v>15.28410483796838</v>
+        <v>15.28006788127285</v>
       </c>
       <c r="D9">
-        <v>4.307619822332962</v>
+        <v>4.311213726905295</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.92025850726962</v>
+        <v>31.89956582561449</v>
       </c>
       <c r="G9">
-        <v>22.86416773008219</v>
+        <v>21.9748008820702</v>
       </c>
       <c r="H9">
-        <v>18.47919357824553</v>
+        <v>22.90056958552579</v>
       </c>
       <c r="I9">
-        <v>12.915635230066</v>
+        <v>18.46487806839</v>
       </c>
       <c r="J9">
-        <v>20.57424868335127</v>
+        <v>12.91504422166269</v>
       </c>
       <c r="K9">
-        <v>20.39973664779468</v>
+        <v>20.57265997791479</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>20.39996049033511</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.08263738679278</v>
+        <v>26.08199565347934</v>
       </c>
       <c r="C10">
-        <v>16.69785798071701</v>
+        <v>16.6931960004534</v>
       </c>
       <c r="D10">
-        <v>4.531668906375357</v>
+        <v>4.535857989697022</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.38130141164365</v>
+        <v>34.35867461933606</v>
       </c>
       <c r="G10">
-        <v>24.36668933269338</v>
+        <v>23.82642185348161</v>
       </c>
       <c r="H10">
-        <v>19.27805180692661</v>
+        <v>24.40543428523978</v>
       </c>
       <c r="I10">
-        <v>14.24859178466872</v>
+        <v>19.26213854105662</v>
       </c>
       <c r="J10">
-        <v>22.45603519482582</v>
+        <v>14.24789242273048</v>
       </c>
       <c r="K10">
-        <v>22.42937834084393</v>
+        <v>22.45404563997961</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>22.42947689799083</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.05743810488757</v>
+        <v>27.05665739952837</v>
       </c>
       <c r="C11">
-        <v>17.31457576944343</v>
+        <v>17.30963119028253</v>
       </c>
       <c r="D11">
-        <v>4.630552321883565</v>
+        <v>4.634996320206955</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.50643562708296</v>
+        <v>35.48294508894675</v>
       </c>
       <c r="G11">
-        <v>25.06713668366276</v>
+        <v>24.6702977365603</v>
       </c>
       <c r="H11">
-        <v>19.67091217552437</v>
+        <v>25.10699651278382</v>
       </c>
       <c r="I11">
-        <v>14.83630268935911</v>
+        <v>19.65429266812529</v>
       </c>
       <c r="J11">
-        <v>23.27584545999564</v>
+        <v>14.83554880147775</v>
       </c>
       <c r="K11">
-        <v>23.31981094618397</v>
+        <v>23.27366917821095</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>23.31984178171034</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.42042648326033</v>
+        <v>27.41959145379841</v>
       </c>
       <c r="C12">
-        <v>17.54447631060064</v>
+        <v>17.53942463978154</v>
       </c>
       <c r="D12">
-        <v>4.667558149620774</v>
+        <v>4.67209641204806</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.93342724066147</v>
+        <v>35.90961131280569</v>
       </c>
       <c r="G12">
-        <v>25.33492512419093</v>
+        <v>24.99019828054119</v>
       </c>
       <c r="H12">
-        <v>19.82413934363147</v>
+        <v>25.37521399729707</v>
       </c>
       <c r="I12">
-        <v>15.05641789132846</v>
+        <v>19.80725542807773</v>
       </c>
       <c r="J12">
-        <v>23.58127604441997</v>
+        <v>15.05564239843861</v>
       </c>
       <c r="K12">
-        <v>23.65258907019161</v>
+        <v>23.57902810574501</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>23.6525924183019</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.34251980036329</v>
+        <v>27.34169655168217</v>
       </c>
       <c r="C13">
-        <v>17.49512211489285</v>
+        <v>17.49009351725376</v>
       </c>
       <c r="D13">
-        <v>4.659607809217063</v>
+        <v>4.664125870742913</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.84142259837539</v>
+        <v>35.81767668527092</v>
       </c>
       <c r="G13">
-        <v>25.27713654851704</v>
+        <v>24.92128395942426</v>
       </c>
       <c r="H13">
-        <v>19.79093699265336</v>
+        <v>25.31733271647203</v>
       </c>
       <c r="I13">
-        <v>15.00911635140083</v>
+        <v>19.7741098877609</v>
       </c>
       <c r="J13">
-        <v>23.51571572410325</v>
+        <v>15.00834555783554</v>
       </c>
       <c r="K13">
-        <v>23.58111000905291</v>
+        <v>23.51348326569684</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>23.5811193644569</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.08742313230786</v>
+        <v>27.08663799369996</v>
       </c>
       <c r="C14">
-        <v>17.33356173087226</v>
+        <v>17.32860834478146</v>
       </c>
       <c r="D14">
-        <v>4.633605614421572</v>
+        <v>4.638057413248572</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.54154480764423</v>
+        <v>35.51802746968345</v>
       </c>
       <c r="G14">
-        <v>25.08911596942984</v>
+        <v>24.69660830303383</v>
       </c>
       <c r="H14">
-        <v>19.68342753229507</v>
+        <v>25.1290109595735</v>
       </c>
       <c r="I14">
-        <v>14.85445905161055</v>
+        <v>19.66678621125134</v>
       </c>
       <c r="J14">
-        <v>23.30107269729811</v>
+        <v>14.85370340678296</v>
       </c>
       <c r="K14">
-        <v>23.34727522602764</v>
+        <v>23.29889054122377</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>23.34730383901303</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.93037594647878</v>
+        <v>26.92961391998129</v>
       </c>
       <c r="C15">
-        <v>17.23413275922529</v>
+        <v>17.22922542192299</v>
       </c>
       <c r="D15">
-        <v>4.617621324784197</v>
+        <v>4.622032241054412</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.35798728121969</v>
+        <v>35.33461015149375</v>
       </c>
       <c r="G15">
-        <v>24.97428353031657</v>
+        <v>24.55903755406828</v>
       </c>
       <c r="H15">
-        <v>19.6181626479518</v>
+        <v>25.01399492964153</v>
       </c>
       <c r="I15">
-        <v>14.75941725821907</v>
+        <v>19.60163551917402</v>
       </c>
       <c r="J15">
-        <v>23.16895090804697</v>
+        <v>14.75867076096688</v>
       </c>
       <c r="K15">
-        <v>23.2034804696398</v>
+        <v>23.16679943004046</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>23.20352062854498</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.01805812760661</v>
+        <v>26.01742525706414</v>
       </c>
       <c r="C16">
-        <v>16.65703590925038</v>
+        <v>16.65239240525155</v>
       </c>
       <c r="D16">
-        <v>4.525145222983826</v>
+        <v>4.529317329067237</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.30789196559368</v>
+        <v>34.28532189508475</v>
       </c>
       <c r="G16">
-        <v>24.32126222268767</v>
+        <v>23.77131230839228</v>
       </c>
       <c r="H16">
-        <v>19.25298885118252</v>
+        <v>24.35993528493955</v>
       </c>
       <c r="I16">
-        <v>14.20982829797596</v>
+        <v>19.23712216322359</v>
       </c>
       <c r="J16">
-        <v>22.40174589604277</v>
+        <v>14.20913237757199</v>
       </c>
       <c r="K16">
-        <v>22.37055138957705</v>
+        <v>22.39976842992268</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>22.37065413229164</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.44716967916872</v>
+        <v>25.44661336880311</v>
       </c>
       <c r="C17">
-        <v>16.2963503862819</v>
+        <v>16.29186895760434</v>
       </c>
       <c r="D17">
-        <v>4.467633157155745</v>
+        <v>4.471654709911336</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.66518018729248</v>
+        <v>33.64310894598849</v>
       </c>
       <c r="G17">
-        <v>23.92505219772434</v>
+        <v>23.28852764985642</v>
       </c>
       <c r="H17">
-        <v>19.03666406607548</v>
+        <v>23.96310068125367</v>
       </c>
       <c r="I17">
-        <v>13.86805950259796</v>
+        <v>19.0212079024047</v>
       </c>
       <c r="J17">
-        <v>21.92194420801129</v>
+        <v>13.86739313602015</v>
       </c>
       <c r="K17">
-        <v>21.85137313733047</v>
+        <v>21.92007215782994</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>21.85151132984191</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.11461486899363</v>
+        <v>25.11410171000633</v>
       </c>
       <c r="C18">
-        <v>16.08639751992939</v>
+        <v>16.08200949673923</v>
       </c>
       <c r="D18">
-        <v>4.434267711836491</v>
+        <v>4.438201178649718</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.29602224564895</v>
+        <v>33.27423947795015</v>
       </c>
       <c r="G18">
-        <v>23.69874753772488</v>
+        <v>23.01097796473799</v>
       </c>
       <c r="H18">
-        <v>18.91499802098617</v>
+        <v>23.73644140006511</v>
       </c>
       <c r="I18">
-        <v>13.6697106784024</v>
+        <v>18.89977992137108</v>
       </c>
       <c r="J18">
-        <v>21.64255238445615</v>
+        <v>13.66906083209041</v>
       </c>
       <c r="K18">
-        <v>21.54964148581261</v>
+        <v>21.6407405758051</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>21.54979907934829</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.00129021080739</v>
+        <v>25.00079151910447</v>
       </c>
       <c r="C19">
-        <v>16.01487781832097</v>
+        <v>16.01052146155853</v>
       </c>
       <c r="D19">
-        <v>4.422921758140732</v>
+        <v>4.426825144198531</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.17111773144947</v>
+        <v>33.14943292050587</v>
       </c>
       <c r="G19">
-        <v>23.62239456192477</v>
+        <v>22.91702536072405</v>
       </c>
       <c r="H19">
-        <v>18.87427122029568</v>
+        <v>23.65996915525252</v>
       </c>
       <c r="I19">
-        <v>13.60224177656989</v>
+        <v>18.85913405413906</v>
       </c>
       <c r="J19">
-        <v>21.54736171544024</v>
+        <v>13.60159744714151</v>
       </c>
       <c r="K19">
-        <v>21.44693645842025</v>
+        <v>21.54557024540613</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>21.44710045919417</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.50837424074536</v>
+        <v>25.5078098740326</v>
       </c>
       <c r="C20">
-        <v>16.33500321486785</v>
+        <v>16.33050451618692</v>
       </c>
       <c r="D20">
-        <v>4.473785047348282</v>
+        <v>4.47782278109405</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.73354431119452</v>
+        <v>33.71141981122962</v>
       </c>
       <c r="G20">
-        <v>23.96706481567874</v>
+        <v>23.33990630144194</v>
       </c>
       <c r="H20">
-        <v>19.05940518460725</v>
+        <v>24.0051793099602</v>
       </c>
       <c r="I20">
-        <v>13.90462313855423</v>
+        <v>19.04390511805586</v>
       </c>
       <c r="J20">
-        <v>21.97337280231985</v>
+        <v>13.90395367677139</v>
       </c>
       <c r="K20">
-        <v>21.90696067003191</v>
+        <v>21.97148957305968</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>21.90709519317167</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.16251603095012</v>
+        <v>27.16171974735275</v>
       </c>
       <c r="C21">
-        <v>17.38111326776912</v>
+        <v>17.37613779512656</v>
       </c>
       <c r="D21">
-        <v>4.641255007112053</v>
+        <v>4.645726330293874</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.62959949700175</v>
+        <v>35.60601498075793</v>
       </c>
       <c r="G21">
-        <v>25.14427195174322</v>
+        <v>24.76259033069234</v>
       </c>
       <c r="H21">
-        <v>19.71488274546692</v>
+        <v>25.18425522004663</v>
       </c>
       <c r="I21">
-        <v>14.89994971602877</v>
+        <v>19.69818677310979</v>
       </c>
       <c r="J21">
-        <v>23.36425295389929</v>
+        <v>14.89918964947464</v>
       </c>
       <c r="K21">
-        <v>23.41607512957849</v>
+        <v>23.36205605127624</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>23.41609813884834</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.20789018878916</v>
+        <v>28.20693224849866</v>
       </c>
       <c r="C22">
-        <v>18.04369598484142</v>
+        <v>18.03840827811601</v>
       </c>
       <c r="D22">
-        <v>4.748148276090807</v>
+        <v>4.752889773422588</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.87432317463344</v>
+        <v>36.84979391610727</v>
       </c>
       <c r="G22">
-        <v>25.92857135767094</v>
+        <v>25.69451060093633</v>
       </c>
       <c r="H22">
-        <v>20.16939025083154</v>
+        <v>25.96981593601797</v>
       </c>
       <c r="I22">
-        <v>15.5363786382962</v>
+        <v>20.15193027463271</v>
       </c>
       <c r="J22">
-        <v>24.24415806386468</v>
+        <v>15.535553648363</v>
       </c>
       <c r="K22">
-        <v>24.3768430935324</v>
+        <v>24.24175045348355</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>24.37678229549232</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.65313591553088</v>
+        <v>27.6522652955261</v>
       </c>
       <c r="C23">
-        <v>17.69193654477434</v>
+        <v>17.68681566007644</v>
       </c>
       <c r="D23">
-        <v>4.691331105925337</v>
+        <v>4.695929608704589</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.20941488027209</v>
+        <v>36.18538922815104</v>
       </c>
       <c r="G23">
-        <v>25.50855784995435</v>
+        <v>25.19687316742531</v>
       </c>
       <c r="H23">
-        <v>19.92434134022742</v>
+        <v>25.54912563587297</v>
       </c>
       <c r="I23">
-        <v>15.19790314201987</v>
+        <v>19.90728753239338</v>
       </c>
       <c r="J23">
-        <v>23.77712924866433</v>
+        <v>15.19711340468139</v>
       </c>
       <c r="K23">
-        <v>23.86628395079579</v>
+        <v>23.77483473599908</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>23.86626899775581</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.48071720490347</v>
+        <v>25.48015648313347</v>
       </c>
       <c r="C24">
-        <v>16.31753635002166</v>
+        <v>16.31304545838039</v>
       </c>
       <c r="D24">
-        <v>4.471004715083918</v>
+        <v>4.475035138173257</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.70263582218661</v>
+        <v>33.68053539515262</v>
       </c>
       <c r="G24">
-        <v>23.9480663030483</v>
+        <v>23.31667799087964</v>
       </c>
       <c r="H24">
-        <v>19.04911552552661</v>
+        <v>23.9861509399734</v>
       </c>
       <c r="I24">
-        <v>13.88809853462476</v>
+        <v>19.03363530109494</v>
       </c>
       <c r="J24">
-        <v>21.95013299875578</v>
+        <v>13.88743047363523</v>
       </c>
       <c r="K24">
-        <v>21.88183969025502</v>
+        <v>21.94825482466582</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>21.88197587534707</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.9762652319696</v>
+        <v>22.97600587198301</v>
       </c>
       <c r="C25">
-        <v>14.73910089860138</v>
+        <v>14.73529762513157</v>
       </c>
       <c r="D25">
-        <v>4.222456254756356</v>
+        <v>4.225816921382936</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.01865908083011</v>
+        <v>30.99869626657079</v>
       </c>
       <c r="G25">
-        <v>22.32546648015925</v>
+        <v>21.29396732064684</v>
       </c>
       <c r="H25">
-        <v>18.20972143093483</v>
+        <v>22.36105027603045</v>
       </c>
       <c r="I25">
-        <v>12.4067443594647</v>
+        <v>18.19601137305088</v>
       </c>
       <c r="J25">
-        <v>19.84796956451156</v>
+        <v>12.40618975747124</v>
       </c>
       <c r="K25">
-        <v>19.62125350536769</v>
+        <v>19.8465264977804</v>
       </c>
       <c r="L25">
+        <v>19.62151567019173</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.98559525848212</v>
+        <v>23.36957872500473</v>
       </c>
       <c r="C2">
-        <v>13.48590402584511</v>
+        <v>12.26168621532938</v>
       </c>
       <c r="D2">
-        <v>4.033162817354158</v>
+        <v>2.381639025325157</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.04138427505538</v>
+        <v>42.90845289262278</v>
       </c>
       <c r="G2">
-        <v>19.80859396759332</v>
+        <v>2.144995699763188</v>
       </c>
       <c r="H2">
-        <v>21.21519472970231</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>17.66150082893114</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>11.24869965591956</v>
+        <v>6.089421411135761</v>
       </c>
       <c r="K2">
-        <v>18.17958536602156</v>
+        <v>18.8718636859713</v>
       </c>
       <c r="L2">
-        <v>17.84354943054603</v>
+        <v>6.644514318581493</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>14.3112813048239</v>
+      </c>
+      <c r="N2">
+        <v>16.74350779033034</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.54167675128066</v>
+        <v>22.13565368082808</v>
       </c>
       <c r="C3">
-        <v>12.58227061744898</v>
+        <v>11.37770063983515</v>
       </c>
       <c r="D3">
-        <v>3.897142855613421</v>
+        <v>2.25733192870004</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.72839409394157</v>
+        <v>41.87211409279577</v>
       </c>
       <c r="G3">
-        <v>18.80623659736428</v>
+        <v>2.156012742357386</v>
       </c>
       <c r="H3">
-        <v>20.47062286903556</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>17.3466261015578</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>10.564639620577</v>
+        <v>6.122958559102098</v>
       </c>
       <c r="K3">
-        <v>16.97269301632783</v>
+        <v>17.87162067102306</v>
       </c>
       <c r="L3">
-        <v>16.56325793508441</v>
+        <v>6.602504296811397</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>13.88300163558695</v>
+      </c>
+      <c r="N3">
+        <v>16.90526236014463</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.60718335754067</v>
+        <v>21.36238446523682</v>
       </c>
       <c r="C4">
-        <v>11.99874871749683</v>
+        <v>10.8077990778909</v>
       </c>
       <c r="D4">
-        <v>3.81105765561359</v>
+        <v>2.179583291424998</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.93046834617736</v>
+        <v>41.25910284558815</v>
       </c>
       <c r="G4">
-        <v>18.19412100928734</v>
+        <v>2.162937880783127</v>
       </c>
       <c r="H4">
-        <v>20.02957227016399</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>17.17528749539906</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>10.16708496057904</v>
+        <v>6.144122015479932</v>
       </c>
       <c r="K4">
-        <v>16.19283558396999</v>
+        <v>17.24494745459935</v>
       </c>
       <c r="L4">
-        <v>15.73865871576162</v>
+        <v>6.579692720464696</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>13.62376955005753</v>
+      </c>
+      <c r="N4">
+        <v>17.00941989659187</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.2141733123837</v>
+        <v>21.04366675668371</v>
       </c>
       <c r="C5">
-        <v>11.75366629647581</v>
+        <v>10.56862396089727</v>
       </c>
       <c r="D5">
-        <v>3.775354304108195</v>
+        <v>2.147527258083255</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.60769155713638</v>
+        <v>41.01516072863151</v>
       </c>
       <c r="G5">
-        <v>17.9457634638846</v>
+        <v>2.165802840473019</v>
       </c>
       <c r="H5">
-        <v>19.8539607941863</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>17.11078327252344</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>10.00374351571493</v>
+        <v>6.152894772425052</v>
       </c>
       <c r="K5">
-        <v>15.86518166019206</v>
+        <v>16.98668756491055</v>
       </c>
       <c r="L5">
-        <v>15.39276563991011</v>
+        <v>6.571132868539789</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13.5191640132476</v>
+      </c>
+      <c r="N5">
+        <v>17.05305174344453</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.14817354858246</v>
+        <v>20.9905372853846</v>
       </c>
       <c r="C6">
-        <v>11.71252800233618</v>
+        <v>10.52848704463377</v>
       </c>
       <c r="D6">
-        <v>3.769388909685324</v>
+        <v>2.14218151961455</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.55424871409715</v>
+        <v>40.9750086980868</v>
       </c>
       <c r="G6">
-        <v>17.90459752721228</v>
+        <v>2.166281226599732</v>
       </c>
       <c r="H6">
-        <v>19.82505149057742</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>17.1003870821722</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>9.976544575955694</v>
+        <v>6.154360583791466</v>
       </c>
       <c r="K6">
-        <v>15.81017724961566</v>
+        <v>16.94363832584813</v>
       </c>
       <c r="L6">
-        <v>15.33472958616173</v>
+        <v>6.569755558113935</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13.50185968303509</v>
+      </c>
+      <c r="N6">
+        <v>17.06036765309597</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.60193265688182</v>
+        <v>21.35810023203633</v>
       </c>
       <c r="C7">
-        <v>11.99547307391772</v>
+        <v>10.80460170544099</v>
       </c>
       <c r="D7">
-        <v>3.810578636923761</v>
+        <v>2.179152498221635</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.9261051662013</v>
+        <v>41.25578920292175</v>
       </c>
       <c r="G7">
-        <v>18.19076682000482</v>
+        <v>2.162976341696506</v>
       </c>
       <c r="H7">
-        <v>20.0271871391886</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>17.17439632909588</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>10.16488729237942</v>
+        <v>6.144239720665619</v>
       </c>
       <c r="K7">
-        <v>16.18845674787381</v>
+        <v>17.24147576173882</v>
       </c>
       <c r="L7">
-        <v>15.73403404568564</v>
+        <v>6.579574317532291</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>13.62235448730114</v>
+      </c>
+      <c r="N7">
+        <v>17.01000356248927</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.49758752191651</v>
+        <v>22.94753898256264</v>
       </c>
       <c r="C8">
-        <v>13.18023438870542</v>
+        <v>11.96244838539422</v>
       </c>
       <c r="D8">
-        <v>3.986808755782153</v>
+        <v>2.339062879745373</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.58711981929208</v>
+        <v>42.5462876358536</v>
       </c>
       <c r="G8">
-        <v>19.46241976524835</v>
+        <v>2.148762614193573</v>
       </c>
       <c r="H8">
-        <v>20.95515875624494</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>17.54824218789549</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>10.98394787201477</v>
+        <v>6.100869363384179</v>
       </c>
       <c r="K8">
-        <v>17.77144504190996</v>
+        <v>18.5297168373032</v>
       </c>
       <c r="L8">
-        <v>17.40998111080288</v>
+        <v>6.629401741790299</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>14.16288988896028</v>
+      </c>
+      <c r="N8">
+        <v>16.79825688289625</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.84180677433998</v>
+        <v>25.92992641812907</v>
       </c>
       <c r="C9">
-        <v>15.28006788127285</v>
+        <v>14.0232476100475</v>
       </c>
       <c r="D9">
-        <v>4.311213726905295</v>
+        <v>2.642304650257888</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.89956582561449</v>
+        <v>45.26229515176474</v>
       </c>
       <c r="G9">
-        <v>21.9748008820702</v>
+        <v>2.122039354585571</v>
       </c>
       <c r="H9">
-        <v>22.90056958552579</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>18.46487806839</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>12.91504422166269</v>
+        <v>6.020123161842126</v>
       </c>
       <c r="K9">
-        <v>20.57265997791479</v>
+        <v>20.94827894168864</v>
       </c>
       <c r="L9">
-        <v>20.39996049033511</v>
+        <v>6.751425035609173</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>15.24888179803304</v>
+      </c>
+      <c r="N9">
+        <v>16.42301248437304</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.08199565347934</v>
+        <v>28.03046551867222</v>
       </c>
       <c r="C10">
-        <v>16.6931960004534</v>
+        <v>15.41788736276068</v>
       </c>
       <c r="D10">
-        <v>4.535857989697022</v>
+        <v>2.860558226938683</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.35867461933606</v>
+        <v>47.37320708989958</v>
       </c>
       <c r="G10">
-        <v>23.82642185348161</v>
+        <v>2.102913818604215</v>
       </c>
       <c r="H10">
-        <v>24.40543428523978</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>19.26213854105662</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>14.24789242273048</v>
+        <v>5.963071985418678</v>
       </c>
       <c r="K10">
-        <v>22.45404563997961</v>
+        <v>22.6527876672312</v>
       </c>
       <c r="L10">
-        <v>22.42947689799083</v>
+        <v>6.856839038371261</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>16.05884327055817</v>
+      </c>
+      <c r="N10">
+        <v>16.17433232079332</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.05665739952837</v>
+        <v>28.96600006097319</v>
       </c>
       <c r="C11">
-        <v>17.30963119028253</v>
+        <v>16.02851225036431</v>
       </c>
       <c r="D11">
-        <v>4.634996320206955</v>
+        <v>2.959385234165633</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.48294508894675</v>
+        <v>48.35986135633954</v>
       </c>
       <c r="G11">
-        <v>24.6702977365603</v>
+        <v>2.09427439635329</v>
       </c>
       <c r="H11">
-        <v>25.10699651278382</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>19.65429266812529</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>14.83554880147775</v>
+        <v>5.937525866756335</v>
       </c>
       <c r="K11">
-        <v>23.27366917821095</v>
+        <v>23.44887868229965</v>
       </c>
       <c r="L11">
-        <v>23.31984178171034</v>
+        <v>6.908443487147256</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16.42951065691273</v>
+      </c>
+      <c r="N11">
+        <v>16.06779985053338</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.41959145379841</v>
+        <v>29.31744142948153</v>
       </c>
       <c r="C12">
-        <v>17.53942463978154</v>
+        <v>16.25651334593041</v>
       </c>
       <c r="D12">
-        <v>4.67209641204806</v>
+        <v>2.996796582407083</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.90961131280569</v>
+        <v>48.73744705595055</v>
       </c>
       <c r="G12">
-        <v>24.99019828054119</v>
+        <v>2.091006965123003</v>
       </c>
       <c r="H12">
-        <v>25.37521399729707</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>19.80725542807773</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>15.05564239843861</v>
+        <v>5.927902887544851</v>
       </c>
       <c r="K12">
-        <v>23.57902810574501</v>
+        <v>23.77756066924318</v>
       </c>
       <c r="L12">
-        <v>23.6525924183019</v>
+        <v>6.928530558633008</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>16.57018333424682</v>
+      </c>
+      <c r="N12">
+        <v>16.02848226699679</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.34169655168217</v>
+        <v>29.24187634525395</v>
       </c>
       <c r="C13">
-        <v>17.49009351725376</v>
+        <v>16.20754952966881</v>
       </c>
       <c r="D13">
-        <v>4.664125870742913</v>
+        <v>2.988738971220911</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.81767668527092</v>
+        <v>48.65594767799804</v>
       </c>
       <c r="G13">
-        <v>24.92128395942426</v>
+        <v>2.091710561091045</v>
       </c>
       <c r="H13">
-        <v>25.31733271647203</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>19.7741098877609</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>15.00834555783554</v>
+        <v>5.929973240533074</v>
       </c>
       <c r="K13">
-        <v>23.51348326569684</v>
+        <v>23.70697031408302</v>
       </c>
       <c r="L13">
-        <v>23.5811193644569</v>
+        <v>6.924179828359356</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16.53987308813598</v>
+      </c>
+      <c r="N13">
+        <v>16.03690312487552</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.08663799369996</v>
+        <v>28.99496943692557</v>
       </c>
       <c r="C14">
-        <v>17.32860834478146</v>
+        <v>16.04733356860205</v>
       </c>
       <c r="D14">
-        <v>4.638057413248572</v>
+        <v>2.962462994130465</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.51802746968345</v>
+        <v>48.39084498076839</v>
       </c>
       <c r="G14">
-        <v>24.69660830303383</v>
+        <v>2.09400552859985</v>
       </c>
       <c r="H14">
-        <v>25.1290109595735</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>19.66678621125134</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>14.85370340678296</v>
+        <v>5.936733207538712</v>
       </c>
       <c r="K14">
-        <v>23.29889054122377</v>
+        <v>23.47600876187309</v>
       </c>
       <c r="L14">
-        <v>23.34730383901303</v>
+        <v>6.910085001383977</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>16.44107765238191</v>
+      </c>
+      <c r="N14">
+        <v>16.06454416726417</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.92961391998129</v>
+        <v>28.84336659607372</v>
       </c>
       <c r="C15">
-        <v>17.22922542192299</v>
+        <v>15.94878224369901</v>
       </c>
       <c r="D15">
-        <v>4.622032241054412</v>
+        <v>2.946368348875966</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.33461015149375</v>
+        <v>48.22898385177199</v>
       </c>
       <c r="G15">
-        <v>24.55903755406828</v>
+        <v>2.095411653263377</v>
       </c>
       <c r="H15">
-        <v>25.01399492964153</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>19.60163551917402</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>14.75867076096688</v>
+        <v>5.940880254329032</v>
       </c>
       <c r="K15">
-        <v>23.16679943004046</v>
+        <v>23.33395658853419</v>
       </c>
       <c r="L15">
-        <v>23.20352062854498</v>
+        <v>6.901523217651818</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16.3806029936394</v>
+      </c>
+      <c r="N15">
+        <v>16.0816109227675</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.01742525706414</v>
+        <v>27.96892640139859</v>
       </c>
       <c r="C16">
-        <v>16.65239240525155</v>
+        <v>15.37751865727508</v>
       </c>
       <c r="D16">
-        <v>4.529317329067237</v>
+        <v>2.85409480264685</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.28532189508475</v>
+        <v>47.30927068894636</v>
       </c>
       <c r="G16">
-        <v>23.77131230839228</v>
+        <v>2.10347926782787</v>
       </c>
       <c r="H16">
-        <v>24.35993528493955</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>19.23712216322359</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>14.20913237757199</v>
+        <v>5.964749026802721</v>
       </c>
       <c r="K16">
-        <v>22.39976842992268</v>
+        <v>22.60283756463172</v>
       </c>
       <c r="L16">
-        <v>22.37065413229164</v>
+        <v>6.853541738217374</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>16.03466245323249</v>
+      </c>
+      <c r="N16">
+        <v>16.18143333981194</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.44661336880311</v>
+        <v>27.42737631483463</v>
       </c>
       <c r="C17">
-        <v>16.29186895760434</v>
+        <v>15.02110130265261</v>
       </c>
       <c r="D17">
-        <v>4.471654709911336</v>
+        <v>2.797405931307148</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.64310894598849</v>
+        <v>46.75191391117622</v>
       </c>
       <c r="G17">
-        <v>23.28852764985642</v>
+        <v>2.108440965873322</v>
       </c>
       <c r="H17">
-        <v>23.96310068125367</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>19.0212079024047</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>13.86739313602015</v>
+        <v>5.979490664992788</v>
       </c>
       <c r="K17">
-        <v>21.92007215782994</v>
+        <v>22.16330755318153</v>
       </c>
       <c r="L17">
-        <v>21.85151132984191</v>
+        <v>6.825055675970409</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>15.82299146378947</v>
+      </c>
+      <c r="N17">
+        <v>16.24440994309762</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.11410171000633</v>
+        <v>27.11400013668332</v>
       </c>
       <c r="C18">
-        <v>16.08200949673923</v>
+        <v>14.81384615368625</v>
       </c>
       <c r="D18">
-        <v>4.438201178649718</v>
+        <v>2.764753180704598</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.27423947795015</v>
+        <v>46.43380748643135</v>
       </c>
       <c r="G18">
-        <v>23.01097796473799</v>
+        <v>2.111300841811864</v>
       </c>
       <c r="H18">
-        <v>23.73644140006511</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>18.89977992137108</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>13.66906083209041</v>
+        <v>5.988008452836325</v>
       </c>
       <c r="K18">
-        <v>21.6407405758051</v>
+        <v>21.90899569735485</v>
       </c>
       <c r="L18">
-        <v>21.54979907934829</v>
+        <v>6.809013548237217</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>15.70145119865283</v>
+      </c>
+      <c r="N18">
+        <v>16.28124778149418</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.00079151910447</v>
+        <v>27.00757108513078</v>
       </c>
       <c r="C19">
-        <v>16.01052146155853</v>
+        <v>14.74328056181426</v>
       </c>
       <c r="D19">
-        <v>4.426825144198531</v>
+        <v>2.753688000554307</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.14943292050587</v>
+        <v>46.32652239117827</v>
       </c>
       <c r="G19">
-        <v>22.91702536072405</v>
+        <v>2.112270315571852</v>
       </c>
       <c r="H19">
-        <v>23.65996915525252</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>18.85913405413906</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>13.60159744714151</v>
+        <v>5.990899314354657</v>
       </c>
       <c r="K19">
-        <v>21.54557024540613</v>
+        <v>21.82263086348272</v>
       </c>
       <c r="L19">
-        <v>21.44710045919417</v>
+        <v>6.803640162245415</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>15.66033603272382</v>
+      </c>
+      <c r="N19">
+        <v>16.29382402160525</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.5078098740326</v>
+        <v>27.48522077985247</v>
       </c>
       <c r="C20">
-        <v>16.33050451618692</v>
+        <v>15.05927441433403</v>
       </c>
       <c r="D20">
-        <v>4.47782278109405</v>
+        <v>2.803445045274403</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.71141981122962</v>
+        <v>46.81098881101407</v>
       </c>
       <c r="G20">
-        <v>23.33990630144194</v>
+        <v>2.107912191382797</v>
       </c>
       <c r="H20">
-        <v>24.0051793099602</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>19.04390511805586</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>13.90395367677139</v>
+        <v>5.977917431606554</v>
       </c>
       <c r="K20">
-        <v>21.97148957305968</v>
+        <v>22.21025194184151</v>
       </c>
       <c r="L20">
-        <v>21.90709519317167</v>
+        <v>6.828052497784758</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>15.84550289288832</v>
+      </c>
+      <c r="N20">
+        <v>16.23764177935447</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.16171974735275</v>
+        <v>29.06756790651251</v>
       </c>
       <c r="C21">
-        <v>17.37613779512656</v>
+        <v>16.09447886760027</v>
       </c>
       <c r="D21">
-        <v>4.645726330293874</v>
+        <v>2.970180745247806</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.60601498075793</v>
+        <v>48.46860290682513</v>
       </c>
       <c r="G21">
-        <v>24.76259033069234</v>
+        <v>2.093331368656736</v>
       </c>
       <c r="H21">
-        <v>25.18425522004663</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>19.69818677310979</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>14.89918964947464</v>
+        <v>5.934746328308687</v>
       </c>
       <c r="K21">
-        <v>23.36205605127624</v>
+        <v>23.54396852995255</v>
       </c>
       <c r="L21">
-        <v>23.41609813884834</v>
+        <v>6.914210010140448</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16.47008782799766</v>
+      </c>
+      <c r="N21">
+        <v>16.05639686464756</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.20693224849866</v>
+        <v>30.08532785813423</v>
       </c>
       <c r="C22">
-        <v>18.03840827811601</v>
+        <v>16.75232874379869</v>
       </c>
       <c r="D22">
-        <v>4.752889773422588</v>
+        <v>3.079112450999556</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.84979391610727</v>
+        <v>49.57516598444823</v>
       </c>
       <c r="G22">
-        <v>25.69451060093633</v>
+        <v>2.083823449857754</v>
       </c>
       <c r="H22">
-        <v>25.96981593601797</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>20.15193027463271</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>15.535553648363</v>
+        <v>5.90682337719014</v>
       </c>
       <c r="K22">
-        <v>24.24175045348355</v>
+        <v>24.49249643408774</v>
       </c>
       <c r="L22">
-        <v>24.37678229549232</v>
+        <v>6.973710532262708</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>16.88010557231075</v>
+      </c>
+      <c r="N22">
+        <v>15.94395613200749</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.6522652955261</v>
+        <v>29.54359555309709</v>
       </c>
       <c r="C23">
-        <v>17.68681566007644</v>
+        <v>16.40286438798951</v>
       </c>
       <c r="D23">
-        <v>4.695929608704589</v>
+        <v>3.020956945784054</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.18538922815104</v>
+        <v>48.98237509983252</v>
       </c>
       <c r="G23">
-        <v>25.19687316742531</v>
+        <v>2.088897723110931</v>
       </c>
       <c r="H23">
-        <v>25.54912563587297</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>19.90728753239338</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>15.19711340468139</v>
+        <v>5.92170242288873</v>
       </c>
       <c r="K23">
-        <v>23.77483473599908</v>
+        <v>23.98856751365808</v>
       </c>
       <c r="L23">
-        <v>23.86626899775581</v>
+        <v>6.941654460117864</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>16.66110157260698</v>
+      </c>
+      <c r="N23">
+        <v>16.00338911021927</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.48015648313347</v>
+        <v>27.45907562899778</v>
       </c>
       <c r="C24">
-        <v>16.31304545838039</v>
+        <v>15.04202367234236</v>
       </c>
       <c r="D24">
-        <v>4.475035138173257</v>
+        <v>2.800714957519155</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.68053539515262</v>
+        <v>46.78427381731358</v>
       </c>
       <c r="G24">
-        <v>23.31667799087964</v>
+        <v>2.108151227158004</v>
       </c>
       <c r="H24">
-        <v>23.9861509399734</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>19.03363530109494</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>13.88743047363523</v>
+        <v>5.978628557083644</v>
       </c>
       <c r="K24">
-        <v>21.94825482466582</v>
+        <v>22.18903343327503</v>
       </c>
       <c r="L24">
-        <v>21.88197587534707</v>
+        <v>6.826696593057943</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>15.83532500067555</v>
+      </c>
+      <c r="N24">
+        <v>16.24069970399964</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.97600587198301</v>
+        <v>25.13866931711172</v>
       </c>
       <c r="C25">
-        <v>14.73529762513157</v>
+        <v>13.48737626100672</v>
       </c>
       <c r="D25">
-        <v>4.225816921382936</v>
+        <v>2.561218517855774</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.99869626657079</v>
+        <v>44.50754832059688</v>
       </c>
       <c r="G25">
-        <v>21.29396732064684</v>
+        <v>2.129164313604803</v>
       </c>
       <c r="H25">
-        <v>22.36105027603045</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>18.19601137305088</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>12.40618975747124</v>
+        <v>6.041540951491093</v>
       </c>
       <c r="K25">
-        <v>19.8465264977804</v>
+        <v>20.30643954268572</v>
       </c>
       <c r="L25">
-        <v>19.62151567019173</v>
+        <v>6.715717499494151</v>
       </c>
       <c r="M25">
+        <v>14.95275725216795</v>
+      </c>
+      <c r="N25">
+        <v>16.51999984625774</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.36957872500473</v>
+        <v>20.45769591421342</v>
       </c>
       <c r="C2">
-        <v>12.26168621532938</v>
+        <v>13.12275934368915</v>
       </c>
       <c r="D2">
-        <v>2.381639025325157</v>
+        <v>4.299549823475076</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>42.90845289262278</v>
+        <v>27.25694098995542</v>
       </c>
       <c r="G2">
-        <v>2.144995699763188</v>
+        <v>35.82495117236249</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>11.61626168474394</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>17.74471036015098</v>
       </c>
       <c r="J2">
-        <v>6.089421411135761</v>
+        <v>6.06744567840019</v>
       </c>
       <c r="K2">
-        <v>18.8718636859713</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.644514318581493</v>
+        <v>7.210562794610856</v>
       </c>
       <c r="M2">
-        <v>14.3112813048239</v>
+        <v>13.00296683528992</v>
       </c>
       <c r="N2">
-        <v>16.74350779033034</v>
+        <v>12.77130803855876</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.13565368082808</v>
+        <v>19.16165350050385</v>
       </c>
       <c r="C3">
-        <v>11.37770063983515</v>
+        <v>12.30799373895914</v>
       </c>
       <c r="D3">
-        <v>2.25733192870004</v>
+        <v>4.274926927452872</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>41.87211409279577</v>
+        <v>26.72222391806113</v>
       </c>
       <c r="G3">
-        <v>2.156012742357386</v>
+        <v>34.72192429075468</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>11.5377556102713</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>17.74559793058322</v>
       </c>
       <c r="J3">
-        <v>6.122958559102098</v>
+        <v>6.102602004876577</v>
       </c>
       <c r="K3">
-        <v>17.87162067102306</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.602504296811397</v>
+        <v>7.12217192059072</v>
       </c>
       <c r="M3">
-        <v>13.88300163558695</v>
+        <v>12.47797317862278</v>
       </c>
       <c r="N3">
-        <v>16.90526236014463</v>
+        <v>12.9966925713067</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.36238446523682</v>
+        <v>18.32707967855352</v>
       </c>
       <c r="C4">
-        <v>10.8077990778909</v>
+        <v>11.78139372340522</v>
       </c>
       <c r="D4">
-        <v>2.179583291424998</v>
+        <v>4.260461526238312</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>41.25910284558815</v>
+        <v>26.41397199481925</v>
       </c>
       <c r="G4">
-        <v>2.162937880783127</v>
+        <v>34.06684943245597</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>11.4985219328098</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>17.76199429533613</v>
       </c>
       <c r="J4">
-        <v>6.144122015479932</v>
+        <v>6.124890707503716</v>
       </c>
       <c r="K4">
-        <v>17.24494745459935</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.579692720464696</v>
+        <v>7.070266512697511</v>
       </c>
       <c r="M4">
-        <v>13.62376955005753</v>
+        <v>12.14973888575584</v>
       </c>
       <c r="N4">
-        <v>17.00941989659187</v>
+        <v>13.13786690427887</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.04366675668371</v>
+        <v>17.97736659886357</v>
       </c>
       <c r="C5">
-        <v>10.56862396089727</v>
+        <v>11.56018229265236</v>
       </c>
       <c r="D5">
-        <v>2.147527258083255</v>
+        <v>4.254727100824439</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>41.01516072863151</v>
+        <v>26.2934008913851</v>
       </c>
       <c r="G5">
-        <v>2.165802840473019</v>
+        <v>33.80571951244095</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>11.48471995517921</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>17.77248867524126</v>
       </c>
       <c r="J5">
-        <v>6.152894772425052</v>
+        <v>6.134152903141461</v>
       </c>
       <c r="K5">
-        <v>16.98668756491055</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.571132868539789</v>
+        <v>7.049717757078421</v>
       </c>
       <c r="M5">
-        <v>13.5191640132476</v>
+        <v>12.01468691991794</v>
       </c>
       <c r="N5">
-        <v>17.05305174344453</v>
+        <v>13.19612742875699</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.9905372853846</v>
+        <v>17.91872115369128</v>
       </c>
       <c r="C6">
-        <v>10.52848704463377</v>
+        <v>11.52305100524493</v>
       </c>
       <c r="D6">
-        <v>2.14218151961455</v>
+        <v>4.253784480162874</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>40.9750086980868</v>
+        <v>26.27368443949243</v>
       </c>
       <c r="G6">
-        <v>2.166281226599732</v>
+        <v>33.76271732734233</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>11.48255810032859</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>17.77445649973616</v>
       </c>
       <c r="J6">
-        <v>6.154360583791466</v>
+        <v>6.135701794356541</v>
       </c>
       <c r="K6">
-        <v>16.94363832584813</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.569755558113935</v>
+        <v>7.046342292563428</v>
       </c>
       <c r="M6">
-        <v>13.50185968303509</v>
+        <v>11.9921893782126</v>
       </c>
       <c r="N6">
-        <v>17.06036765309597</v>
+        <v>13.20584653329465</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.35810023203633</v>
+        <v>18.32240204769889</v>
       </c>
       <c r="C7">
-        <v>10.80460170544099</v>
+        <v>11.77843716815367</v>
       </c>
       <c r="D7">
-        <v>2.179152498221635</v>
+        <v>4.260383545468569</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>41.25578920292175</v>
+        <v>26.41232552129864</v>
       </c>
       <c r="G7">
-        <v>2.162976341696506</v>
+        <v>34.06330387419722</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>11.49832703680519</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>17.76212061650699</v>
       </c>
       <c r="J7">
-        <v>6.144239720665619</v>
+        <v>6.125014890944764</v>
       </c>
       <c r="K7">
-        <v>17.24147576173882</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.579574317532291</v>
+        <v>7.069986933161118</v>
       </c>
       <c r="M7">
-        <v>13.62235448730114</v>
+        <v>12.14792250388703</v>
       </c>
       <c r="N7">
-        <v>17.01000356248927</v>
+        <v>13.13864962838873</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.94753898256264</v>
+        <v>20.01894195377517</v>
       </c>
       <c r="C8">
-        <v>11.96244838539422</v>
+        <v>12.84729060607553</v>
       </c>
       <c r="D8">
-        <v>2.339062879745373</v>
+        <v>4.290921827040459</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>42.5462876358536</v>
+        <v>27.06840897227424</v>
       </c>
       <c r="G8">
-        <v>2.148762614193573</v>
+        <v>35.44016698065353</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>11.58729030145296</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>17.74162187485547</v>
       </c>
       <c r="J8">
-        <v>6.100869363384179</v>
+        <v>6.079423417725178</v>
       </c>
       <c r="K8">
-        <v>18.5297168373032</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>6.629401741790299</v>
+        <v>7.179599355729363</v>
       </c>
       <c r="M8">
-        <v>14.16288988896028</v>
+        <v>12.82327549711847</v>
       </c>
       <c r="N8">
-        <v>16.79825688289625</v>
+        <v>12.84846063679047</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.92992641812907</v>
+        <v>23.14036994126167</v>
       </c>
       <c r="C9">
-        <v>14.0232476100475</v>
+        <v>14.73497910124784</v>
       </c>
       <c r="D9">
-        <v>2.642304650257888</v>
+        <v>4.356188619258436</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>45.26229515176474</v>
+        <v>28.51371503790914</v>
       </c>
       <c r="G9">
-        <v>2.122039354585571</v>
+        <v>38.30586807014749</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.835883125751</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>17.83498875045969</v>
       </c>
       <c r="J9">
-        <v>6.020123161842126</v>
+        <v>5.995465387596353</v>
       </c>
       <c r="K9">
-        <v>20.94827894168864</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>6.751425035609173</v>
+        <v>7.41295609961549</v>
       </c>
       <c r="M9">
-        <v>15.24888179803304</v>
+        <v>14.09390990987501</v>
       </c>
       <c r="N9">
-        <v>16.42301248437304</v>
+        <v>12.30007612297324</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.03046551867222</v>
+        <v>25.27865617887319</v>
       </c>
       <c r="C10">
-        <v>15.41788736276068</v>
+        <v>15.99657906647789</v>
       </c>
       <c r="D10">
-        <v>2.860558226938683</v>
+        <v>4.4077379340729</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.37320708989958</v>
+        <v>29.67126093476268</v>
       </c>
       <c r="G10">
-        <v>2.102913818604215</v>
+        <v>40.49953034500815</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12.06760746633715</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>17.99569631247095</v>
       </c>
       <c r="J10">
-        <v>5.963071985418678</v>
+        <v>5.936915123535885</v>
       </c>
       <c r="K10">
-        <v>22.6527876672312</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6.856839038371261</v>
+        <v>7.595117131794842</v>
       </c>
       <c r="M10">
-        <v>16.05884327055817</v>
+        <v>14.98688001659946</v>
       </c>
       <c r="N10">
-        <v>16.17433232079332</v>
+        <v>11.90763680823832</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.96600006097319</v>
+        <v>26.20313055500894</v>
       </c>
       <c r="C11">
-        <v>16.02851225036431</v>
+        <v>16.5438937745593</v>
       </c>
       <c r="D11">
-        <v>2.959385234165633</v>
+        <v>4.432052804763771</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>48.35986135633954</v>
+        <v>30.21836306654487</v>
       </c>
       <c r="G11">
-        <v>2.09427439635329</v>
+        <v>41.51445805738865</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12.18447037375313</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>18.09109403240655</v>
       </c>
       <c r="J11">
-        <v>5.937525866756335</v>
+        <v>5.910916562584903</v>
       </c>
       <c r="K11">
-        <v>23.44887868229965</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>6.908443487147256</v>
+        <v>7.680208145305587</v>
       </c>
       <c r="M11">
-        <v>16.42951065691273</v>
+        <v>15.3830901740819</v>
       </c>
       <c r="N11">
-        <v>16.06779985053338</v>
+        <v>11.73086554458665</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.31744142948153</v>
+        <v>26.54637573883381</v>
       </c>
       <c r="C12">
-        <v>16.25651334593041</v>
+        <v>16.74738261188327</v>
       </c>
       <c r="D12">
-        <v>2.996796582407083</v>
+        <v>4.441392440712125</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>48.73744705595055</v>
+        <v>30.42846880697627</v>
       </c>
       <c r="G12">
-        <v>2.091006965123003</v>
+        <v>41.90109633363443</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12.23043187195289</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>18.13061079019436</v>
       </c>
       <c r="J12">
-        <v>5.927902887544851</v>
+        <v>5.901159421354773</v>
       </c>
       <c r="K12">
-        <v>23.77756066924318</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>6.928530558633008</v>
+        <v>7.712741498314026</v>
       </c>
       <c r="M12">
-        <v>16.57018333424682</v>
+        <v>15.5316106334473</v>
       </c>
       <c r="N12">
-        <v>16.02848226699679</v>
+        <v>11.66413332126094</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.24187634525395</v>
+        <v>26.47275391056485</v>
       </c>
       <c r="C13">
-        <v>16.20754952966881</v>
+        <v>16.70372420555463</v>
       </c>
       <c r="D13">
-        <v>2.988738971220911</v>
+        <v>4.439374971796709</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>48.65594767799804</v>
+        <v>30.38308870238257</v>
       </c>
       <c r="G13">
-        <v>2.091710561091045</v>
+        <v>41.817726006343</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>12.22045630204239</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>18.12194634374949</v>
       </c>
       <c r="J13">
-        <v>5.929973240533074</v>
+        <v>5.903256942962766</v>
       </c>
       <c r="K13">
-        <v>23.70697031408302</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>6.924179828359356</v>
+        <v>7.705721144136603</v>
       </c>
       <c r="M13">
-        <v>16.53987308813598</v>
+        <v>15.49969253235074</v>
       </c>
       <c r="N13">
-        <v>16.03690312487552</v>
+        <v>11.67849682971577</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.99496943692557</v>
+        <v>26.23150586510477</v>
       </c>
       <c r="C14">
-        <v>16.04733356860205</v>
+        <v>16.56071007045709</v>
       </c>
       <c r="D14">
-        <v>2.962462994130465</v>
+        <v>4.432818486057077</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.39084498076839</v>
+        <v>30.23558995982868</v>
       </c>
       <c r="G14">
-        <v>2.09400552859985</v>
+        <v>41.54622142649148</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12.18821707197494</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>18.09427606052689</v>
       </c>
       <c r="J14">
-        <v>5.936733207538712</v>
+        <v>5.910112094964743</v>
       </c>
       <c r="K14">
-        <v>23.47600876187309</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>6.910085001383977</v>
+        <v>7.682878492532762</v>
       </c>
       <c r="M14">
-        <v>16.44107765238191</v>
+        <v>15.39533979271397</v>
       </c>
       <c r="N14">
-        <v>16.06454416726417</v>
+        <v>11.72537155890582</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.84336659607372</v>
+        <v>26.08284781519404</v>
       </c>
       <c r="C15">
-        <v>15.94878224369901</v>
+        <v>16.47262099768128</v>
       </c>
       <c r="D15">
-        <v>2.946368348875966</v>
+        <v>4.42881990381002</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.22898385177199</v>
+        <v>30.14562381554282</v>
       </c>
       <c r="G15">
-        <v>2.095411653263377</v>
+        <v>41.38021408911845</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12.16869386519692</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>18.0777744300962</v>
       </c>
       <c r="J15">
-        <v>5.940880254329032</v>
+        <v>5.914322419084852</v>
       </c>
       <c r="K15">
-        <v>23.33395658853419</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>6.901523217651818</v>
+        <v>7.668926999140585</v>
       </c>
       <c r="M15">
-        <v>16.3806029936394</v>
+        <v>15.33122137359999</v>
       </c>
       <c r="N15">
-        <v>16.0816109227675</v>
+        <v>11.7541092890822</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.96892640139859</v>
+        <v>25.21727754515987</v>
       </c>
       <c r="C16">
-        <v>15.37751865727508</v>
+        <v>15.96028028115458</v>
       </c>
       <c r="D16">
-        <v>2.85409480264685</v>
+        <v>4.406166942433188</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.30927068894636</v>
+        <v>29.63591752493065</v>
       </c>
       <c r="G16">
-        <v>2.10347926782787</v>
+        <v>40.43353193204209</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12.06020588671521</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>17.98992634160727</v>
       </c>
       <c r="J16">
-        <v>5.964749026802721</v>
+        <v>5.938626694651896</v>
       </c>
       <c r="K16">
-        <v>22.60283756463172</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>6.853541738217374</v>
+        <v>7.58960023935323</v>
       </c>
       <c r="M16">
-        <v>16.03466245323249</v>
+        <v>14.96077839963922</v>
       </c>
       <c r="N16">
-        <v>16.18143333981194</v>
+        <v>11.91922072744556</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.42737631483463</v>
+        <v>24.67399355695594</v>
       </c>
       <c r="C17">
-        <v>15.02110130265261</v>
+        <v>15.63920215903543</v>
       </c>
       <c r="D17">
-        <v>2.797405931307148</v>
+        <v>4.392496787682017</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.75191391117622</v>
+        <v>29.32846873117899</v>
       </c>
       <c r="G17">
-        <v>2.108440965873322</v>
+        <v>39.85701891064016</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>11.99662878058514</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>17.94187644227058</v>
       </c>
       <c r="J17">
-        <v>5.979490664992788</v>
+        <v>5.953697071796749</v>
       </c>
       <c r="K17">
-        <v>22.16330755318153</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>6.825055675970409</v>
+        <v>7.541499224902582</v>
       </c>
       <c r="M17">
-        <v>15.82299146378947</v>
+        <v>14.73090008239456</v>
       </c>
       <c r="N17">
-        <v>16.24440994309762</v>
+        <v>12.02092907772893</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.11400013668332</v>
+        <v>24.35696341528238</v>
       </c>
       <c r="C18">
-        <v>14.81384615368625</v>
+        <v>15.45201945039015</v>
       </c>
       <c r="D18">
-        <v>2.764753180704598</v>
+        <v>4.384714955337044</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.43380748643135</v>
+        <v>29.15356549403598</v>
       </c>
       <c r="G18">
-        <v>2.111300841811864</v>
+        <v>39.52703173082543</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>11.96113507696601</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>17.91632645902008</v>
       </c>
       <c r="J18">
-        <v>5.988008452836325</v>
+        <v>5.962425262737259</v>
       </c>
       <c r="K18">
-        <v>21.90899569735485</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>6.809013548237217</v>
+        <v>7.514042700493616</v>
       </c>
       <c r="M18">
-        <v>15.70145119865283</v>
+        <v>14.59774166220354</v>
       </c>
       <c r="N18">
-        <v>16.28124778149418</v>
+        <v>12.07959673500877</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.00757108513078</v>
+        <v>24.24883837120957</v>
       </c>
       <c r="C19">
-        <v>14.74328056181426</v>
+        <v>15.38821042812944</v>
       </c>
       <c r="D19">
-        <v>2.753688000554307</v>
+        <v>4.382093831930792</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.32652239117827</v>
+        <v>29.09467910374295</v>
       </c>
       <c r="G19">
-        <v>2.112270315571852</v>
+        <v>39.41558487225988</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11.94930011958752</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>17.90802843732628</v>
       </c>
       <c r="J19">
-        <v>5.990899314354657</v>
+        <v>5.965390907095511</v>
       </c>
       <c r="K19">
-        <v>21.82263086348272</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>6.803640162245415</v>
+        <v>7.504782726244796</v>
       </c>
       <c r="M19">
-        <v>15.66033603272382</v>
+        <v>14.55249797206139</v>
       </c>
       <c r="N19">
-        <v>16.29382402160525</v>
+        <v>12.09949070593165</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.48522077985247</v>
+        <v>24.73229699229345</v>
       </c>
       <c r="C20">
-        <v>15.05927441433403</v>
+        <v>15.67364056222889</v>
       </c>
       <c r="D20">
-        <v>2.803445045274403</v>
+        <v>4.393943575405025</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.81098881101407</v>
+        <v>29.36099729282614</v>
       </c>
       <c r="G20">
-        <v>2.107912191382797</v>
+        <v>39.9182244534214</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>12.00328505195507</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>17.94677408271482</v>
       </c>
       <c r="J20">
-        <v>5.977917431606554</v>
+        <v>5.952086608529606</v>
       </c>
       <c r="K20">
-        <v>22.21025194184151</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>6.828052497784758</v>
+        <v>7.546598001805949</v>
       </c>
       <c r="M20">
-        <v>15.84550289288832</v>
+        <v>14.75546876815904</v>
       </c>
       <c r="N20">
-        <v>16.23764177935447</v>
+        <v>12.01008500631029</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.06756790651251</v>
+        <v>26.30255084496283</v>
       </c>
       <c r="C21">
-        <v>16.09447886760027</v>
+        <v>16.60281853725083</v>
       </c>
       <c r="D21">
-        <v>2.970180745247806</v>
+        <v>4.434740631945812</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.46860290682513</v>
+        <v>30.27883452052323</v>
       </c>
       <c r="G21">
-        <v>2.093331368656736</v>
+        <v>41.62590718332221</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12.19763967235149</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>18.10230996247541</v>
       </c>
       <c r="J21">
-        <v>5.934746328308687</v>
+        <v>5.908096212808688</v>
       </c>
       <c r="K21">
-        <v>23.54396852995255</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>6.914210010140448</v>
+        <v>7.689579550613801</v>
       </c>
       <c r="M21">
-        <v>16.47008782799766</v>
+        <v>15.42603237790644</v>
       </c>
       <c r="N21">
-        <v>16.05639686464756</v>
+        <v>11.71159806300566</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.08532785813423</v>
+        <v>27.28902761226679</v>
       </c>
       <c r="C22">
-        <v>16.75232874379869</v>
+        <v>17.18816364497513</v>
       </c>
       <c r="D22">
-        <v>3.079112450999556</v>
+        <v>4.462178374576169</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>49.57516598444823</v>
+        <v>30.89577072126091</v>
       </c>
       <c r="G22">
-        <v>2.083823449857754</v>
+        <v>42.75539236593264</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12.3346457656315</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>18.22381707672229</v>
       </c>
       <c r="J22">
-        <v>5.90682337719014</v>
+        <v>5.87985681463123</v>
       </c>
       <c r="K22">
-        <v>24.49249643408774</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>6.973710532262708</v>
+        <v>7.784837136952028</v>
       </c>
       <c r="M22">
-        <v>16.88010557231075</v>
+        <v>15.85542700034078</v>
       </c>
       <c r="N22">
-        <v>15.94395613200749</v>
+        <v>11.51770425960302</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.54359555309709</v>
+        <v>26.76612926879742</v>
       </c>
       <c r="C23">
-        <v>16.40286438798951</v>
+        <v>16.87773914640234</v>
       </c>
       <c r="D23">
-        <v>3.020956945784054</v>
+        <v>4.447460617322094</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>48.98237509983252</v>
+        <v>30.56494216620156</v>
       </c>
       <c r="G23">
-        <v>2.088897723110931</v>
+        <v>42.15137182672984</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>12.26058928857507</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>18.15708830819658</v>
       </c>
       <c r="J23">
-        <v>5.92170242288873</v>
+        <v>5.894883184055322</v>
       </c>
       <c r="K23">
-        <v>23.98856751365808</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>6.941654460117864</v>
+        <v>7.733833268694264</v>
       </c>
       <c r="M23">
-        <v>16.66110157260698</v>
+        <v>15.627082058189</v>
       </c>
       <c r="N23">
-        <v>16.00338911021927</v>
+        <v>11.62109626059566</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.45907562899778</v>
+        <v>24.70595262195252</v>
       </c>
       <c r="C24">
-        <v>15.04202367234236</v>
+        <v>15.6580790335318</v>
       </c>
       <c r="D24">
-        <v>2.800714957519155</v>
+        <v>4.393289242407638</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.78427381731358</v>
+        <v>29.346285356059</v>
       </c>
       <c r="G24">
-        <v>2.108151227158004</v>
+        <v>39.89054887545893</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>12.00027246207227</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>17.94455341184696</v>
       </c>
       <c r="J24">
-        <v>5.978628557083644</v>
+        <v>5.952814499266491</v>
       </c>
       <c r="K24">
-        <v>22.18903343327503</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>6.826696593057943</v>
+        <v>7.544292229265624</v>
       </c>
       <c r="M24">
-        <v>15.83532500067555</v>
+        <v>14.74436436880738</v>
       </c>
       <c r="N24">
-        <v>16.24069970399964</v>
+        <v>12.01498700286315</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.13866931711172</v>
+        <v>22.30950118615178</v>
       </c>
       <c r="C25">
-        <v>13.48737626100672</v>
+        <v>14.24647587619802</v>
       </c>
       <c r="D25">
-        <v>2.561218517855774</v>
+        <v>4.337925598975682</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>44.50754832059688</v>
+        <v>28.105819674042</v>
       </c>
       <c r="G25">
-        <v>2.129164313604803</v>
+        <v>37.5142750917925</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11.76028440087302</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>17.79432848565097</v>
       </c>
       <c r="J25">
-        <v>6.041540951491093</v>
+        <v>6.017613963353574</v>
       </c>
       <c r="K25">
-        <v>20.30643954268572</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>6.715717499494151</v>
+        <v>7.347908165331034</v>
       </c>
       <c r="M25">
-        <v>14.95275725216795</v>
+        <v>13.75681158783752</v>
       </c>
       <c r="N25">
-        <v>16.51999984625774</v>
+        <v>12.44642842264958</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.45769591421342</v>
+        <v>18.34907784742004</v>
       </c>
       <c r="C2">
-        <v>13.12275934368915</v>
+        <v>7.925370817544174</v>
       </c>
       <c r="D2">
-        <v>4.299549823475076</v>
+        <v>7.634174617249117</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.25694098995542</v>
+        <v>38.35541070808074</v>
       </c>
       <c r="G2">
-        <v>35.82495117236249</v>
+        <v>44.53944759411629</v>
       </c>
       <c r="H2">
-        <v>11.61626168474394</v>
+        <v>18.13653292117984</v>
       </c>
       <c r="I2">
-        <v>17.74471036015098</v>
+        <v>27.79472989641844</v>
       </c>
       <c r="J2">
-        <v>6.06744567840019</v>
+        <v>10.10627799649272</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.210562794610856</v>
+        <v>11.94308706683384</v>
       </c>
       <c r="M2">
-        <v>13.00296683528992</v>
+        <v>17.62141897037087</v>
       </c>
       <c r="N2">
-        <v>12.77130803855876</v>
+        <v>19.60367838360702</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.16165350050385</v>
+        <v>17.99215673354777</v>
       </c>
       <c r="C3">
-        <v>12.30799373895914</v>
+        <v>7.50481229608585</v>
       </c>
       <c r="D3">
-        <v>4.274926927452872</v>
+        <v>7.636820535097648</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.72222391806113</v>
+        <v>38.39313253122761</v>
       </c>
       <c r="G3">
-        <v>34.72192429075468</v>
+        <v>44.49636793870631</v>
       </c>
       <c r="H3">
-        <v>11.5377556102713</v>
+        <v>18.17807290345681</v>
       </c>
       <c r="I3">
-        <v>17.74559793058322</v>
+        <v>27.88440195884988</v>
       </c>
       <c r="J3">
-        <v>6.102602004876577</v>
+        <v>10.11904522003918</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.12217192059072</v>
+        <v>11.95196679462207</v>
       </c>
       <c r="M3">
-        <v>12.47797317862278</v>
+        <v>17.55681898551189</v>
       </c>
       <c r="N3">
-        <v>12.9966925713067</v>
+        <v>19.6695188546648</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.32707967855352</v>
+        <v>17.77301054684395</v>
       </c>
       <c r="C4">
-        <v>11.78139372340522</v>
+        <v>7.232700469596563</v>
       </c>
       <c r="D4">
-        <v>4.260461526238312</v>
+        <v>7.638782804515963</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.41397199481925</v>
+        <v>38.42558137503812</v>
       </c>
       <c r="G4">
-        <v>34.06684943245597</v>
+        <v>44.48357837068283</v>
       </c>
       <c r="H4">
-        <v>11.4985219328098</v>
+        <v>18.20704362426381</v>
       </c>
       <c r="I4">
-        <v>17.76199429533613</v>
+        <v>27.94509425145359</v>
       </c>
       <c r="J4">
-        <v>6.124890707503716</v>
+        <v>10.12729851209699</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.070266512697511</v>
+        <v>11.95883981648087</v>
       </c>
       <c r="M4">
-        <v>12.14973888575584</v>
+        <v>17.51979170773249</v>
       </c>
       <c r="N4">
-        <v>13.13786690427887</v>
+        <v>19.71181545891742</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.97736659886357</v>
+        <v>17.6838324124122</v>
       </c>
       <c r="C5">
-        <v>11.56018229265236</v>
+        <v>7.118374721106981</v>
       </c>
       <c r="D5">
-        <v>4.254727100824439</v>
+        <v>7.639667615440667</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.2934008913851</v>
+        <v>38.44113582737713</v>
       </c>
       <c r="G5">
-        <v>33.80571951244095</v>
+        <v>44.48180203845082</v>
       </c>
       <c r="H5">
-        <v>11.48471995517921</v>
+        <v>18.21971926589356</v>
       </c>
       <c r="I5">
-        <v>17.77248867524126</v>
+        <v>27.97124032312935</v>
       </c>
       <c r="J5">
-        <v>6.134152903141461</v>
+        <v>10.13076624300374</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.049717757078421</v>
+        <v>11.96199854346833</v>
       </c>
       <c r="M5">
-        <v>12.01468691991794</v>
+        <v>17.50537657916237</v>
       </c>
       <c r="N5">
-        <v>13.19612742875699</v>
+        <v>19.72952347320363</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.91872115369128</v>
+        <v>17.66903572574697</v>
       </c>
       <c r="C6">
-        <v>11.52305100524493</v>
+        <v>7.099185185652406</v>
       </c>
       <c r="D6">
-        <v>4.253784480162874</v>
+        <v>7.639819689343589</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.27368443949243</v>
+        <v>38.44385929593421</v>
       </c>
       <c r="G6">
-        <v>33.76271732734233</v>
+        <v>44.4817145201485</v>
       </c>
       <c r="H6">
-        <v>11.48255810032859</v>
+        <v>18.2218765375867</v>
       </c>
       <c r="I6">
-        <v>17.77445649973616</v>
+        <v>27.97566713748842</v>
       </c>
       <c r="J6">
-        <v>6.135701794356541</v>
+        <v>10.13134837433686</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.046342292563428</v>
+        <v>11.9625446823374</v>
       </c>
       <c r="M6">
-        <v>11.9921893782126</v>
+        <v>17.50302394934485</v>
       </c>
       <c r="N6">
-        <v>13.20584653329465</v>
+        <v>19.7324924156231</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.32240204769889</v>
+        <v>17.77180718419554</v>
       </c>
       <c r="C7">
-        <v>11.77843716815367</v>
+        <v>7.231172472738098</v>
       </c>
       <c r="D7">
-        <v>4.260383545468569</v>
+        <v>7.638794392177664</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.41232552129864</v>
+        <v>38.42578171479704</v>
       </c>
       <c r="G7">
-        <v>34.06330387419722</v>
+        <v>44.4835405063353</v>
       </c>
       <c r="H7">
-        <v>11.49832703680519</v>
+        <v>18.20721105251037</v>
       </c>
       <c r="I7">
-        <v>17.76212061650699</v>
+        <v>27.94544114758303</v>
       </c>
       <c r="J7">
-        <v>6.125014890944764</v>
+        <v>10.12734485582313</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.069986933161118</v>
+        <v>11.95888096619586</v>
       </c>
       <c r="M7">
-        <v>12.14792250388703</v>
+        <v>17.51959455865293</v>
       </c>
       <c r="N7">
-        <v>13.13864962838873</v>
+        <v>19.71205236309</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.01894195377517</v>
+        <v>18.22608437919397</v>
       </c>
       <c r="C8">
-        <v>12.84729060607553</v>
+        <v>7.783273482949669</v>
       </c>
       <c r="D8">
-        <v>4.290921827040459</v>
+        <v>7.635017003807467</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.06840897227424</v>
+        <v>38.36648737969195</v>
       </c>
       <c r="G8">
-        <v>35.44016698065353</v>
+        <v>44.52175937170151</v>
       </c>
       <c r="H8">
-        <v>11.58729030145296</v>
+        <v>18.15013589525657</v>
       </c>
       <c r="I8">
-        <v>17.74162187485547</v>
+        <v>27.82447781459025</v>
       </c>
       <c r="J8">
-        <v>6.079423417725178</v>
+        <v>10.110594357514</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.179599355729363</v>
+        <v>11.94585429812539</v>
       </c>
       <c r="M8">
-        <v>12.82327549711847</v>
+        <v>17.59860406780408</v>
       </c>
       <c r="N8">
-        <v>12.84846063679047</v>
+        <v>19.62599290910794</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.14036994126167</v>
+        <v>19.11163122843797</v>
       </c>
       <c r="C9">
-        <v>14.73497910124784</v>
+        <v>8.753917867268383</v>
       </c>
       <c r="D9">
-        <v>4.356188619258436</v>
+        <v>7.630277604794084</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.51371503790914</v>
+        <v>38.32404809456468</v>
       </c>
       <c r="G9">
-        <v>38.30586807014749</v>
+        <v>44.70495243350841</v>
       </c>
       <c r="H9">
-        <v>11.835883125751</v>
+        <v>18.0657670761172</v>
       </c>
       <c r="I9">
-        <v>17.83498875045969</v>
+        <v>27.63210144255013</v>
       </c>
       <c r="J9">
-        <v>5.995465387596353</v>
+        <v>10.08101905252032</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.41295609961549</v>
+        <v>11.93155368681622</v>
       </c>
       <c r="M9">
-        <v>14.09390990987501</v>
+        <v>17.7739736329611</v>
       </c>
       <c r="N9">
-        <v>12.30007612297324</v>
+        <v>19.47200083463956</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.27865617887319</v>
+        <v>19.75215066242401</v>
       </c>
       <c r="C10">
-        <v>15.99657906647789</v>
+        <v>9.396919833678108</v>
       </c>
       <c r="D10">
-        <v>4.4077379340729</v>
+        <v>7.628407531500603</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>29.67126093476268</v>
+        <v>38.33801910149151</v>
       </c>
       <c r="G10">
-        <v>40.49953034500815</v>
+        <v>44.90512168288185</v>
       </c>
       <c r="H10">
-        <v>12.06760746633715</v>
+        <v>18.02065962498726</v>
       </c>
       <c r="I10">
-        <v>17.99569631247095</v>
+        <v>27.51827439578037</v>
       </c>
       <c r="J10">
-        <v>5.936915123535885</v>
+        <v>10.06126554586531</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.595117131794842</v>
+        <v>11.92786133989788</v>
       </c>
       <c r="M10">
-        <v>14.98688001659946</v>
+        <v>17.91457198839376</v>
       </c>
       <c r="N10">
-        <v>11.90763680823832</v>
+        <v>19.36776833474834</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.20313055500894</v>
+        <v>20.03998900130408</v>
       </c>
       <c r="C11">
-        <v>16.5438937745593</v>
+        <v>9.673962298417948</v>
       </c>
       <c r="D11">
-        <v>4.432052804763771</v>
+        <v>7.627903724497561</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.21836306654487</v>
+        <v>38.35418599048349</v>
       </c>
       <c r="G11">
-        <v>41.51445805738865</v>
+        <v>45.01026572225778</v>
       </c>
       <c r="H11">
-        <v>12.18447037375313</v>
+        <v>18.0038186797379</v>
       </c>
       <c r="I11">
-        <v>18.09109403240655</v>
+        <v>27.47250261059583</v>
       </c>
       <c r="J11">
-        <v>5.910916562584903</v>
+        <v>10.05270397953147</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.680208145305587</v>
+        <v>11.92765144717368</v>
       </c>
       <c r="M11">
-        <v>15.3830901740819</v>
+        <v>17.98092441117813</v>
       </c>
       <c r="N11">
-        <v>11.73086554458665</v>
+        <v>19.32226293003585</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.54637573883381</v>
+        <v>20.14837152056531</v>
       </c>
       <c r="C12">
-        <v>16.74738261188327</v>
+        <v>9.776633461178916</v>
       </c>
       <c r="D12">
-        <v>4.441392440712125</v>
+        <v>7.627762561623705</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.42846880697627</v>
+        <v>38.3617173295039</v>
       </c>
       <c r="G12">
-        <v>41.90109633363443</v>
+        <v>45.05208784712324</v>
       </c>
       <c r="H12">
-        <v>12.23043187195289</v>
+        <v>17.99797139581544</v>
       </c>
       <c r="I12">
-        <v>18.13061079019436</v>
+        <v>27.45603699927273</v>
       </c>
       <c r="J12">
-        <v>5.901159421354773</v>
+        <v>10.04952265472814</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.712741498314026</v>
+        <v>11.9277823617949</v>
       </c>
       <c r="M12">
-        <v>15.5316106334473</v>
+        <v>18.00638000010568</v>
       </c>
       <c r="N12">
-        <v>11.66413332126094</v>
+        <v>19.3053043792977</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.47275391056485</v>
+        <v>20.12505842292421</v>
       </c>
       <c r="C13">
-        <v>16.70372420555463</v>
+        <v>9.754621159765991</v>
       </c>
       <c r="D13">
-        <v>4.439374971796709</v>
+        <v>7.6277907610567</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30.38308870238257</v>
+        <v>38.36003268023887</v>
       </c>
       <c r="G13">
-        <v>41.817726006343</v>
+        <v>45.04299181147493</v>
       </c>
       <c r="H13">
-        <v>12.22045630204239</v>
+        <v>17.99920712558079</v>
       </c>
       <c r="I13">
-        <v>18.12194634374949</v>
+        <v>27.45954454706808</v>
       </c>
       <c r="J13">
-        <v>5.903256942962766</v>
+        <v>10.05020511220982</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.705721144136603</v>
+        <v>11.92774482546286</v>
       </c>
       <c r="M13">
-        <v>15.49969253235074</v>
+        <v>18.00088327589088</v>
       </c>
       <c r="N13">
-        <v>11.67849682971577</v>
+        <v>19.30894457055488</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.23150586510477</v>
+        <v>20.04891862498037</v>
       </c>
       <c r="C14">
-        <v>16.56071007045709</v>
+        <v>9.68245405843637</v>
       </c>
       <c r="D14">
-        <v>4.432818486057077</v>
+        <v>7.627891118053536</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>30.23558995982868</v>
+        <v>38.35477736732265</v>
       </c>
       <c r="G14">
-        <v>41.54622142649148</v>
+        <v>45.01366636486209</v>
       </c>
       <c r="H14">
-        <v>12.18821707197494</v>
+        <v>18.00332699248131</v>
       </c>
       <c r="I14">
-        <v>18.09427606052689</v>
+        <v>27.47113057795682</v>
       </c>
       <c r="J14">
-        <v>5.910112094964743</v>
+        <v>10.05244103397491</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.682878492532762</v>
+        <v>11.9276580066459</v>
       </c>
       <c r="M14">
-        <v>15.39533979271397</v>
+        <v>17.98301214337311</v>
       </c>
       <c r="N14">
-        <v>11.72537155890582</v>
+        <v>19.3208622691325</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.08284781519404</v>
+        <v>20.00219755964453</v>
       </c>
       <c r="C15">
-        <v>16.47262099768128</v>
+        <v>9.637957684720288</v>
       </c>
       <c r="D15">
-        <v>4.42881990381002</v>
+        <v>7.627959043415851</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>30.14562381554282</v>
+        <v>38.35174180017947</v>
       </c>
       <c r="G15">
-        <v>41.38021408911845</v>
+        <v>44.99596434330768</v>
       </c>
       <c r="H15">
-        <v>12.16869386519692</v>
+        <v>18.00591958173976</v>
       </c>
       <c r="I15">
-        <v>18.0777744300962</v>
+        <v>27.47834037843204</v>
       </c>
       <c r="J15">
-        <v>5.914322419084852</v>
+        <v>10.05381850455998</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.668926999140585</v>
+        <v>11.92763219796633</v>
       </c>
       <c r="M15">
-        <v>15.33122137359999</v>
+        <v>17.97210800397536</v>
       </c>
       <c r="N15">
-        <v>11.7541092890822</v>
+        <v>19.32819776262649</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.21727754515987</v>
+        <v>19.73325928911864</v>
       </c>
       <c r="C16">
-        <v>15.96028028115458</v>
+        <v>9.378501903328125</v>
       </c>
       <c r="D16">
-        <v>4.406166942433188</v>
+        <v>7.62844741428624</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>29.63591752493065</v>
+        <v>38.33715988011105</v>
       </c>
       <c r="G16">
-        <v>40.43353193204209</v>
+        <v>44.89853215429679</v>
       </c>
       <c r="H16">
-        <v>12.06020588671521</v>
+        <v>18.0218343358045</v>
       </c>
       <c r="I16">
-        <v>17.98992634160727</v>
+        <v>27.52138686986541</v>
       </c>
       <c r="J16">
-        <v>5.938626694651896</v>
+        <v>10.06183358095</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.58960023935323</v>
+        <v>11.92790455233578</v>
       </c>
       <c r="M16">
-        <v>14.96077839963922</v>
+        <v>17.91028260959383</v>
       </c>
       <c r="N16">
-        <v>11.91922072744556</v>
+        <v>19.37078054663142</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.67399355695594</v>
+        <v>19.56729037405736</v>
       </c>
       <c r="C17">
-        <v>15.63920215903543</v>
+        <v>9.21536156875365</v>
       </c>
       <c r="D17">
-        <v>4.392496787682017</v>
+        <v>7.628835674521034</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>29.32846873117899</v>
+        <v>38.33072653614249</v>
       </c>
       <c r="G17">
-        <v>39.85701891064016</v>
+        <v>44.8423558296486</v>
       </c>
       <c r="H17">
-        <v>11.99662878058514</v>
+        <v>18.03254049447498</v>
       </c>
       <c r="I17">
-        <v>17.94187644227058</v>
+        <v>27.54933573133892</v>
       </c>
       <c r="J17">
-        <v>5.953697071796749</v>
+        <v>10.06685907472234</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.541499224902582</v>
+        <v>11.92844741853036</v>
       </c>
       <c r="M17">
-        <v>14.73090008239456</v>
+        <v>17.87295738339515</v>
       </c>
       <c r="N17">
-        <v>12.02092907772893</v>
+        <v>19.39739204921501</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.35696341528238</v>
+        <v>19.47150252851283</v>
       </c>
       <c r="C18">
-        <v>15.45201945039015</v>
+        <v>9.120072780698344</v>
       </c>
       <c r="D18">
-        <v>4.384714955337044</v>
+        <v>7.629091659316105</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>29.15356549403598</v>
+        <v>38.32794991276117</v>
       </c>
       <c r="G18">
-        <v>39.52703173082543</v>
+        <v>44.81137189992871</v>
       </c>
       <c r="H18">
-        <v>11.96113507696601</v>
+        <v>18.03904459423123</v>
       </c>
       <c r="I18">
-        <v>17.91632645902008</v>
+        <v>27.56597656515399</v>
       </c>
       <c r="J18">
-        <v>5.962425262737259</v>
+        <v>10.06978956886697</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.514042700493616</v>
+        <v>11.92889806422545</v>
       </c>
       <c r="M18">
-        <v>14.59774166220354</v>
+        <v>17.8517151095717</v>
       </c>
       <c r="N18">
-        <v>12.07959673500877</v>
+        <v>19.41287818608275</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.24883837120957</v>
+        <v>19.43901762138875</v>
       </c>
       <c r="C19">
-        <v>15.38821042812944</v>
+        <v>9.087560314118907</v>
       </c>
       <c r="D19">
-        <v>4.382093831930792</v>
+        <v>7.629183950150059</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>29.09467910374295</v>
+        <v>38.3271684649654</v>
       </c>
       <c r="G19">
-        <v>39.41558487225988</v>
+        <v>44.80110975346723</v>
       </c>
       <c r="H19">
-        <v>11.94930011958752</v>
+        <v>18.04130619716901</v>
       </c>
       <c r="I19">
-        <v>17.90802843732628</v>
+        <v>27.57170787449563</v>
       </c>
       <c r="J19">
-        <v>5.965390907095511</v>
+        <v>10.07078865591344</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.504782726244796</v>
+        <v>11.92907444406973</v>
       </c>
       <c r="M19">
-        <v>14.55249797206139</v>
+        <v>17.84456213586089</v>
       </c>
       <c r="N19">
-        <v>12.09949070593165</v>
+        <v>19.41815246657699</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.73229699229345</v>
+        <v>19.5849926772417</v>
       </c>
       <c r="C20">
-        <v>15.67364056222889</v>
+        <v>9.232878825295815</v>
       </c>
       <c r="D20">
-        <v>4.393943575405025</v>
+        <v>7.628790964494121</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>29.36099729282614</v>
+        <v>38.33131578823263</v>
       </c>
       <c r="G20">
-        <v>39.9182244534214</v>
+        <v>44.84819866293263</v>
       </c>
       <c r="H20">
-        <v>12.00328505195507</v>
+        <v>18.03136496720088</v>
       </c>
       <c r="I20">
-        <v>17.94677408271482</v>
+        <v>27.54630198876055</v>
       </c>
       <c r="J20">
-        <v>5.952086608529606</v>
+        <v>10.06631996829823</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.546598001805949</v>
+        <v>11.92837531197464</v>
       </c>
       <c r="M20">
-        <v>14.75546876815904</v>
+        <v>17.87690741146018</v>
       </c>
       <c r="N20">
-        <v>12.01008500631029</v>
+        <v>19.39454059982202</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.30255084496283</v>
+        <v>20.07130025876446</v>
       </c>
       <c r="C21">
-        <v>16.60281853725083</v>
+        <v>9.703712147039274</v>
       </c>
       <c r="D21">
-        <v>4.434740631945812</v>
+        <v>7.627860296281352</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30.27883452052323</v>
+        <v>38.35628275092533</v>
       </c>
       <c r="G21">
-        <v>41.62590718332221</v>
+        <v>45.02222567666699</v>
       </c>
       <c r="H21">
-        <v>12.19763967235149</v>
+        <v>18.00210249573741</v>
       </c>
       <c r="I21">
-        <v>18.10230996247541</v>
+        <v>27.46770392072796</v>
       </c>
       <c r="J21">
-        <v>5.908096212808688</v>
+        <v>10.0517826428642</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.689579550613801</v>
+        <v>11.92767780527738</v>
       </c>
       <c r="M21">
-        <v>15.42603237790644</v>
+        <v>17.98825250973579</v>
       </c>
       <c r="N21">
-        <v>11.71159806300566</v>
+        <v>19.31735434412694</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.28902761226679</v>
+        <v>20.38549689430263</v>
       </c>
       <c r="C22">
-        <v>17.18816364497513</v>
+        <v>9.998375221172163</v>
       </c>
       <c r="D22">
-        <v>4.462178374576169</v>
+        <v>7.627541137496709</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.89577072126091</v>
+        <v>38.38081294148723</v>
       </c>
       <c r="G22">
-        <v>42.75539236593264</v>
+        <v>45.14764578056702</v>
       </c>
       <c r="H22">
-        <v>12.3346457656315</v>
+        <v>17.98606749295764</v>
       </c>
       <c r="I22">
-        <v>18.22381707672229</v>
+        <v>27.42139144145867</v>
       </c>
       <c r="J22">
-        <v>5.87985681463123</v>
+        <v>10.04263565886466</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.784837136952028</v>
+        <v>11.92844780613189</v>
       </c>
       <c r="M22">
-        <v>15.85542700034078</v>
+        <v>18.06293557058724</v>
       </c>
       <c r="N22">
-        <v>11.51770425960302</v>
+        <v>19.26850138127604</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.76612926879742</v>
+        <v>20.2181704362537</v>
       </c>
       <c r="C23">
-        <v>16.87773914640234</v>
+        <v>9.842306403071815</v>
       </c>
       <c r="D23">
-        <v>4.447460617322094</v>
+        <v>7.62768511528022</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.56494216620156</v>
+        <v>38.36697007296026</v>
       </c>
       <c r="G23">
-        <v>42.15137182672984</v>
+        <v>45.07964486685501</v>
       </c>
       <c r="H23">
-        <v>12.26058928857507</v>
+        <v>17.99434266515523</v>
       </c>
       <c r="I23">
-        <v>18.15708830819658</v>
+        <v>27.44564566473298</v>
       </c>
       <c r="J23">
-        <v>5.894883184055322</v>
+        <v>10.04748527542155</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.733833268694264</v>
+        <v>11.92792500836188</v>
       </c>
       <c r="M23">
-        <v>15.627082058189</v>
+        <v>18.02290582793056</v>
       </c>
       <c r="N23">
-        <v>11.62109626059566</v>
+        <v>19.2944298414018</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.70595262195252</v>
+        <v>19.57699061052508</v>
       </c>
       <c r="C24">
-        <v>15.6580790335318</v>
+        <v>9.224963936068981</v>
       </c>
       <c r="D24">
-        <v>4.393289242407638</v>
+        <v>7.628811075825754</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>29.346285356059</v>
+        <v>38.33104651523873</v>
       </c>
       <c r="G24">
-        <v>39.89054887545893</v>
+        <v>44.84555302788429</v>
       </c>
       <c r="H24">
-        <v>12.00027246207227</v>
+        <v>18.03189533603986</v>
       </c>
       <c r="I24">
-        <v>17.94455341184696</v>
+        <v>27.5476717601473</v>
       </c>
       <c r="J24">
-        <v>5.952814499266491</v>
+        <v>10.06656356973623</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.544292229265624</v>
+        <v>11.92840747972325</v>
       </c>
       <c r="M24">
-        <v>14.74436436880738</v>
+        <v>17.87512092826463</v>
       </c>
       <c r="N24">
-        <v>12.01498700286315</v>
+        <v>19.39582915799028</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.30950118615178</v>
+        <v>18.87336022783753</v>
       </c>
       <c r="C25">
-        <v>14.24647587619802</v>
+        <v>8.503544599246766</v>
       </c>
       <c r="D25">
-        <v>4.337925598975682</v>
+        <v>7.631275602232594</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>28.105819674042</v>
+        <v>38.32760565344031</v>
       </c>
       <c r="G25">
-        <v>37.5142750917925</v>
+        <v>44.64383463080081</v>
       </c>
       <c r="H25">
-        <v>11.76028440087302</v>
+        <v>18.08563233722232</v>
       </c>
       <c r="I25">
-        <v>17.79432848565097</v>
+        <v>27.6793257155356</v>
       </c>
       <c r="J25">
-        <v>6.017613963353574</v>
+        <v>10.08867164608129</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.347908165331034</v>
+        <v>11.93422252493945</v>
       </c>
       <c r="M25">
-        <v>13.75681158783752</v>
+        <v>17.72441408604275</v>
       </c>
       <c r="N25">
-        <v>12.44642842264958</v>
+        <v>19.51208878190883</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.34907784742004</v>
+        <v>20.45769591421343</v>
       </c>
       <c r="C2">
-        <v>7.925370817544174</v>
+        <v>13.12275934368914</v>
       </c>
       <c r="D2">
-        <v>7.634174617249117</v>
+        <v>4.299549823475073</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>38.35541070808074</v>
+        <v>27.25694098995536</v>
       </c>
       <c r="G2">
-        <v>44.53944759411629</v>
+        <v>35.82495117236235</v>
       </c>
       <c r="H2">
-        <v>18.13653292117984</v>
+        <v>11.61626168474396</v>
       </c>
       <c r="I2">
-        <v>27.79472989641844</v>
+        <v>17.74471036015091</v>
       </c>
       <c r="J2">
-        <v>10.10627799649272</v>
+        <v>6.067445678400123</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.94308706683384</v>
+        <v>7.210562794610807</v>
       </c>
       <c r="M2">
-        <v>17.62141897037087</v>
+        <v>13.00296683528989</v>
       </c>
       <c r="N2">
-        <v>19.60367838360702</v>
+        <v>12.7713080385587</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.99215673354777</v>
+        <v>19.16165350050388</v>
       </c>
       <c r="C3">
-        <v>7.50481229608585</v>
+        <v>12.30799373895882</v>
       </c>
       <c r="D3">
-        <v>7.636820535097648</v>
+        <v>4.274926927452803</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.39313253122761</v>
+        <v>26.72222391806134</v>
       </c>
       <c r="G3">
-        <v>44.49636793870631</v>
+        <v>34.72192429075496</v>
       </c>
       <c r="H3">
-        <v>18.17807290345681</v>
+        <v>11.53775561027147</v>
       </c>
       <c r="I3">
-        <v>27.88440195884988</v>
+        <v>17.74559793058335</v>
       </c>
       <c r="J3">
-        <v>10.11904522003918</v>
+        <v>6.102602004876542</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.95196679462207</v>
+        <v>7.122171920590715</v>
       </c>
       <c r="M3">
-        <v>17.55681898551189</v>
+        <v>12.47797317862282</v>
       </c>
       <c r="N3">
-        <v>19.6695188546648</v>
+        <v>12.99669257130677</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.77301054684395</v>
+        <v>18.32707967855352</v>
       </c>
       <c r="C4">
-        <v>7.232700469596563</v>
+        <v>11.78139372340528</v>
       </c>
       <c r="D4">
-        <v>7.638782804515963</v>
+        <v>4.260461526238318</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>38.42558137503812</v>
+        <v>26.41397199481902</v>
       </c>
       <c r="G4">
-        <v>44.48357837068283</v>
+        <v>34.06684943245574</v>
       </c>
       <c r="H4">
-        <v>18.20704362426381</v>
+        <v>11.49852193280972</v>
       </c>
       <c r="I4">
-        <v>27.94509425145359</v>
+        <v>17.76199429533593</v>
       </c>
       <c r="J4">
-        <v>10.12729851209699</v>
+        <v>6.124890707503716</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.95883981648087</v>
+        <v>7.070266512697505</v>
       </c>
       <c r="M4">
-        <v>17.51979170773249</v>
+        <v>12.1497388857558</v>
       </c>
       <c r="N4">
-        <v>19.71181545891742</v>
+        <v>13.13786690427877</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.6838324124122</v>
+        <v>17.97736659886359</v>
       </c>
       <c r="C5">
-        <v>7.118374721106981</v>
+        <v>11.56018229265248</v>
       </c>
       <c r="D5">
-        <v>7.639667615440667</v>
+        <v>4.254727100824372</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>38.44113582737713</v>
+        <v>26.29340089138488</v>
       </c>
       <c r="G5">
-        <v>44.48180203845082</v>
+        <v>33.80571951244082</v>
       </c>
       <c r="H5">
-        <v>18.21971926589356</v>
+        <v>11.48471995517913</v>
       </c>
       <c r="I5">
-        <v>27.97124032312935</v>
+        <v>17.77248867524114</v>
       </c>
       <c r="J5">
-        <v>10.13076624300374</v>
+        <v>6.134152903141463</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.96199854346833</v>
+        <v>7.04971775707831</v>
       </c>
       <c r="M5">
-        <v>17.50537657916237</v>
+        <v>12.01468691991789</v>
       </c>
       <c r="N5">
-        <v>19.72952347320363</v>
+        <v>13.19612742875696</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.66903572574697</v>
+        <v>17.91872115369132</v>
       </c>
       <c r="C6">
-        <v>7.099185185652406</v>
+        <v>11.52305100524492</v>
       </c>
       <c r="D6">
-        <v>7.639819689343589</v>
+        <v>4.253784480162923</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>38.44385929593421</v>
+        <v>26.27368443949256</v>
       </c>
       <c r="G6">
-        <v>44.4817145201485</v>
+        <v>33.76271732734253</v>
       </c>
       <c r="H6">
-        <v>18.2218765375867</v>
+        <v>11.48255810032861</v>
       </c>
       <c r="I6">
-        <v>27.97566713748842</v>
+        <v>17.77445649973624</v>
       </c>
       <c r="J6">
-        <v>10.13134837433686</v>
+        <v>6.135701794356438</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.9625446823374</v>
+        <v>7.046342292563399</v>
       </c>
       <c r="M6">
-        <v>17.50302394934485</v>
+        <v>11.99218937821261</v>
       </c>
       <c r="N6">
-        <v>19.7324924156231</v>
+        <v>13.20584653329465</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.77180718419554</v>
+        <v>18.32240204769891</v>
       </c>
       <c r="C7">
-        <v>7.231172472738098</v>
+        <v>11.77843716815369</v>
       </c>
       <c r="D7">
-        <v>7.638794392177664</v>
+        <v>4.260383545468453</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>38.42578171479704</v>
+        <v>26.41232552129854</v>
       </c>
       <c r="G7">
-        <v>44.4835405063353</v>
+        <v>34.06330387419713</v>
       </c>
       <c r="H7">
-        <v>18.20721105251037</v>
+        <v>11.49832703680521</v>
       </c>
       <c r="I7">
-        <v>27.94544114758303</v>
+        <v>17.76212061650699</v>
       </c>
       <c r="J7">
-        <v>10.12734485582313</v>
+        <v>6.125014890944832</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.95888096619586</v>
+        <v>7.069986933161092</v>
       </c>
       <c r="M7">
-        <v>17.51959455865293</v>
+        <v>12.14792250388704</v>
       </c>
       <c r="N7">
-        <v>19.71205236309</v>
+        <v>13.13864962838869</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.22608437919397</v>
+        <v>20.0189419537752</v>
       </c>
       <c r="C8">
-        <v>7.783273482949669</v>
+        <v>12.84729060607523</v>
       </c>
       <c r="D8">
-        <v>7.635017003807467</v>
+        <v>4.290921827040402</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.36648737969195</v>
+        <v>27.06840897227436</v>
       </c>
       <c r="G8">
-        <v>44.52175937170151</v>
+        <v>35.44016698065376</v>
       </c>
       <c r="H8">
-        <v>18.15013589525657</v>
+        <v>11.58729030145302</v>
       </c>
       <c r="I8">
-        <v>27.82447781459025</v>
+        <v>17.74162187485554</v>
       </c>
       <c r="J8">
-        <v>10.110594357514</v>
+        <v>6.079423417725178</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.94585429812539</v>
+        <v>7.179599355729402</v>
       </c>
       <c r="M8">
-        <v>17.59860406780408</v>
+        <v>12.8232754971185</v>
       </c>
       <c r="N8">
-        <v>19.62599290910794</v>
+        <v>12.84846063679047</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.11163122843797</v>
+        <v>23.14036994126169</v>
       </c>
       <c r="C9">
-        <v>8.753917867268383</v>
+        <v>14.73497910124791</v>
       </c>
       <c r="D9">
-        <v>7.630277604794084</v>
+        <v>4.356188619258304</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>38.32404809456468</v>
+        <v>28.51371503790905</v>
       </c>
       <c r="G9">
-        <v>44.70495243350841</v>
+        <v>38.30586807014746</v>
       </c>
       <c r="H9">
-        <v>18.0657670761172</v>
+        <v>11.835883125751</v>
       </c>
       <c r="I9">
-        <v>27.63210144255013</v>
+        <v>17.83498875045968</v>
       </c>
       <c r="J9">
-        <v>10.08101905252032</v>
+        <v>5.995465387596286</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.93155368681622</v>
+        <v>7.41295609961534</v>
       </c>
       <c r="M9">
-        <v>17.7739736329611</v>
+        <v>14.09390990987497</v>
       </c>
       <c r="N9">
-        <v>19.47200083463956</v>
+        <v>12.30007612297317</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.75215066242401</v>
+        <v>25.27865617887323</v>
       </c>
       <c r="C10">
-        <v>9.396919833678108</v>
+        <v>15.99657906647786</v>
       </c>
       <c r="D10">
-        <v>7.628407531500603</v>
+        <v>4.407737934073013</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>38.33801910149151</v>
+        <v>29.67126093476266</v>
       </c>
       <c r="G10">
-        <v>44.90512168288185</v>
+        <v>40.49953034500816</v>
       </c>
       <c r="H10">
-        <v>18.02065962498726</v>
+        <v>12.06760746633704</v>
       </c>
       <c r="I10">
-        <v>27.51827439578037</v>
+        <v>17.9956963124709</v>
       </c>
       <c r="J10">
-        <v>10.06126554586531</v>
+        <v>5.936915123535918</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.92786133989788</v>
+        <v>7.595117131794916</v>
       </c>
       <c r="M10">
-        <v>17.91457198839376</v>
+        <v>14.98688001659946</v>
       </c>
       <c r="N10">
-        <v>19.36776833474834</v>
+        <v>11.90763680823828</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.03998900130408</v>
+        <v>26.20313055500895</v>
       </c>
       <c r="C11">
-        <v>9.673962298417948</v>
+        <v>16.54389377455939</v>
       </c>
       <c r="D11">
-        <v>7.627903724497561</v>
+        <v>4.432052804763713</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>38.35418599048349</v>
+        <v>30.21836306654492</v>
       </c>
       <c r="G11">
-        <v>45.01026572225778</v>
+        <v>41.51445805738872</v>
       </c>
       <c r="H11">
-        <v>18.0038186797379</v>
+        <v>12.18447037375315</v>
       </c>
       <c r="I11">
-        <v>27.47250261059583</v>
+        <v>18.09109403240658</v>
       </c>
       <c r="J11">
-        <v>10.05270397953147</v>
+        <v>5.910916562584903</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.92765144717368</v>
+        <v>7.680208145305571</v>
       </c>
       <c r="M11">
-        <v>17.98092441117813</v>
+        <v>15.38309017408191</v>
       </c>
       <c r="N11">
-        <v>19.32226293003585</v>
+        <v>11.73086554458665</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.14837152056531</v>
+        <v>26.54637573883382</v>
       </c>
       <c r="C12">
-        <v>9.776633461178916</v>
+        <v>16.74738261188286</v>
       </c>
       <c r="D12">
-        <v>7.627762561623705</v>
+        <v>4.441392440711907</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>38.3617173295039</v>
+        <v>30.42846880697635</v>
       </c>
       <c r="G12">
-        <v>45.05208784712324</v>
+        <v>41.90109633363453</v>
       </c>
       <c r="H12">
-        <v>17.99797139581544</v>
+        <v>12.23043187195295</v>
       </c>
       <c r="I12">
-        <v>27.45603699927273</v>
+        <v>18.13061079019437</v>
       </c>
       <c r="J12">
-        <v>10.04952265472814</v>
+        <v>5.901159421354772</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.9277823617949</v>
+        <v>7.712741498314079</v>
       </c>
       <c r="M12">
-        <v>18.00638000010568</v>
+        <v>15.5316106334473</v>
       </c>
       <c r="N12">
-        <v>19.3053043792977</v>
+        <v>11.66413332126101</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.12505842292421</v>
+        <v>26.47275391056485</v>
       </c>
       <c r="C13">
-        <v>9.754621159765991</v>
+        <v>16.70372420555481</v>
       </c>
       <c r="D13">
-        <v>7.6277907610567</v>
+        <v>4.439374971796759</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>38.36003268023887</v>
+        <v>30.38308870238256</v>
       </c>
       <c r="G13">
-        <v>45.04299181147493</v>
+        <v>41.81772600634298</v>
       </c>
       <c r="H13">
-        <v>17.99920712558079</v>
+        <v>12.22045630204236</v>
       </c>
       <c r="I13">
-        <v>27.45954454706808</v>
+        <v>18.1219463437495</v>
       </c>
       <c r="J13">
-        <v>10.05020511220982</v>
+        <v>5.903256942962733</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.92774482546286</v>
+        <v>7.705721144136514</v>
       </c>
       <c r="M13">
-        <v>18.00088327589088</v>
+        <v>15.49969253235074</v>
       </c>
       <c r="N13">
-        <v>19.30894457055488</v>
+        <v>11.67849682971573</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.04891862498037</v>
+        <v>26.23150586510486</v>
       </c>
       <c r="C14">
-        <v>9.68245405843637</v>
+        <v>16.56071007045709</v>
       </c>
       <c r="D14">
-        <v>7.627891118053536</v>
+        <v>4.432818486056847</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>38.35477736732265</v>
+        <v>30.23558995982859</v>
       </c>
       <c r="G14">
-        <v>45.01366636486209</v>
+        <v>41.54622142649147</v>
       </c>
       <c r="H14">
-        <v>18.00332699248131</v>
+        <v>12.18821707197493</v>
       </c>
       <c r="I14">
-        <v>27.47113057795682</v>
+        <v>18.09427606052679</v>
       </c>
       <c r="J14">
-        <v>10.05244103397491</v>
+        <v>5.910112094964673</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.9276580066459</v>
+        <v>7.682878492532668</v>
       </c>
       <c r="M14">
-        <v>17.98301214337311</v>
+        <v>15.39533979271394</v>
       </c>
       <c r="N14">
-        <v>19.3208622691325</v>
+        <v>11.72537155890572</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.00219755964453</v>
+        <v>26.08284781519397</v>
       </c>
       <c r="C15">
-        <v>9.637957684720288</v>
+        <v>16.47262099768118</v>
       </c>
       <c r="D15">
-        <v>7.627959043415851</v>
+        <v>4.428819903809845</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>38.35174180017947</v>
+        <v>30.14562381554289</v>
       </c>
       <c r="G15">
-        <v>44.99596434330768</v>
+        <v>41.38021408911855</v>
       </c>
       <c r="H15">
-        <v>18.00591958173976</v>
+        <v>12.16869386519703</v>
       </c>
       <c r="I15">
-        <v>27.47834037843204</v>
+        <v>18.07777443009633</v>
       </c>
       <c r="J15">
-        <v>10.05381850455998</v>
+        <v>5.914322419084852</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.92763219796633</v>
+        <v>7.668926999140542</v>
       </c>
       <c r="M15">
-        <v>17.97210800397536</v>
+        <v>15.3312213736</v>
       </c>
       <c r="N15">
-        <v>19.32819776262649</v>
+        <v>11.7541092890823</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.73325928911864</v>
+        <v>25.21727754515987</v>
       </c>
       <c r="C16">
-        <v>9.378501903328125</v>
+        <v>15.96028028115452</v>
       </c>
       <c r="D16">
-        <v>7.62844741428624</v>
+        <v>4.4061669424333</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>38.33715988011105</v>
+        <v>29.63591752493071</v>
       </c>
       <c r="G16">
-        <v>44.89853215429679</v>
+        <v>40.43353193204218</v>
       </c>
       <c r="H16">
-        <v>18.0218343358045</v>
+        <v>12.06020588671521</v>
       </c>
       <c r="I16">
-        <v>27.52138686986541</v>
+        <v>17.98992634160729</v>
       </c>
       <c r="J16">
-        <v>10.06183358095</v>
+        <v>5.938626694651929</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.92790455233578</v>
+        <v>7.589600239353272</v>
       </c>
       <c r="M16">
-        <v>17.91028260959383</v>
+        <v>14.96077839963922</v>
       </c>
       <c r="N16">
-        <v>19.37078054663142</v>
+        <v>11.91922072744556</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.56729037405736</v>
+        <v>24.67399355695596</v>
       </c>
       <c r="C17">
-        <v>9.21536156875365</v>
+        <v>15.63920215903556</v>
       </c>
       <c r="D17">
-        <v>7.628835674521034</v>
+        <v>4.392496787681707</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>38.33072653614249</v>
+        <v>29.32846873117892</v>
       </c>
       <c r="G17">
-        <v>44.8423558296486</v>
+        <v>39.85701891064012</v>
       </c>
       <c r="H17">
-        <v>18.03254049447498</v>
+        <v>11.99662878058516</v>
       </c>
       <c r="I17">
-        <v>27.54933573133892</v>
+        <v>17.94187644227059</v>
       </c>
       <c r="J17">
-        <v>10.06685907472234</v>
+        <v>5.953697071796849</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.92844741853036</v>
+        <v>7.541499224902494</v>
       </c>
       <c r="M17">
-        <v>17.87295738339515</v>
+        <v>14.73090008239454</v>
       </c>
       <c r="N17">
-        <v>19.39739204921501</v>
+        <v>12.02092907772889</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.47150252851283</v>
+        <v>24.35696341528242</v>
       </c>
       <c r="C18">
-        <v>9.120072780698344</v>
+        <v>15.4520194503902</v>
       </c>
       <c r="D18">
-        <v>7.629091659316105</v>
+        <v>4.384714955337028</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>38.32794991276117</v>
+        <v>29.15356549403594</v>
       </c>
       <c r="G18">
-        <v>44.81137189992871</v>
+        <v>39.52703173082546</v>
       </c>
       <c r="H18">
-        <v>18.03904459423123</v>
+        <v>11.96113507696595</v>
       </c>
       <c r="I18">
-        <v>27.56597656515399</v>
+        <v>17.91632645902006</v>
       </c>
       <c r="J18">
-        <v>10.06978956886697</v>
+        <v>5.962425262737192</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.92889806422545</v>
+        <v>7.514042700493532</v>
       </c>
       <c r="M18">
-        <v>17.8517151095717</v>
+        <v>14.59774166220352</v>
       </c>
       <c r="N18">
-        <v>19.41287818608275</v>
+        <v>12.0795967350087</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.43901762138875</v>
+        <v>24.24883837120959</v>
       </c>
       <c r="C19">
-        <v>9.087560314118907</v>
+        <v>15.38821042812978</v>
       </c>
       <c r="D19">
-        <v>7.629183950150059</v>
+        <v>4.382093831930963</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>38.3271684649654</v>
+        <v>29.09467910374295</v>
       </c>
       <c r="G19">
-        <v>44.80110975346723</v>
+        <v>39.41558487225986</v>
       </c>
       <c r="H19">
-        <v>18.04130619716901</v>
+        <v>11.94930011958754</v>
       </c>
       <c r="I19">
-        <v>27.57170787449563</v>
+        <v>17.90802843732629</v>
       </c>
       <c r="J19">
-        <v>10.07078865591344</v>
+        <v>5.965390907095478</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.92907444406973</v>
+        <v>7.504782726244848</v>
       </c>
       <c r="M19">
-        <v>17.84456213586089</v>
+        <v>14.5524979720614</v>
       </c>
       <c r="N19">
-        <v>19.41815246657699</v>
+        <v>12.09949070593162</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.5849926772417</v>
+        <v>24.73229699229345</v>
       </c>
       <c r="C20">
-        <v>9.232878825295815</v>
+        <v>15.67364056222897</v>
       </c>
       <c r="D20">
-        <v>7.628790964494121</v>
+        <v>4.393943575405029</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>38.33131578823263</v>
+        <v>29.36099729282607</v>
       </c>
       <c r="G20">
-        <v>44.84819866293263</v>
+        <v>39.91822445342138</v>
       </c>
       <c r="H20">
-        <v>18.03136496720088</v>
+        <v>12.00328505195502</v>
       </c>
       <c r="I20">
-        <v>27.54630198876055</v>
+        <v>17.94677408271476</v>
       </c>
       <c r="J20">
-        <v>10.06631996829823</v>
+        <v>5.952086608529672</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.92837531197464</v>
+        <v>7.546598001805974</v>
       </c>
       <c r="M20">
-        <v>17.87690741146018</v>
+        <v>14.75546876815904</v>
       </c>
       <c r="N20">
-        <v>19.39454059982202</v>
+        <v>12.01008500631018</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.07130025876446</v>
+        <v>26.30255084496294</v>
       </c>
       <c r="C21">
-        <v>9.703712147039274</v>
+        <v>16.60281853725082</v>
       </c>
       <c r="D21">
-        <v>7.627860296281352</v>
+        <v>4.434740631945983</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>38.35628275092533</v>
+        <v>30.27883452052325</v>
       </c>
       <c r="G21">
-        <v>45.02222567666699</v>
+        <v>41.6259071833222</v>
       </c>
       <c r="H21">
-        <v>18.00210249573741</v>
+        <v>12.19763967235151</v>
       </c>
       <c r="I21">
-        <v>27.46770392072796</v>
+        <v>18.10230996247535</v>
       </c>
       <c r="J21">
-        <v>10.0517826428642</v>
+        <v>5.908096212808719</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.92767780527738</v>
+        <v>7.689579550613875</v>
       </c>
       <c r="M21">
-        <v>17.98825250973579</v>
+        <v>15.42603237790644</v>
       </c>
       <c r="N21">
-        <v>19.31735434412694</v>
+        <v>11.71159806300566</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.38549689430263</v>
+        <v>27.28902761226682</v>
       </c>
       <c r="C22">
-        <v>9.998375221172163</v>
+        <v>17.18816364497538</v>
       </c>
       <c r="D22">
-        <v>7.627541137496709</v>
+        <v>4.462178374575996</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>38.38081294148723</v>
+        <v>30.89577072126088</v>
       </c>
       <c r="G22">
-        <v>45.14764578056702</v>
+        <v>42.75539236593272</v>
       </c>
       <c r="H22">
-        <v>17.98606749295764</v>
+        <v>12.33464576563144</v>
       </c>
       <c r="I22">
-        <v>27.42139144145867</v>
+        <v>18.22381707672232</v>
       </c>
       <c r="J22">
-        <v>10.04263565886466</v>
+        <v>5.879856814631261</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.92844780613189</v>
+        <v>7.784837136951913</v>
       </c>
       <c r="M22">
-        <v>18.06293557058724</v>
+        <v>15.85542700034078</v>
       </c>
       <c r="N22">
-        <v>19.26850138127604</v>
+        <v>11.51770425960291</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.2181704362537</v>
+        <v>26.76612926879741</v>
       </c>
       <c r="C23">
-        <v>9.842306403071815</v>
+        <v>16.87773914640239</v>
       </c>
       <c r="D23">
-        <v>7.62768511528022</v>
+        <v>4.447460617321973</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>38.36697007296026</v>
+        <v>30.56494216620159</v>
       </c>
       <c r="G23">
-        <v>45.07964486685501</v>
+        <v>42.15137182672989</v>
       </c>
       <c r="H23">
-        <v>17.99434266515523</v>
+        <v>12.26058928857512</v>
       </c>
       <c r="I23">
-        <v>27.44564566473298</v>
+        <v>18.15708830819667</v>
       </c>
       <c r="J23">
-        <v>10.04748527542155</v>
+        <v>5.894883184055291</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.92792500836188</v>
+        <v>7.733833268694203</v>
       </c>
       <c r="M23">
-        <v>18.02290582793056</v>
+        <v>15.627082058189</v>
       </c>
       <c r="N23">
-        <v>19.2944298414018</v>
+        <v>11.62109626059566</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.57699061052508</v>
+        <v>24.70595262195253</v>
       </c>
       <c r="C24">
-        <v>9.224963936068981</v>
+        <v>15.65807903353178</v>
       </c>
       <c r="D24">
-        <v>7.628811075825754</v>
+        <v>4.393289242407697</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>38.33104651523873</v>
+        <v>29.346285356059</v>
       </c>
       <c r="G24">
-        <v>44.84555302788429</v>
+        <v>39.89054887545896</v>
       </c>
       <c r="H24">
-        <v>18.03189533603986</v>
+        <v>12.00027246207226</v>
       </c>
       <c r="I24">
-        <v>27.5476717601473</v>
+        <v>17.94455341184699</v>
       </c>
       <c r="J24">
-        <v>10.06656356973623</v>
+        <v>5.952814499266593</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.92840747972325</v>
+        <v>7.54429222926564</v>
       </c>
       <c r="M24">
-        <v>17.87512092826463</v>
+        <v>14.74436436880739</v>
       </c>
       <c r="N24">
-        <v>19.39582915799028</v>
+        <v>12.01498700286318</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.87336022783753</v>
+        <v>22.30950118615183</v>
       </c>
       <c r="C25">
-        <v>8.503544599246766</v>
+        <v>14.24647587619796</v>
       </c>
       <c r="D25">
-        <v>7.631275602232594</v>
+        <v>4.337925598975744</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.32760565344031</v>
+        <v>28.10581967404196</v>
       </c>
       <c r="G25">
-        <v>44.64383463080081</v>
+        <v>37.51427509179256</v>
       </c>
       <c r="H25">
-        <v>18.08563233722232</v>
+        <v>11.76028440087292</v>
       </c>
       <c r="I25">
-        <v>27.6793257155356</v>
+        <v>17.79432848565089</v>
       </c>
       <c r="J25">
-        <v>10.08867164608129</v>
+        <v>6.017613963353473</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.93422252493945</v>
+        <v>7.347908165330979</v>
       </c>
       <c r="M25">
-        <v>17.72441408604275</v>
+        <v>13.75681158783749</v>
       </c>
       <c r="N25">
-        <v>19.51208878190883</v>
+        <v>12.44642842264958</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.45769591421343</v>
+        <v>13.5446357541703</v>
       </c>
       <c r="C2">
-        <v>13.12275934368914</v>
+        <v>6.819531287606575</v>
       </c>
       <c r="D2">
-        <v>4.299549823475073</v>
+        <v>4.408445833627495</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.25694098995536</v>
+        <v>27.66624540578361</v>
       </c>
       <c r="G2">
-        <v>35.82495117236235</v>
+        <v>34.76518942595494</v>
       </c>
       <c r="H2">
-        <v>11.61626168474396</v>
+        <v>3.709390045010599</v>
       </c>
       <c r="I2">
-        <v>17.74471036015091</v>
+        <v>4.12708660565181</v>
       </c>
       <c r="J2">
-        <v>6.067445678400123</v>
+        <v>12.10090183728475</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.65042435599436</v>
       </c>
       <c r="L2">
-        <v>7.210562794610807</v>
+        <v>6.014547261634185</v>
       </c>
       <c r="M2">
-        <v>13.00296683528989</v>
+        <v>10.85545528333468</v>
       </c>
       <c r="N2">
-        <v>12.7713080385587</v>
+        <v>6.783933814497336</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>10.4873749503041</v>
+      </c>
+      <c r="P2">
+        <v>14.64667169750497</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.16165350050388</v>
+        <v>12.7500510300305</v>
       </c>
       <c r="C3">
-        <v>12.30799373895882</v>
+        <v>6.458779891743059</v>
       </c>
       <c r="D3">
-        <v>4.274926927452803</v>
+        <v>4.262050743943126</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.72222391806134</v>
+        <v>27.28658208591555</v>
       </c>
       <c r="G3">
-        <v>34.72192429075496</v>
+        <v>34.19596392005658</v>
       </c>
       <c r="H3">
-        <v>11.53775561027147</v>
+        <v>3.914589399121983</v>
       </c>
       <c r="I3">
-        <v>17.74559793058335</v>
+        <v>4.293483772994324</v>
       </c>
       <c r="J3">
-        <v>6.102602004876542</v>
+        <v>12.06865272889589</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.57666485705691</v>
       </c>
       <c r="L3">
-        <v>7.122171920590715</v>
+        <v>5.959560757789848</v>
       </c>
       <c r="M3">
-        <v>12.47797317862282</v>
+        <v>10.15971146710637</v>
       </c>
       <c r="N3">
-        <v>12.99669257130677</v>
+        <v>6.633000310385366</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>10.13210044802853</v>
+      </c>
+      <c r="P3">
+        <v>14.78156908982638</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.32707967855352</v>
+        <v>12.23563350612979</v>
       </c>
       <c r="C4">
-        <v>11.78139372340528</v>
+        <v>6.229197837035589</v>
       </c>
       <c r="D4">
-        <v>4.260461526238318</v>
+        <v>4.170382153808535</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.41397199481902</v>
+        <v>27.05726889035399</v>
       </c>
       <c r="G4">
-        <v>34.06684943245574</v>
+        <v>33.851073083492</v>
       </c>
       <c r="H4">
-        <v>11.49852193280972</v>
+        <v>4.045283102946367</v>
       </c>
       <c r="I4">
-        <v>17.76199429533593</v>
+        <v>4.400082765238412</v>
       </c>
       <c r="J4">
-        <v>6.124890707503716</v>
+        <v>12.05143393244357</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>19.53413927878714</v>
       </c>
       <c r="L4">
-        <v>7.070266512697505</v>
+        <v>5.924476425604439</v>
       </c>
       <c r="M4">
-        <v>12.1497388857558</v>
+        <v>9.745147197686979</v>
       </c>
       <c r="N4">
-        <v>13.13786690427877</v>
+        <v>6.539170139567334</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.908295316382521</v>
+      </c>
+      <c r="P4">
+        <v>14.86559378878831</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.97736659886359</v>
+        <v>12.01427320207777</v>
       </c>
       <c r="C5">
-        <v>11.56018229265248</v>
+        <v>6.138563258014972</v>
       </c>
       <c r="D5">
-        <v>4.254727100824372</v>
+        <v>4.133734828948148</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.29340089138488</v>
+        <v>26.95659280941761</v>
       </c>
       <c r="G5">
-        <v>33.80571951244082</v>
+        <v>33.69743924205071</v>
       </c>
       <c r="H5">
-        <v>11.48471995517913</v>
+        <v>4.100101919809783</v>
       </c>
       <c r="I5">
-        <v>17.77248867524114</v>
+        <v>4.447039342344326</v>
       </c>
       <c r="J5">
-        <v>6.134152903141463</v>
+        <v>12.04247424513675</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>19.51141290993245</v>
       </c>
       <c r="L5">
-        <v>7.04971775707831</v>
+        <v>5.909406159950896</v>
       </c>
       <c r="M5">
-        <v>12.01468691991789</v>
+        <v>9.581991717041044</v>
       </c>
       <c r="N5">
-        <v>13.19612742875696</v>
+        <v>6.501660780334562</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.81488431795699</v>
+      </c>
+      <c r="P5">
+        <v>14.89884782923235</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.91872115369132</v>
+        <v>11.97079013689023</v>
       </c>
       <c r="C6">
-        <v>11.52305100524492</v>
+        <v>6.129437004116031</v>
       </c>
       <c r="D6">
-        <v>4.253784480162923</v>
+        <v>4.128990171789503</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.27368443949256</v>
+        <v>26.92985271092783</v>
       </c>
       <c r="G6">
-        <v>33.76271732734253</v>
+        <v>33.65445611766537</v>
       </c>
       <c r="H6">
-        <v>11.48255810032861</v>
+        <v>4.109719625478677</v>
       </c>
       <c r="I6">
-        <v>17.77445649973624</v>
+        <v>4.457952560493877</v>
       </c>
       <c r="J6">
-        <v>6.135701794356438</v>
+        <v>12.03786647977134</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>19.50024172086533</v>
       </c>
       <c r="L6">
-        <v>7.046342292563399</v>
+        <v>5.906350025404701</v>
       </c>
       <c r="M6">
-        <v>11.99218937821261</v>
+        <v>9.553507837071006</v>
       </c>
       <c r="N6">
-        <v>13.20584653329465</v>
+        <v>6.496626416599895</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.798198859571974</v>
+      </c>
+      <c r="P6">
+        <v>14.90280566138553</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.32240204769891</v>
+        <v>12.21573412060914</v>
       </c>
       <c r="C7">
-        <v>11.77843716815369</v>
+        <v>6.244193916570151</v>
       </c>
       <c r="D7">
-        <v>4.260383545468453</v>
+        <v>4.173569280892181</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.41232552129854</v>
+        <v>27.02851494921298</v>
       </c>
       <c r="G7">
-        <v>34.06330387419713</v>
+        <v>33.80135028516294</v>
       </c>
       <c r="H7">
-        <v>11.49832703680521</v>
+        <v>4.047206282321523</v>
       </c>
       <c r="I7">
-        <v>17.76212061650699</v>
+        <v>4.408780734694652</v>
       </c>
       <c r="J7">
-        <v>6.125014890944832</v>
+        <v>12.0427114519638</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>19.51357095268484</v>
       </c>
       <c r="L7">
-        <v>7.069986933161092</v>
+        <v>5.92283606225254</v>
       </c>
       <c r="M7">
-        <v>12.14792250388704</v>
+        <v>9.739891234532983</v>
       </c>
       <c r="N7">
-        <v>13.13864962838869</v>
+        <v>6.541944965324703</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.904071292042534</v>
+      </c>
+      <c r="P7">
+        <v>14.86176681552853</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.0189419537752</v>
+        <v>13.25535714165852</v>
       </c>
       <c r="C8">
-        <v>12.84729060607523</v>
+        <v>6.717017126628918</v>
       </c>
       <c r="D8">
-        <v>4.290921827040402</v>
+        <v>4.363031366623367</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.06840897227436</v>
+        <v>27.49909144396817</v>
       </c>
       <c r="G8">
-        <v>35.44016698065376</v>
+        <v>34.50641350620974</v>
       </c>
       <c r="H8">
-        <v>11.58729030145302</v>
+        <v>3.780666798470492</v>
       </c>
       <c r="I8">
-        <v>17.74162187485554</v>
+        <v>4.193771509203865</v>
       </c>
       <c r="J8">
-        <v>6.079423417725178</v>
+        <v>12.07799002100442</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.59790056050022</v>
       </c>
       <c r="L8">
-        <v>7.179599355729402</v>
+        <v>5.994034424565422</v>
       </c>
       <c r="M8">
-        <v>12.8232754971185</v>
+        <v>10.61674250952234</v>
       </c>
       <c r="N8">
-        <v>12.84846063679047</v>
+        <v>6.736392478895098</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>10.3623350153024</v>
+      </c>
+      <c r="P8">
+        <v>14.68750283638939</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.14036994126169</v>
+        <v>15.10688490154302</v>
       </c>
       <c r="C9">
-        <v>14.73497910124791</v>
+        <v>7.553032265799555</v>
       </c>
       <c r="D9">
-        <v>4.356188619258304</v>
+        <v>4.712562265851912</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.51371503790905</v>
+        <v>28.49701408453686</v>
       </c>
       <c r="G9">
-        <v>38.30586807014746</v>
+        <v>36.00389536944327</v>
       </c>
       <c r="H9">
-        <v>11.835883125751</v>
+        <v>3.292577100410801</v>
       </c>
       <c r="I9">
-        <v>17.83498875045968</v>
+        <v>3.793550579651185</v>
       </c>
       <c r="J9">
-        <v>5.995465387596286</v>
+        <v>12.18325746075526</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.82125452685342</v>
       </c>
       <c r="L9">
-        <v>7.41295609961534</v>
+        <v>6.125779770365606</v>
       </c>
       <c r="M9">
-        <v>14.09390990987497</v>
+        <v>12.21650819154219</v>
       </c>
       <c r="N9">
-        <v>12.30007612297317</v>
+        <v>7.101542611611894</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>11.21662233493745</v>
+      </c>
+      <c r="P9">
+        <v>14.36202262393154</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.27865617887323</v>
+        <v>16.28574833392322</v>
       </c>
       <c r="C10">
-        <v>15.99657906647786</v>
+        <v>8.155561019618595</v>
       </c>
       <c r="D10">
-        <v>4.407737934073013</v>
+        <v>4.926184942843664</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>29.67126093476266</v>
+        <v>29.08463365827703</v>
       </c>
       <c r="G10">
-        <v>40.49953034500816</v>
+        <v>36.89166949034901</v>
       </c>
       <c r="H10">
-        <v>12.06760746633704</v>
+        <v>2.98155187265389</v>
       </c>
       <c r="I10">
-        <v>17.9956963124709</v>
+        <v>3.530418276349153</v>
       </c>
       <c r="J10">
-        <v>5.936915123535918</v>
+        <v>12.23137555579947</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.90942459777625</v>
       </c>
       <c r="L10">
-        <v>7.595117131794916</v>
+        <v>6.198468270259302</v>
       </c>
       <c r="M10">
-        <v>14.98688001659946</v>
+        <v>13.25295789751103</v>
       </c>
       <c r="N10">
-        <v>11.90763680823828</v>
+        <v>7.29051792692473</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>11.74007855523907</v>
+      </c>
+      <c r="P10">
+        <v>14.10950527322822</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.20313055500895</v>
+        <v>16.42751840261135</v>
       </c>
       <c r="C11">
-        <v>16.54389377455939</v>
+        <v>8.626752510193048</v>
       </c>
       <c r="D11">
-        <v>4.432052804763713</v>
+        <v>4.741174089143389</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.21836306654492</v>
+        <v>28.05231551161227</v>
       </c>
       <c r="G11">
-        <v>41.51445805738872</v>
+        <v>35.46327173768216</v>
       </c>
       <c r="H11">
-        <v>12.18447037375315</v>
+        <v>3.661040145783101</v>
       </c>
       <c r="I11">
-        <v>18.09109403240658</v>
+        <v>3.47677095571914</v>
       </c>
       <c r="J11">
-        <v>5.910916562584903</v>
+        <v>11.90997782295768</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>19.23184342016943</v>
       </c>
       <c r="L11">
-        <v>7.680208145305571</v>
+        <v>6.125758072632145</v>
       </c>
       <c r="M11">
-        <v>15.38309017408191</v>
+        <v>13.55620251785317</v>
       </c>
       <c r="N11">
-        <v>11.73086554458665</v>
+        <v>6.771796998808832</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>11.38347095527383</v>
+      </c>
+      <c r="P11">
+        <v>13.8637918569682</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.54637573883382</v>
+        <v>16.32282858717148</v>
       </c>
       <c r="C12">
-        <v>16.74738261188286</v>
+        <v>8.885499776080897</v>
       </c>
       <c r="D12">
-        <v>4.441392440711907</v>
+        <v>4.53562963451389</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.42846880697635</v>
+        <v>27.08364585491277</v>
       </c>
       <c r="G12">
-        <v>41.90109633363453</v>
+        <v>34.11721013085653</v>
       </c>
       <c r="H12">
-        <v>12.23043187195295</v>
+        <v>4.802177017650888</v>
       </c>
       <c r="I12">
-        <v>18.13061079019437</v>
+        <v>3.468079332532369</v>
       </c>
       <c r="J12">
-        <v>5.901159421354772</v>
+        <v>11.63826404891741</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>18.67259349167161</v>
       </c>
       <c r="L12">
-        <v>7.712741498314079</v>
+        <v>6.115970227850616</v>
       </c>
       <c r="M12">
-        <v>15.5316106334473</v>
+        <v>13.60505971929047</v>
       </c>
       <c r="N12">
-        <v>11.66413332126101</v>
+        <v>6.31955518516287</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>10.97126480900519</v>
+      </c>
+      <c r="P12">
+        <v>13.73262236453888</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.47275391056485</v>
+        <v>15.99859705045631</v>
       </c>
       <c r="C13">
-        <v>16.70372420555481</v>
+        <v>9.022874255805599</v>
       </c>
       <c r="D13">
-        <v>4.439374971796759</v>
+        <v>4.303530589717661</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30.38308870238256</v>
+        <v>26.05754800009717</v>
       </c>
       <c r="G13">
-        <v>41.81772600634298</v>
+        <v>32.66862152555655</v>
       </c>
       <c r="H13">
-        <v>12.22045630204236</v>
+        <v>6.09229172663366</v>
       </c>
       <c r="I13">
-        <v>18.1219463437495</v>
+        <v>3.506728519310308</v>
       </c>
       <c r="J13">
-        <v>5.903256942962733</v>
+        <v>11.37485439162364</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>18.1403455452131</v>
       </c>
       <c r="L13">
-        <v>7.705721144136514</v>
+        <v>6.149653730349202</v>
       </c>
       <c r="M13">
-        <v>15.49969253235074</v>
+        <v>13.45897973320978</v>
       </c>
       <c r="N13">
-        <v>11.67849682971573</v>
+        <v>5.899994756841771</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>10.48009958366126</v>
+      </c>
+      <c r="P13">
+        <v>13.67454318812754</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.23150586510486</v>
+        <v>15.66363483438462</v>
       </c>
       <c r="C14">
-        <v>16.56071007045709</v>
+        <v>9.070628036719807</v>
       </c>
       <c r="D14">
-        <v>4.432818486056847</v>
+        <v>4.129285075917545</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>30.23558995982859</v>
+        <v>25.30678310598098</v>
       </c>
       <c r="G14">
-        <v>41.54622142649147</v>
+        <v>31.59391463596361</v>
       </c>
       <c r="H14">
-        <v>12.18821707197493</v>
+        <v>7.040985612081148</v>
       </c>
       <c r="I14">
-        <v>18.09427606052679</v>
+        <v>3.557698515137562</v>
       </c>
       <c r="J14">
-        <v>5.910112094964673</v>
+        <v>11.19311519295508</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>17.77867248092822</v>
       </c>
       <c r="L14">
-        <v>7.682878492532668</v>
+        <v>6.199820734098341</v>
       </c>
       <c r="M14">
-        <v>15.39533979271394</v>
+        <v>13.26582876098202</v>
       </c>
       <c r="N14">
-        <v>11.72537155890572</v>
+        <v>5.63284288405153</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.09662443239823</v>
+      </c>
+      <c r="P14">
+        <v>13.66820073562891</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.08284781519397</v>
+        <v>15.52887877291633</v>
       </c>
       <c r="C15">
-        <v>16.47262099768118</v>
+        <v>9.061732190914263</v>
       </c>
       <c r="D15">
-        <v>4.428819903809845</v>
+        <v>4.082039863916051</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>30.14562381554289</v>
+        <v>25.10481162911326</v>
       </c>
       <c r="G15">
-        <v>41.38021408911855</v>
+        <v>31.29725533605143</v>
       </c>
       <c r="H15">
-        <v>12.16869386519703</v>
+        <v>7.266799753560757</v>
       </c>
       <c r="I15">
-        <v>18.07777443009633</v>
+        <v>3.5845357239719</v>
       </c>
       <c r="J15">
-        <v>5.914322419084852</v>
+        <v>11.14847511877226</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.69055325561131</v>
       </c>
       <c r="L15">
-        <v>7.668926999140542</v>
+        <v>6.212472137443744</v>
       </c>
       <c r="M15">
-        <v>15.3312213736</v>
+        <v>13.17523623224083</v>
       </c>
       <c r="N15">
-        <v>11.7541092890823</v>
+        <v>5.571839590931452</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.985657978306005</v>
+      </c>
+      <c r="P15">
+        <v>13.67923553284333</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.21727754515987</v>
+        <v>15.07731418368598</v>
       </c>
       <c r="C16">
-        <v>15.96028028115452</v>
+        <v>8.804983888473288</v>
       </c>
       <c r="D16">
-        <v>4.4061669424333</v>
+        <v>4.032016601014308</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>29.63591752493071</v>
+        <v>25.02760365306096</v>
       </c>
       <c r="G16">
-        <v>40.43353193204218</v>
+        <v>31.14698597210892</v>
       </c>
       <c r="H16">
-        <v>12.06020588671521</v>
+        <v>7.106307524503132</v>
       </c>
       <c r="I16">
-        <v>17.98992634160729</v>
+        <v>3.693956773795432</v>
       </c>
       <c r="J16">
-        <v>5.938626694651929</v>
+        <v>11.1749640858034</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.74904670607221</v>
       </c>
       <c r="L16">
-        <v>7.589600239353272</v>
+        <v>6.169391934300831</v>
       </c>
       <c r="M16">
-        <v>14.96077839963922</v>
+        <v>12.76885886134087</v>
       </c>
       <c r="N16">
-        <v>11.91922072744556</v>
+        <v>5.571148398825692</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.844039692036349</v>
+      </c>
+      <c r="P16">
+        <v>13.79241094617278</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.67399355695596</v>
+        <v>14.91081919217581</v>
       </c>
       <c r="C17">
-        <v>15.63920215903556</v>
+        <v>8.577511525529737</v>
       </c>
       <c r="D17">
-        <v>4.392496787681707</v>
+        <v>4.088072250387924</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>29.32846873117892</v>
+        <v>25.37087896243323</v>
       </c>
       <c r="G17">
-        <v>39.85701891064012</v>
+        <v>31.61085602681685</v>
       </c>
       <c r="H17">
-        <v>11.99662878058516</v>
+        <v>6.455782818732564</v>
       </c>
       <c r="I17">
-        <v>17.94187644227059</v>
+        <v>3.751591765418931</v>
       </c>
       <c r="J17">
-        <v>5.953697071796849</v>
+        <v>11.29182643251201</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>17.98421113708019</v>
       </c>
       <c r="L17">
-        <v>7.541499224902494</v>
+        <v>6.104537920792941</v>
       </c>
       <c r="M17">
-        <v>14.73090008239454</v>
+        <v>12.55808104750511</v>
       </c>
       <c r="N17">
-        <v>12.02092907772889</v>
+        <v>5.707735598007406</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.943816511947897</v>
+      </c>
+      <c r="P17">
+        <v>13.88219058017724</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.35696341528242</v>
+        <v>14.98800093277377</v>
       </c>
       <c r="C18">
-        <v>15.4520194503902</v>
+        <v>8.340935458176894</v>
       </c>
       <c r="D18">
-        <v>4.384714955337028</v>
+        <v>4.241687582112286</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>29.15356549403594</v>
+        <v>26.13461889247223</v>
       </c>
       <c r="G18">
-        <v>39.52703173082546</v>
+        <v>32.687876279218</v>
       </c>
       <c r="H18">
-        <v>11.96113507696595</v>
+        <v>5.364693247114623</v>
       </c>
       <c r="I18">
-        <v>17.91632645902006</v>
+        <v>3.760272317074122</v>
       </c>
       <c r="J18">
-        <v>5.962425262737192</v>
+        <v>11.5059916124982</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.41724258297375</v>
       </c>
       <c r="L18">
-        <v>7.514042700493532</v>
+        <v>6.044630041627761</v>
       </c>
       <c r="M18">
-        <v>14.59774166220352</v>
+        <v>12.50034430018713</v>
       </c>
       <c r="N18">
-        <v>12.0795967350087</v>
+        <v>6.005005179400564</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>10.26549332414176</v>
+      </c>
+      <c r="P18">
+        <v>13.97266782833689</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.24883837120959</v>
+        <v>15.22682299768517</v>
       </c>
       <c r="C19">
-        <v>15.38821042812978</v>
+        <v>8.147633836780608</v>
       </c>
       <c r="D19">
-        <v>4.382093831930963</v>
+        <v>4.469733871051238</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>29.09467910374295</v>
+        <v>27.13848735146409</v>
       </c>
       <c r="G19">
-        <v>39.41558487225986</v>
+        <v>34.09963619009198</v>
       </c>
       <c r="H19">
-        <v>11.94930011958754</v>
+        <v>4.160269983503725</v>
       </c>
       <c r="I19">
-        <v>17.90802843732629</v>
+        <v>3.74322263376858</v>
       </c>
       <c r="J19">
-        <v>5.965390907095478</v>
+        <v>11.77033734942316</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.95521809100816</v>
       </c>
       <c r="L19">
-        <v>7.504782726244848</v>
+        <v>6.039513998494908</v>
       </c>
       <c r="M19">
-        <v>14.5524979720614</v>
+        <v>12.5663093285664</v>
       </c>
       <c r="N19">
-        <v>12.09949070593162</v>
+        <v>6.449382665691328</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>10.73479880867343</v>
+      </c>
+      <c r="P19">
+        <v>14.0659007088935</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.73229699229345</v>
+        <v>15.9414680316468</v>
       </c>
       <c r="C20">
-        <v>15.67364056222897</v>
+        <v>8.042458254161303</v>
       </c>
       <c r="D20">
-        <v>4.393943575405029</v>
+        <v>4.879152207691329</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>29.36099729282607</v>
+        <v>28.84422909534748</v>
       </c>
       <c r="G20">
-        <v>39.91822445342138</v>
+        <v>36.51270921454194</v>
       </c>
       <c r="H20">
-        <v>12.00328505195502</v>
+        <v>3.064981463063864</v>
       </c>
       <c r="I20">
-        <v>17.94677408271476</v>
+        <v>3.62516151289953</v>
       </c>
       <c r="J20">
-        <v>5.952086608529672</v>
+        <v>12.19046372606961</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.82139564028556</v>
       </c>
       <c r="L20">
-        <v>7.546598001805974</v>
+        <v>6.175071690357744</v>
       </c>
       <c r="M20">
-        <v>14.75546876815904</v>
+        <v>12.97988252458875</v>
       </c>
       <c r="N20">
-        <v>12.01008500631018</v>
+        <v>7.247337332218007</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>11.59379080797016</v>
+      </c>
+      <c r="P20">
+        <v>14.16312932218018</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.30255084496294</v>
+        <v>16.87668314840034</v>
       </c>
       <c r="C21">
-        <v>16.60281853725082</v>
+        <v>8.448340888972862</v>
       </c>
       <c r="D21">
-        <v>4.434740631945983</v>
+        <v>5.088083369094334</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30.27883452052325</v>
+        <v>29.54329296624594</v>
       </c>
       <c r="G21">
-        <v>41.6259071833222</v>
+        <v>37.54623112721141</v>
       </c>
       <c r="H21">
-        <v>12.19763967235151</v>
+        <v>2.793028322843361</v>
       </c>
       <c r="I21">
-        <v>18.10230996247535</v>
+        <v>3.415670533251767</v>
       </c>
       <c r="J21">
-        <v>5.908096212808719</v>
+        <v>12.29715804385358</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.03157679678999</v>
       </c>
       <c r="L21">
-        <v>7.689579550613875</v>
+        <v>6.257078355822412</v>
       </c>
       <c r="M21">
-        <v>15.42603237790644</v>
+        <v>13.76475313030953</v>
       </c>
       <c r="N21">
-        <v>11.71159806300566</v>
+        <v>7.500272138759162</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>12.09001961108032</v>
+      </c>
+      <c r="P21">
+        <v>13.99857556627866</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.28902761226682</v>
+        <v>17.4579472478522</v>
       </c>
       <c r="C22">
-        <v>17.18816364497538</v>
+        <v>8.701920828380953</v>
       </c>
       <c r="D22">
-        <v>4.462178374575996</v>
+        <v>5.20116708142423</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.89577072126088</v>
+        <v>29.95817380950145</v>
       </c>
       <c r="G22">
-        <v>42.75539236593272</v>
+        <v>38.17163931197767</v>
       </c>
       <c r="H22">
-        <v>12.33464576563144</v>
+        <v>2.630076579599768</v>
       </c>
       <c r="I22">
-        <v>18.22381707672232</v>
+        <v>3.27405933749736</v>
       </c>
       <c r="J22">
-        <v>5.879856814631261</v>
+        <v>12.36033933991669</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>20.15534185072031</v>
       </c>
       <c r="L22">
-        <v>7.784837136951913</v>
+        <v>6.302286261071452</v>
       </c>
       <c r="M22">
-        <v>15.85542700034078</v>
+        <v>14.2507595354075</v>
       </c>
       <c r="N22">
-        <v>11.51770425960291</v>
+        <v>7.622572239058882</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>12.37515969556343</v>
+      </c>
+      <c r="P22">
+        <v>13.88814686957804</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.76612926879741</v>
+        <v>17.16487632606987</v>
       </c>
       <c r="C23">
-        <v>16.87773914640239</v>
+        <v>8.552485234681075</v>
       </c>
       <c r="D23">
-        <v>4.447460617321973</v>
+        <v>5.137469919759279</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.56494216620159</v>
+        <v>29.76565628698257</v>
       </c>
       <c r="G23">
-        <v>42.15137182672989</v>
+        <v>37.8876152967191</v>
       </c>
       <c r="H23">
-        <v>12.26058928857512</v>
+        <v>2.715597539747897</v>
       </c>
       <c r="I23">
-        <v>18.15708830819667</v>
+        <v>3.338741349139318</v>
       </c>
       <c r="J23">
-        <v>5.894883184055291</v>
+        <v>12.33597782935795</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>20.11163284813166</v>
       </c>
       <c r="L23">
-        <v>7.733833268694203</v>
+        <v>6.279682640770807</v>
       </c>
       <c r="M23">
-        <v>15.627082058189</v>
+        <v>13.99625155507666</v>
       </c>
       <c r="N23">
-        <v>11.62109626059566</v>
+        <v>7.554017604321166</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>12.22662437063121</v>
+      </c>
+      <c r="P23">
+        <v>13.9513842219131</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.70595262195253</v>
+        <v>15.98232680748207</v>
       </c>
       <c r="C24">
-        <v>15.65807903353178</v>
+        <v>7.994619196790369</v>
       </c>
       <c r="D24">
-        <v>4.393289242407697</v>
+        <v>4.896561531419714</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>29.346285356059</v>
+        <v>28.99483117906794</v>
       </c>
       <c r="G24">
-        <v>39.89054887545896</v>
+        <v>36.73755944474349</v>
       </c>
       <c r="H24">
-        <v>12.00027246207226</v>
+        <v>3.048283193470337</v>
       </c>
       <c r="I24">
-        <v>17.94455341184699</v>
+        <v>3.607710794022019</v>
       </c>
       <c r="J24">
-        <v>5.952814499266593</v>
+        <v>12.23421447987725</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.91679524268368</v>
       </c>
       <c r="L24">
-        <v>7.54429222926564</v>
+        <v>6.189884139450321</v>
       </c>
       <c r="M24">
-        <v>14.74436436880739</v>
+        <v>12.98451230541425</v>
       </c>
       <c r="N24">
-        <v>12.01498700286318</v>
+        <v>7.295921494642295</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>11.64431486621544</v>
+      </c>
+      <c r="P24">
+        <v>14.18547440964234</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.30950118615183</v>
+        <v>14.60343373496021</v>
       </c>
       <c r="C25">
-        <v>14.24647587619796</v>
+        <v>7.359276917395793</v>
       </c>
       <c r="D25">
-        <v>4.337925598975744</v>
+        <v>4.625926482954172</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>28.10581967404196</v>
+        <v>28.1775042547036</v>
       </c>
       <c r="G25">
-        <v>37.51427509179256</v>
+        <v>35.5147164302689</v>
       </c>
       <c r="H25">
-        <v>11.76028440087292</v>
+        <v>3.422710330385383</v>
       </c>
       <c r="I25">
-        <v>17.79432848565089</v>
+        <v>3.912721164471741</v>
       </c>
       <c r="J25">
-        <v>6.017613963353473</v>
+        <v>12.13735351222569</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.72277798564304</v>
       </c>
       <c r="L25">
-        <v>7.347908165330979</v>
+        <v>6.088850210943852</v>
       </c>
       <c r="M25">
-        <v>13.75681158783749</v>
+        <v>11.80005218925969</v>
       </c>
       <c r="N25">
-        <v>12.44642842264958</v>
+        <v>7.009662907906461</v>
       </c>
       <c r="O25">
+        <v>10.98648508233065</v>
+      </c>
+      <c r="P25">
+        <v>14.44210845907613</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.5446357541703</v>
+        <v>12.9961568832461</v>
       </c>
       <c r="C2">
-        <v>6.819531287606575</v>
+        <v>6.926390038719527</v>
       </c>
       <c r="D2">
-        <v>4.408445833627495</v>
+        <v>4.587843589414378</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.66624540578361</v>
+        <v>26.49770838392846</v>
       </c>
       <c r="G2">
-        <v>34.76518942595494</v>
+        <v>32.69513715663975</v>
       </c>
       <c r="H2">
-        <v>3.709390045010599</v>
+        <v>3.528798498372025</v>
       </c>
       <c r="I2">
-        <v>4.12708660565181</v>
+        <v>3.894400684989495</v>
       </c>
       <c r="J2">
-        <v>12.10090183728475</v>
+        <v>11.71890140381562</v>
       </c>
       <c r="K2">
-        <v>19.65042435599436</v>
+        <v>18.56466167171473</v>
       </c>
       <c r="L2">
-        <v>6.014547261634185</v>
+        <v>14.50445335541678</v>
       </c>
       <c r="M2">
-        <v>10.85545528333468</v>
+        <v>12.97747656053034</v>
       </c>
       <c r="N2">
-        <v>6.783933814497336</v>
+        <v>5.955087184275296</v>
       </c>
       <c r="O2">
-        <v>10.4873749503041</v>
+        <v>10.84194509948742</v>
       </c>
       <c r="P2">
-        <v>14.64667169750497</v>
+        <v>7.051894260886542</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>10.36222276917388</v>
+      </c>
+      <c r="R2">
+        <v>14.30320245205991</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.7500510300305</v>
+        <v>12.23726863680227</v>
       </c>
       <c r="C3">
-        <v>6.458779891743059</v>
+        <v>6.489408454938989</v>
       </c>
       <c r="D3">
-        <v>4.262050743943126</v>
+        <v>4.43582126096</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.28658208591555</v>
+        <v>26.19447882032095</v>
       </c>
       <c r="G3">
-        <v>34.19596392005658</v>
+        <v>32.32069693297628</v>
       </c>
       <c r="H3">
-        <v>3.914589399121983</v>
+        <v>3.718244408502633</v>
       </c>
       <c r="I3">
-        <v>4.293483772994324</v>
+        <v>4.041167937485341</v>
       </c>
       <c r="J3">
-        <v>12.06865272889589</v>
+        <v>11.66665099674283</v>
       </c>
       <c r="K3">
-        <v>19.57666485705691</v>
+        <v>18.54405206367894</v>
       </c>
       <c r="L3">
-        <v>5.959560757789848</v>
+        <v>14.57489465854838</v>
       </c>
       <c r="M3">
-        <v>10.15971146710637</v>
+        <v>12.90833788415299</v>
       </c>
       <c r="N3">
-        <v>6.633000310385366</v>
+        <v>5.906219050586437</v>
       </c>
       <c r="O3">
-        <v>10.13210044802853</v>
+        <v>10.16250231064193</v>
       </c>
       <c r="P3">
-        <v>14.78156908982638</v>
+        <v>6.898884589925966</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.01256100334654</v>
+      </c>
+      <c r="R3">
+        <v>14.44008365480048</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.23563350612979</v>
+        <v>11.7444127410451</v>
       </c>
       <c r="C4">
-        <v>6.229197837035589</v>
+        <v>6.210065745073965</v>
       </c>
       <c r="D4">
-        <v>4.170382153808535</v>
+        <v>4.340888269834768</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.05726889035399</v>
+        <v>26.01127480334615</v>
       </c>
       <c r="G4">
-        <v>33.851073083492</v>
+        <v>32.098492181088</v>
       </c>
       <c r="H4">
-        <v>4.045283102946367</v>
+        <v>3.838976059706437</v>
       </c>
       <c r="I4">
-        <v>4.400082765238412</v>
+        <v>4.135496674776227</v>
       </c>
       <c r="J4">
-        <v>12.05143393244357</v>
+        <v>11.63496599811161</v>
       </c>
       <c r="K4">
-        <v>19.53413927878714</v>
+        <v>18.53311971808596</v>
       </c>
       <c r="L4">
-        <v>5.924476425604439</v>
+        <v>14.61667426285198</v>
       </c>
       <c r="M4">
-        <v>9.745147197686979</v>
+        <v>12.88169651850003</v>
       </c>
       <c r="N4">
-        <v>6.539170139567334</v>
+        <v>5.874989769317629</v>
       </c>
       <c r="O4">
-        <v>9.908295316382521</v>
+        <v>9.720594339319829</v>
       </c>
       <c r="P4">
-        <v>14.86559378878831</v>
+        <v>6.804135292644867</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.791989140493417</v>
+      </c>
+      <c r="R4">
+        <v>14.52536571976497</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.01427320207777</v>
+        <v>11.5317440979143</v>
       </c>
       <c r="C5">
-        <v>6.138563258014972</v>
+        <v>6.099047550737296</v>
       </c>
       <c r="D5">
-        <v>4.133734828948148</v>
+        <v>4.302948458661588</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.95659280941761</v>
+        <v>25.9293734283418</v>
       </c>
       <c r="G5">
-        <v>33.69743924205071</v>
+        <v>31.99608342809463</v>
       </c>
       <c r="H5">
-        <v>4.100101919809783</v>
+        <v>3.889641949204805</v>
       </c>
       <c r="I5">
-        <v>4.447039342344326</v>
+        <v>4.177782538271243</v>
       </c>
       <c r="J5">
-        <v>12.04247424513675</v>
+        <v>11.61955035360293</v>
       </c>
       <c r="K5">
-        <v>19.51141290993245</v>
+        <v>18.52329129101951</v>
       </c>
       <c r="L5">
-        <v>5.909406159950896</v>
+        <v>14.62791783583003</v>
       </c>
       <c r="M5">
-        <v>9.581991717041044</v>
+        <v>12.87146730717401</v>
       </c>
       <c r="N5">
-        <v>6.501660780334562</v>
+        <v>5.861554136447372</v>
       </c>
       <c r="O5">
-        <v>9.81488431795699</v>
+        <v>9.533311954292994</v>
       </c>
       <c r="P5">
-        <v>14.89884782923235</v>
+        <v>6.766321406508548</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.699851360272739</v>
+      </c>
+      <c r="R5">
+        <v>14.5593322231478</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.97079013689023</v>
+        <v>11.4897391825405</v>
       </c>
       <c r="C6">
-        <v>6.129437004116031</v>
+        <v>6.087259915653218</v>
       </c>
       <c r="D6">
-        <v>4.128990171789503</v>
+        <v>4.297971156637169</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.92985271092783</v>
+        <v>25.9060070316908</v>
       </c>
       <c r="G6">
-        <v>33.65445611766537</v>
+        <v>31.96232732123015</v>
       </c>
       <c r="H6">
-        <v>4.109719625478677</v>
+        <v>3.898542894082266</v>
       </c>
       <c r="I6">
-        <v>4.457952560493877</v>
+        <v>4.188425789047376</v>
       </c>
       <c r="J6">
-        <v>12.03786647977134</v>
+        <v>11.61381093365653</v>
       </c>
       <c r="K6">
-        <v>19.50024172086533</v>
+        <v>18.51460221309047</v>
       </c>
       <c r="L6">
-        <v>5.906350025404701</v>
+        <v>14.6231586604279</v>
       </c>
       <c r="M6">
-        <v>9.553507837071006</v>
+        <v>12.86588249599954</v>
       </c>
       <c r="N6">
-        <v>6.496626416599895</v>
+        <v>5.858818738199643</v>
       </c>
       <c r="O6">
-        <v>9.798198859571974</v>
+        <v>9.500632581114983</v>
       </c>
       <c r="P6">
-        <v>14.90280566138553</v>
+        <v>6.761213469658251</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.683389421926829</v>
+      </c>
+      <c r="R6">
+        <v>14.56364269080331</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.21573412060914</v>
+        <v>11.72073779025133</v>
       </c>
       <c r="C7">
-        <v>6.244193916570151</v>
+        <v>6.217878789865473</v>
       </c>
       <c r="D7">
-        <v>4.173569280892181</v>
+        <v>4.348722273788979</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.02851494921298</v>
+        <v>25.96757083359147</v>
       </c>
       <c r="G7">
-        <v>33.80135028516294</v>
+        <v>32.11456014198416</v>
       </c>
       <c r="H7">
-        <v>4.047206282321523</v>
+        <v>3.841398858134779</v>
       </c>
       <c r="I7">
-        <v>4.408780734694652</v>
+        <v>4.146078072921309</v>
       </c>
       <c r="J7">
-        <v>12.0427114519638</v>
+        <v>11.58652908874729</v>
       </c>
       <c r="K7">
-        <v>19.51357095268484</v>
+        <v>18.50516816104224</v>
       </c>
       <c r="L7">
-        <v>5.92283606225254</v>
+        <v>14.59135133092271</v>
       </c>
       <c r="M7">
-        <v>9.739891234532983</v>
+        <v>12.86480815364351</v>
       </c>
       <c r="N7">
-        <v>6.541944965324703</v>
+        <v>5.873258776758383</v>
       </c>
       <c r="O7">
-        <v>9.904071292042534</v>
+        <v>9.70875679689698</v>
       </c>
       <c r="P7">
-        <v>14.86176681552853</v>
+        <v>6.806624953877313</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.786422899490292</v>
+      </c>
+      <c r="R7">
+        <v>14.52038923731168</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.25535714165852</v>
+        <v>12.70701896816437</v>
       </c>
       <c r="C8">
-        <v>6.717017126628918</v>
+        <v>6.772910305495632</v>
       </c>
       <c r="D8">
-        <v>4.363031366623367</v>
+        <v>4.555544983070805</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.49909144396817</v>
+        <v>26.30620668659265</v>
       </c>
       <c r="G8">
-        <v>34.50641350620974</v>
+        <v>32.71345203347627</v>
       </c>
       <c r="H8">
-        <v>3.780666798470492</v>
+        <v>3.596529083588049</v>
       </c>
       <c r="I8">
-        <v>4.193771509203865</v>
+        <v>3.957952176035913</v>
       </c>
       <c r="J8">
-        <v>12.07799002100442</v>
+        <v>11.56052765376755</v>
       </c>
       <c r="K8">
-        <v>19.59790056050022</v>
+        <v>18.50416906654879</v>
       </c>
       <c r="L8">
-        <v>5.994034424565422</v>
+        <v>14.48328574971989</v>
       </c>
       <c r="M8">
-        <v>10.61674250952234</v>
+        <v>12.91537672637376</v>
       </c>
       <c r="N8">
-        <v>6.736392478895098</v>
+        <v>5.936104989792876</v>
       </c>
       <c r="O8">
-        <v>10.3623350153024</v>
+        <v>10.59004689058161</v>
       </c>
       <c r="P8">
-        <v>14.68750283638939</v>
+        <v>7.002845117274161</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>10.2347324968821</v>
+      </c>
+      <c r="R8">
+        <v>14.34003926200664</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.10688490154302</v>
+        <v>14.46700814353666</v>
       </c>
       <c r="C9">
-        <v>7.553032265799555</v>
+        <v>7.776335029250051</v>
       </c>
       <c r="D9">
-        <v>4.712562265851912</v>
+        <v>4.922873202180381</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.49701408453686</v>
+        <v>27.09734319243967</v>
       </c>
       <c r="G9">
-        <v>36.00389536944327</v>
+        <v>33.79438756479279</v>
       </c>
       <c r="H9">
-        <v>3.292577100410801</v>
+        <v>3.146618215449178</v>
       </c>
       <c r="I9">
-        <v>3.793550579651185</v>
+        <v>3.604467850686331</v>
       </c>
       <c r="J9">
-        <v>12.18325746075526</v>
+        <v>11.66990945099569</v>
       </c>
       <c r="K9">
-        <v>19.82125452685342</v>
+        <v>18.58132553824516</v>
       </c>
       <c r="L9">
-        <v>6.125779770365606</v>
+        <v>14.31681318197835</v>
       </c>
       <c r="M9">
-        <v>12.21650819154219</v>
+        <v>13.18016302453959</v>
       </c>
       <c r="N9">
-        <v>7.101542611611894</v>
+        <v>6.052883851315122</v>
       </c>
       <c r="O9">
-        <v>11.21662233493745</v>
+        <v>12.14987579712844</v>
       </c>
       <c r="P9">
-        <v>14.36202262393154</v>
+        <v>7.37495432393485</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>11.07305405405611</v>
+      </c>
+      <c r="R9">
+        <v>14.00817826577259</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.28574833392322</v>
+        <v>15.56709620839066</v>
       </c>
       <c r="C10">
-        <v>8.155561019618595</v>
+        <v>8.443856866040184</v>
       </c>
       <c r="D10">
-        <v>4.926184942843664</v>
+        <v>5.17194954112686</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>29.08463365827703</v>
+        <v>27.46051206405729</v>
       </c>
       <c r="G10">
-        <v>36.89166949034901</v>
+        <v>34.77224689590683</v>
       </c>
       <c r="H10">
-        <v>2.98155187265389</v>
+        <v>2.864879306682671</v>
       </c>
       <c r="I10">
-        <v>3.530418276349153</v>
+        <v>3.377741274216203</v>
       </c>
       <c r="J10">
-        <v>12.23137555579947</v>
+        <v>11.49987117194076</v>
       </c>
       <c r="K10">
-        <v>19.90942459777625</v>
+        <v>18.52370516023318</v>
       </c>
       <c r="L10">
-        <v>6.198468270259302</v>
+        <v>14.09435831610625</v>
       </c>
       <c r="M10">
-        <v>13.25295789751103</v>
+        <v>13.35143360419297</v>
       </c>
       <c r="N10">
-        <v>7.29051792692473</v>
+        <v>6.117083286509409</v>
       </c>
       <c r="O10">
-        <v>11.74007855523907</v>
+        <v>13.13365210791275</v>
       </c>
       <c r="P10">
-        <v>14.10950527322822</v>
+        <v>7.567582799106136</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.57811092414415</v>
+      </c>
+      <c r="R10">
+        <v>13.74895806289914</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.42751840261135</v>
+        <v>15.69436453959415</v>
       </c>
       <c r="C11">
-        <v>8.626752510193048</v>
+        <v>8.839677778309522</v>
       </c>
       <c r="D11">
-        <v>4.741174089143389</v>
+        <v>5.026264158465956</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>28.05231551161227</v>
+        <v>26.30648319322758</v>
       </c>
       <c r="G11">
-        <v>35.46327173768216</v>
+        <v>34.17824613567326</v>
       </c>
       <c r="H11">
-        <v>3.661040145783101</v>
+        <v>3.576249478077227</v>
       </c>
       <c r="I11">
-        <v>3.47677095571914</v>
+        <v>3.341004554801518</v>
       </c>
       <c r="J11">
-        <v>11.90997782295768</v>
+        <v>10.80176925106386</v>
       </c>
       <c r="K11">
-        <v>19.23184342016943</v>
+        <v>17.81618528154743</v>
       </c>
       <c r="L11">
-        <v>6.125758072632145</v>
+        <v>13.49244367739106</v>
       </c>
       <c r="M11">
-        <v>13.55620251785317</v>
+        <v>12.90348915374389</v>
       </c>
       <c r="N11">
-        <v>6.771796998808832</v>
+        <v>6.064336661322526</v>
       </c>
       <c r="O11">
-        <v>11.38347095527383</v>
+        <v>13.37909513284436</v>
       </c>
       <c r="P11">
-        <v>13.8637918569682</v>
+        <v>7.032151993294414</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>11.21126909983895</v>
+      </c>
+      <c r="R11">
+        <v>13.54253918701369</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.32282858717148</v>
+        <v>15.60539614379544</v>
       </c>
       <c r="C12">
-        <v>8.885499776080897</v>
+        <v>9.040754435580789</v>
       </c>
       <c r="D12">
-        <v>4.53562963451389</v>
+        <v>4.829902056983859</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.08364585491277</v>
+        <v>25.33900854048446</v>
       </c>
       <c r="G12">
-        <v>34.11721013085653</v>
+        <v>33.29053379823058</v>
       </c>
       <c r="H12">
-        <v>4.802177017650888</v>
+        <v>4.738776085348086</v>
       </c>
       <c r="I12">
-        <v>3.468079332532369</v>
+        <v>3.33510910039656</v>
       </c>
       <c r="J12">
-        <v>11.63826404891741</v>
+        <v>10.41447441714615</v>
       </c>
       <c r="K12">
-        <v>18.67259349167161</v>
+        <v>17.29502989228146</v>
       </c>
       <c r="L12">
-        <v>6.115970227850616</v>
+        <v>13.08993109135717</v>
       </c>
       <c r="M12">
-        <v>13.60505971929047</v>
+        <v>12.52599876563872</v>
       </c>
       <c r="N12">
-        <v>6.31955518516287</v>
+        <v>6.07213523845269</v>
       </c>
       <c r="O12">
-        <v>10.97126480900519</v>
+        <v>13.40626182849366</v>
       </c>
       <c r="P12">
-        <v>13.73262236453888</v>
+        <v>6.564087303961502</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.79895170064248</v>
+      </c>
+      <c r="R12">
+        <v>13.45176859104827</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.99859705045631</v>
+        <v>15.33010403824323</v>
       </c>
       <c r="C13">
-        <v>9.022874255805599</v>
+        <v>9.150524509498709</v>
       </c>
       <c r="D13">
-        <v>4.303530589717661</v>
+        <v>4.575590960421979</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>26.05754800009717</v>
+        <v>24.44322561970863</v>
       </c>
       <c r="G13">
-        <v>32.66862152555655</v>
+        <v>31.88840633152507</v>
       </c>
       <c r="H13">
-        <v>6.09229172663366</v>
+        <v>6.038781977240511</v>
       </c>
       <c r="I13">
-        <v>3.506728519310308</v>
+        <v>3.367311410283083</v>
       </c>
       <c r="J13">
-        <v>11.37485439162364</v>
+        <v>10.26843094682216</v>
       </c>
       <c r="K13">
-        <v>18.1403455452131</v>
+        <v>16.8717079485343</v>
       </c>
       <c r="L13">
-        <v>6.149653730349202</v>
+        <v>12.7931307217832</v>
       </c>
       <c r="M13">
-        <v>13.45897973320978</v>
+        <v>12.17641028679044</v>
       </c>
       <c r="N13">
-        <v>5.899994756841771</v>
+        <v>6.122917802698886</v>
       </c>
       <c r="O13">
-        <v>10.48009958366126</v>
+        <v>13.27629579796122</v>
       </c>
       <c r="P13">
-        <v>13.67454318812754</v>
+        <v>6.12889996139305</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.31821291754788</v>
+      </c>
+      <c r="R13">
+        <v>13.43357028060044</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.66363483438462</v>
+        <v>15.04478763314994</v>
       </c>
       <c r="C14">
-        <v>9.070628036719807</v>
+        <v>9.192276412708271</v>
       </c>
       <c r="D14">
-        <v>4.129285075917545</v>
+        <v>4.373044987375937</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.30678310598098</v>
+        <v>23.83783363633103</v>
       </c>
       <c r="G14">
-        <v>31.59391463596361</v>
+        <v>30.67485310102655</v>
       </c>
       <c r="H14">
-        <v>7.040985612081148</v>
+        <v>6.990756077271024</v>
       </c>
       <c r="I14">
-        <v>3.557698515137562</v>
+        <v>3.41015455876069</v>
       </c>
       <c r="J14">
-        <v>11.19311519295508</v>
+        <v>10.25691895822812</v>
       </c>
       <c r="K14">
-        <v>17.77867248092822</v>
+        <v>16.61394442348018</v>
       </c>
       <c r="L14">
-        <v>6.199820734098341</v>
+        <v>12.62448978809982</v>
       </c>
       <c r="M14">
-        <v>13.26582876098202</v>
+        <v>11.94367133518825</v>
       </c>
       <c r="N14">
-        <v>5.63284288405153</v>
+        <v>6.184454933844026</v>
       </c>
       <c r="O14">
-        <v>10.09662443239823</v>
+        <v>13.11130855407356</v>
       </c>
       <c r="P14">
-        <v>13.66820073562891</v>
+        <v>5.850931224349189</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.946460193036669</v>
+      </c>
+      <c r="R14">
+        <v>13.451523523766</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.52887877291633</v>
+        <v>14.92877404713595</v>
       </c>
       <c r="C15">
-        <v>9.061732190914263</v>
+        <v>9.187965601472602</v>
       </c>
       <c r="D15">
-        <v>4.082039863916051</v>
+        <v>4.313760121312652</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.10481162911326</v>
+        <v>23.69427072465747</v>
       </c>
       <c r="G15">
-        <v>31.29725533605143</v>
+        <v>30.2744961030005</v>
       </c>
       <c r="H15">
-        <v>7.266799753560757</v>
+        <v>7.216283704248289</v>
       </c>
       <c r="I15">
-        <v>3.5845357239719</v>
+        <v>3.433740297481187</v>
       </c>
       <c r="J15">
-        <v>11.14847511877226</v>
+        <v>10.29129793863149</v>
       </c>
       <c r="K15">
-        <v>17.69055325561131</v>
+        <v>16.56308459133106</v>
       </c>
       <c r="L15">
-        <v>6.212472137443744</v>
+        <v>12.59628437458618</v>
       </c>
       <c r="M15">
-        <v>13.17523623224083</v>
+        <v>11.88881268107642</v>
       </c>
       <c r="N15">
-        <v>5.571839590931452</v>
+        <v>6.200013443001035</v>
       </c>
       <c r="O15">
-        <v>9.985657978306005</v>
+        <v>13.03493989809334</v>
       </c>
       <c r="P15">
-        <v>13.67923553284333</v>
+        <v>5.787678185214133</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.84023261403226</v>
+      </c>
+      <c r="R15">
+        <v>13.46735098196806</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.07731418368598</v>
+        <v>14.532154701451</v>
       </c>
       <c r="C16">
-        <v>8.804983888473288</v>
+        <v>8.976408776346425</v>
       </c>
       <c r="D16">
-        <v>4.032016601014308</v>
+        <v>4.221114795232888</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>25.02760365306096</v>
+        <v>23.8071428388865</v>
       </c>
       <c r="G16">
-        <v>31.14698597210892</v>
+        <v>29.56305907174189</v>
       </c>
       <c r="H16">
-        <v>7.106307524503132</v>
+        <v>7.04555014086794</v>
       </c>
       <c r="I16">
-        <v>3.693956773795432</v>
+        <v>3.525779135703509</v>
       </c>
       <c r="J16">
-        <v>11.1749640858034</v>
+        <v>10.64085988964305</v>
       </c>
       <c r="K16">
-        <v>17.74904670607221</v>
+        <v>16.71914872357583</v>
       </c>
       <c r="L16">
-        <v>6.169391934300831</v>
+        <v>12.75272009092115</v>
       </c>
       <c r="M16">
-        <v>12.76885886134087</v>
+        <v>11.94074368679865</v>
       </c>
       <c r="N16">
-        <v>5.571148398825692</v>
+        <v>6.15882709292466</v>
       </c>
       <c r="O16">
-        <v>9.844039692036349</v>
+        <v>12.69031795167699</v>
       </c>
       <c r="P16">
-        <v>13.79241094617278</v>
+        <v>5.791529063105143</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.714306714378582</v>
+      </c>
+      <c r="R16">
+        <v>13.57127343717347</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.91081919217581</v>
+        <v>14.37566652516747</v>
       </c>
       <c r="C17">
-        <v>8.577511525529737</v>
+        <v>8.775276733729056</v>
       </c>
       <c r="D17">
-        <v>4.088072250387924</v>
+        <v>4.263901223739708</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>25.37087896243323</v>
+        <v>24.20100736888918</v>
       </c>
       <c r="G17">
-        <v>31.61085602681685</v>
+        <v>29.75459568367894</v>
       </c>
       <c r="H17">
-        <v>6.455782818732564</v>
+        <v>6.383650541214932</v>
       </c>
       <c r="I17">
-        <v>3.751591765418931</v>
+        <v>3.575125165440682</v>
       </c>
       <c r="J17">
-        <v>11.29182643251201</v>
+        <v>10.88725171140704</v>
       </c>
       <c r="K17">
-        <v>17.98421113708019</v>
+        <v>16.96761806943249</v>
       </c>
       <c r="L17">
-        <v>6.104537920792941</v>
+        <v>12.96442926396008</v>
       </c>
       <c r="M17">
-        <v>12.55808104750511</v>
+        <v>12.093227700304</v>
       </c>
       <c r="N17">
-        <v>5.707735598007406</v>
+        <v>6.089086702364813</v>
       </c>
       <c r="O17">
-        <v>9.943816511947897</v>
+        <v>12.50458237995484</v>
       </c>
       <c r="P17">
-        <v>13.88219058017724</v>
+        <v>5.936825151144181</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.818360666026491</v>
+      </c>
+      <c r="R17">
+        <v>13.64505265046659</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.98800093277377</v>
+        <v>14.43197246463524</v>
       </c>
       <c r="C18">
-        <v>8.340935458176894</v>
+        <v>8.565281558525227</v>
       </c>
       <c r="D18">
-        <v>4.241687582112286</v>
+        <v>4.419083154495492</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.13461889247223</v>
+        <v>24.93233928659815</v>
       </c>
       <c r="G18">
-        <v>32.687876279218</v>
+        <v>30.6317262001956</v>
       </c>
       <c r="H18">
-        <v>5.364693247114623</v>
+        <v>5.276242544424523</v>
       </c>
       <c r="I18">
-        <v>3.760272317074122</v>
+        <v>3.58019643849972</v>
       </c>
       <c r="J18">
-        <v>11.5059916124982</v>
+        <v>11.13891841700565</v>
       </c>
       <c r="K18">
-        <v>18.41724258297375</v>
+        <v>17.35833944528054</v>
       </c>
       <c r="L18">
-        <v>6.044630041627761</v>
+        <v>13.27759021712298</v>
       </c>
       <c r="M18">
-        <v>12.50034430018713</v>
+        <v>12.36909709547466</v>
       </c>
       <c r="N18">
-        <v>6.005005179400564</v>
+        <v>6.017265161182361</v>
       </c>
       <c r="O18">
-        <v>10.26549332414176</v>
+        <v>12.45259421647722</v>
       </c>
       <c r="P18">
-        <v>13.97266782833689</v>
+        <v>6.246710919501173</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.13761548722101</v>
+      </c>
+      <c r="R18">
+        <v>13.7104294206712</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.22682299768517</v>
+        <v>14.63069092042134</v>
       </c>
       <c r="C19">
-        <v>8.147633836780608</v>
+        <v>8.403524781947686</v>
       </c>
       <c r="D19">
-        <v>4.469733871051238</v>
+        <v>4.657215699612713</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.13848735146409</v>
+        <v>25.85308954590319</v>
       </c>
       <c r="G19">
-        <v>34.09963619009198</v>
+        <v>31.86471917346768</v>
       </c>
       <c r="H19">
-        <v>4.160269983503725</v>
+        <v>4.049509863000176</v>
       </c>
       <c r="I19">
-        <v>3.74322263376858</v>
+        <v>3.566756338134694</v>
       </c>
       <c r="J19">
-        <v>11.77033734942316</v>
+        <v>11.39089811286045</v>
       </c>
       <c r="K19">
-        <v>18.95521809100816</v>
+        <v>17.81959558461292</v>
       </c>
       <c r="L19">
-        <v>6.039513998494908</v>
+        <v>13.6378899474385</v>
       </c>
       <c r="M19">
-        <v>12.5663093285664</v>
+        <v>12.71066007095958</v>
       </c>
       <c r="N19">
-        <v>6.449382665691328</v>
+        <v>5.994367214532647</v>
       </c>
       <c r="O19">
-        <v>10.73479880867343</v>
+        <v>12.51280263990076</v>
       </c>
       <c r="P19">
-        <v>14.0659007088935</v>
+        <v>6.705391025199874</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.60035991239639</v>
+      </c>
+      <c r="R19">
+        <v>13.77207478687687</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.9414680316468</v>
+        <v>15.25564283717759</v>
       </c>
       <c r="C20">
-        <v>8.042458254161303</v>
+        <v>8.343533487772902</v>
       </c>
       <c r="D20">
-        <v>4.879152207691329</v>
+        <v>5.10070718321403</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>28.84422909534748</v>
+        <v>27.33524603029875</v>
       </c>
       <c r="G20">
-        <v>36.51270921454194</v>
+        <v>34.15627662645387</v>
       </c>
       <c r="H20">
-        <v>3.064981463063864</v>
+        <v>2.938685840874937</v>
       </c>
       <c r="I20">
-        <v>3.62516151289953</v>
+        <v>3.466067700499768</v>
       </c>
       <c r="J20">
-        <v>12.19046372606961</v>
+        <v>11.65075383678868</v>
       </c>
       <c r="K20">
-        <v>19.82139564028556</v>
+        <v>18.50789202050024</v>
       </c>
       <c r="L20">
-        <v>6.175071690357744</v>
+        <v>14.12929231273447</v>
       </c>
       <c r="M20">
-        <v>12.97988252458875</v>
+        <v>13.27954491035401</v>
       </c>
       <c r="N20">
-        <v>7.247337332218007</v>
+        <v>6.097117113057838</v>
       </c>
       <c r="O20">
-        <v>11.59379080797016</v>
+        <v>12.89136576583462</v>
       </c>
       <c r="P20">
-        <v>14.16312932218018</v>
+        <v>7.523778070415978</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11.44125979858182</v>
+      </c>
+      <c r="R20">
+        <v>13.81248856220259</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.87668314840034</v>
+        <v>16.06396882011925</v>
       </c>
       <c r="C21">
-        <v>8.448340888972862</v>
+        <v>8.672567599105156</v>
       </c>
       <c r="D21">
-        <v>5.088083369094334</v>
+        <v>5.417127900965275</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.54329296624594</v>
+        <v>27.56346960577339</v>
       </c>
       <c r="G21">
-        <v>37.54623112721141</v>
+        <v>36.38482223881918</v>
       </c>
       <c r="H21">
-        <v>2.793028322843361</v>
+        <v>2.698068516347653</v>
       </c>
       <c r="I21">
-        <v>3.415670533251767</v>
+        <v>3.293102369086653</v>
       </c>
       <c r="J21">
-        <v>12.29715804385358</v>
+        <v>10.91867775080322</v>
       </c>
       <c r="K21">
-        <v>20.03157679678999</v>
+        <v>18.43187624885248</v>
       </c>
       <c r="L21">
-        <v>6.257078355822412</v>
+        <v>13.93713866850039</v>
       </c>
       <c r="M21">
-        <v>13.76475313030953</v>
+        <v>13.39954948964285</v>
       </c>
       <c r="N21">
-        <v>7.500272138759162</v>
+        <v>6.165090271051668</v>
       </c>
       <c r="O21">
-        <v>12.09001961108032</v>
+        <v>13.54891413063114</v>
       </c>
       <c r="P21">
-        <v>13.99857556627866</v>
+        <v>7.779826739336284</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.89870718075997</v>
+      </c>
+      <c r="R21">
+        <v>13.60817683180303</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.4579472478522</v>
+        <v>16.56324530258469</v>
       </c>
       <c r="C22">
-        <v>8.701920828380953</v>
+        <v>8.8676067302797</v>
       </c>
       <c r="D22">
-        <v>5.20116708142423</v>
+        <v>5.604659503542931</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>29.95817380950145</v>
+        <v>27.65626760435321</v>
       </c>
       <c r="G22">
-        <v>38.17163931197767</v>
+        <v>37.9100906017585</v>
       </c>
       <c r="H22">
-        <v>2.630076579599768</v>
+        <v>2.555128150516121</v>
       </c>
       <c r="I22">
-        <v>3.27405933749736</v>
+        <v>3.17266929461957</v>
       </c>
       <c r="J22">
-        <v>12.36033933991669</v>
+        <v>10.43094452844401</v>
       </c>
       <c r="K22">
-        <v>20.15534185072031</v>
+        <v>18.35941337089549</v>
       </c>
       <c r="L22">
-        <v>6.302286261071452</v>
+        <v>13.79590417458962</v>
       </c>
       <c r="M22">
-        <v>14.2507595354075</v>
+        <v>13.46752982393418</v>
       </c>
       <c r="N22">
-        <v>7.622572239058882</v>
+        <v>6.2028605959629</v>
       </c>
       <c r="O22">
-        <v>12.37515969556343</v>
+        <v>13.95008369156805</v>
       </c>
       <c r="P22">
-        <v>13.88814686957804</v>
+        <v>7.903440214192575</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>12.15753955345181</v>
+      </c>
+      <c r="R22">
+        <v>13.47227839676165</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.16487632606987</v>
+        <v>16.32146309784694</v>
       </c>
       <c r="C23">
-        <v>8.552485234681075</v>
+        <v>8.765177675515295</v>
       </c>
       <c r="D23">
-        <v>5.137469919759279</v>
+        <v>5.490359317529768</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>29.76565628698257</v>
+        <v>27.67306638602211</v>
       </c>
       <c r="G23">
-        <v>37.8876152967191</v>
+        <v>36.97944042579328</v>
       </c>
       <c r="H23">
-        <v>2.715597539747897</v>
+        <v>2.629036085769798</v>
       </c>
       <c r="I23">
-        <v>3.338741349139318</v>
+        <v>3.223136202576032</v>
       </c>
       <c r="J23">
-        <v>12.33597782935795</v>
+        <v>10.77796364444795</v>
       </c>
       <c r="K23">
-        <v>20.11163284813166</v>
+        <v>18.44010353746464</v>
       </c>
       <c r="L23">
-        <v>6.279682640770807</v>
+        <v>13.90141285079812</v>
       </c>
       <c r="M23">
-        <v>13.99625155507666</v>
+        <v>13.46407952451603</v>
       </c>
       <c r="N23">
-        <v>7.554017604321166</v>
+        <v>6.18434589067581</v>
       </c>
       <c r="O23">
-        <v>12.22662437063121</v>
+        <v>13.75223766350699</v>
       </c>
       <c r="P23">
-        <v>13.9513842219131</v>
+        <v>7.834573992680818</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>12.02613502308163</v>
+      </c>
+      <c r="R23">
+        <v>13.55102236695799</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.98232680748207</v>
+        <v>15.29285654166313</v>
       </c>
       <c r="C24">
-        <v>7.994619196790369</v>
+        <v>8.296332464016601</v>
       </c>
       <c r="D24">
-        <v>4.896561531419714</v>
+        <v>5.118561975951113</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>28.99483117906794</v>
+        <v>27.47826309633786</v>
       </c>
       <c r="G24">
-        <v>36.73755944474349</v>
+        <v>34.35290118559543</v>
       </c>
       <c r="H24">
-        <v>3.048283193470337</v>
+        <v>2.922007915013611</v>
       </c>
       <c r="I24">
-        <v>3.607710794022019</v>
+        <v>3.445719677350779</v>
       </c>
       <c r="J24">
-        <v>12.23421447987725</v>
+        <v>11.69741848303397</v>
       </c>
       <c r="K24">
-        <v>19.91679524268368</v>
+        <v>18.59415470330016</v>
       </c>
       <c r="L24">
-        <v>6.189884139450321</v>
+        <v>14.19737542842924</v>
       </c>
       <c r="M24">
-        <v>12.98451230541425</v>
+        <v>13.34246385946517</v>
       </c>
       <c r="N24">
-        <v>7.295921494642295</v>
+        <v>6.109491065960697</v>
       </c>
       <c r="O24">
-        <v>11.64431486621544</v>
+        <v>12.89606824511125</v>
       </c>
       <c r="P24">
-        <v>14.18547440964234</v>
+        <v>7.573790777106764</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.4912167643932</v>
+      </c>
+      <c r="R24">
+        <v>13.82922531941015</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.60343373496021</v>
+        <v>13.99356141012747</v>
       </c>
       <c r="C25">
-        <v>7.359276917395793</v>
+        <v>7.55344047370119</v>
       </c>
       <c r="D25">
-        <v>4.625926482954172</v>
+        <v>4.825109858950996</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>28.1775042547036</v>
+        <v>26.8573639509626</v>
       </c>
       <c r="G25">
-        <v>35.5147164302689</v>
+        <v>33.32934878044861</v>
       </c>
       <c r="H25">
-        <v>3.422710330385383</v>
+        <v>3.265767155962161</v>
       </c>
       <c r="I25">
-        <v>3.912721164471741</v>
+        <v>3.712942554831574</v>
       </c>
       <c r="J25">
-        <v>12.13735351222569</v>
+        <v>11.67969831782561</v>
       </c>
       <c r="K25">
-        <v>19.72277798564304</v>
+        <v>18.53726355539075</v>
       </c>
       <c r="L25">
-        <v>6.088850210943852</v>
+        <v>14.34576522153221</v>
       </c>
       <c r="M25">
-        <v>11.80005218925969</v>
+        <v>13.07992675288982</v>
       </c>
       <c r="N25">
-        <v>7.009662907906461</v>
+        <v>6.020472448767388</v>
       </c>
       <c r="O25">
-        <v>10.98648508233065</v>
+        <v>11.75125145224306</v>
       </c>
       <c r="P25">
-        <v>14.44210845907613</v>
+        <v>7.28110723435423</v>
       </c>
       <c r="Q25">
+        <v>10.84929916793936</v>
+      </c>
+      <c r="R25">
+        <v>14.09374350412829</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
